--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,9 @@
     <t>['42', '50']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -821,9 +824,6 @@
   </si>
   <si>
     <t>['39', '77']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['48', '83']</t>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>['25', '32', '45+2', '58']</t>
+  </si>
+  <si>
+    <t>['44', '77']</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP275"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1684,7 +1687,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1762,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ2">
         <v>0.83</v>
@@ -2589,7 +2592,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2714,7 +2717,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2920,7 +2923,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3538,7 +3541,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3744,7 +3747,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3950,7 +3953,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4156,7 +4159,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4362,7 +4365,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4568,7 +4571,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5186,7 +5189,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5392,7 +5395,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5804,7 +5807,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5882,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6010,7 +6013,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6297,7 +6300,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR24">
         <v>1.56</v>
@@ -7118,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ28">
         <v>0.78</v>
@@ -7452,7 +7455,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7533,7 +7536,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7658,7 +7661,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7864,7 +7867,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7942,7 +7945,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8070,7 +8073,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8482,7 +8485,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8894,7 +8897,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9387,7 +9390,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ39">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9512,7 +9515,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9718,7 +9721,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9924,7 +9927,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10620,7 +10623,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45">
         <v>1.39</v>
@@ -11032,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ47">
         <v>1.06</v>
@@ -12477,7 +12480,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -13710,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -15976,10 +15979,10 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -17006,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -18245,7 +18248,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -18654,7 +18657,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
         <v>1.22</v>
@@ -19684,7 +19687,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ89">
         <v>1.39</v>
@@ -19893,7 +19896,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -22568,7 +22571,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
         <v>0.9399999999999999</v>
@@ -24013,7 +24016,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ110">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR110">
         <v>1.9</v>
@@ -24216,7 +24219,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ111">
         <v>1.35</v>
@@ -24344,7 +24347,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -25864,7 +25867,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ119">
         <v>1.06</v>
@@ -26894,7 +26897,7 @@
         <v>0.86</v>
       </c>
       <c r="AP124">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>1.12</v>
@@ -28336,7 +28339,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ131">
         <v>1.22</v>
@@ -28545,7 +28548,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ132">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR132">
         <v>1.25</v>
@@ -29984,7 +29987,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -31760,7 +31763,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -34310,7 +34313,7 @@
         <v>1.67</v>
       </c>
       <c r="AP160">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ160">
         <v>1.82</v>
@@ -34516,7 +34519,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP161">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161">
         <v>0.65</v>
@@ -34725,7 +34728,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ162">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -36498,7 +36501,7 @@
         <v>98</v>
       </c>
       <c r="P171" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q171">
         <v>1.99</v>
@@ -37606,7 +37609,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ176">
         <v>1.12</v>
@@ -37812,7 +37815,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ177">
         <v>0.78</v>
@@ -38227,7 +38230,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ179">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR179">
         <v>1.24</v>
@@ -38636,7 +38639,7 @@
         <v>1.45</v>
       </c>
       <c r="AP181">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ181">
         <v>1.35</v>
@@ -41108,7 +41111,7 @@
         <v>1.27</v>
       </c>
       <c r="AP193">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ193">
         <v>1</v>
@@ -41520,7 +41523,7 @@
         <v>1.08</v>
       </c>
       <c r="AP195">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ195">
         <v>0.83</v>
@@ -42141,7 +42144,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ198">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR198">
         <v>1.82</v>
@@ -44198,7 +44201,7 @@
         <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ208">
         <v>0.65</v>
@@ -46052,7 +46055,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP217">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ217">
         <v>0.88</v>
@@ -46467,7 +46470,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ219">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR219">
         <v>1.36</v>
@@ -47700,7 +47703,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ225">
         <v>1.06</v>
@@ -48936,7 +48939,7 @@
         <v>1.86</v>
       </c>
       <c r="AP231">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ231">
         <v>1.82</v>
@@ -49760,10 +49763,10 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ235">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR235">
         <v>1.69</v>
@@ -51411,7 +51414,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ243">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR243">
         <v>1.83</v>
@@ -51614,7 +51617,7 @@
         <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ244">
         <v>0.78</v>
@@ -51742,7 +51745,7 @@
         <v>231</v>
       </c>
       <c r="P245" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="Q245">
         <v>2.3</v>
@@ -53468,7 +53471,7 @@
         <v>1.33</v>
       </c>
       <c r="AP253">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ253">
         <v>1.35</v>
@@ -55119,7 +55122,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ261">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR261">
         <v>2.07</v>
@@ -55528,7 +55531,7 @@
         <v>1.38</v>
       </c>
       <c r="AP263">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AQ263">
         <v>1.39</v>
@@ -55734,7 +55737,7 @@
         <v>0.88</v>
       </c>
       <c r="AP264">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ264">
         <v>0.83</v>
@@ -57922,7 +57925,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58078,6 +58081,418 @@
         <v>0</v>
       </c>
       <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7856897</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45766.375</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276" t="s">
+        <v>70</v>
+      </c>
+      <c r="H276" t="s">
+        <v>71</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>248</v>
+      </c>
+      <c r="P276" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q276">
+        <v>3.1</v>
+      </c>
+      <c r="R276">
+        <v>2.05</v>
+      </c>
+      <c r="S276">
+        <v>3.6</v>
+      </c>
+      <c r="T276">
+        <v>1.44</v>
+      </c>
+      <c r="U276">
+        <v>2.63</v>
+      </c>
+      <c r="V276">
+        <v>3.25</v>
+      </c>
+      <c r="W276">
+        <v>1.33</v>
+      </c>
+      <c r="X276">
+        <v>10</v>
+      </c>
+      <c r="Y276">
+        <v>1.06</v>
+      </c>
+      <c r="Z276">
+        <v>2.12</v>
+      </c>
+      <c r="AA276">
+        <v>3.14</v>
+      </c>
+      <c r="AB276">
+        <v>3.57</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>0</v>
+      </c>
+      <c r="AF276">
+        <v>0</v>
+      </c>
+      <c r="AG276">
+        <v>2</v>
+      </c>
+      <c r="AH276">
+        <v>1.75</v>
+      </c>
+      <c r="AI276">
+        <v>1.83</v>
+      </c>
+      <c r="AJ276">
+        <v>1.83</v>
+      </c>
+      <c r="AK276">
+        <v>1.22</v>
+      </c>
+      <c r="AL276">
+        <v>1.3</v>
+      </c>
+      <c r="AM276">
+        <v>1.62</v>
+      </c>
+      <c r="AN276">
+        <v>1.41</v>
+      </c>
+      <c r="AO276">
+        <v>1.06</v>
+      </c>
+      <c r="AP276">
+        <v>1.39</v>
+      </c>
+      <c r="AQ276">
+        <v>1.06</v>
+      </c>
+      <c r="AR276">
+        <v>1.7</v>
+      </c>
+      <c r="AS276">
+        <v>1.32</v>
+      </c>
+      <c r="AT276">
+        <v>3.02</v>
+      </c>
+      <c r="AU276">
+        <v>7</v>
+      </c>
+      <c r="AV276">
+        <v>2</v>
+      </c>
+      <c r="AW276">
+        <v>5</v>
+      </c>
+      <c r="AX276">
+        <v>8</v>
+      </c>
+      <c r="AY276">
+        <v>12</v>
+      </c>
+      <c r="AZ276">
+        <v>10</v>
+      </c>
+      <c r="BA276">
+        <v>4</v>
+      </c>
+      <c r="BB276">
+        <v>3</v>
+      </c>
+      <c r="BC276">
+        <v>7</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7856895</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45766.58333333334</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277" t="s">
+        <v>81</v>
+      </c>
+      <c r="H277" t="s">
+        <v>82</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+      <c r="N277">
+        <v>2</v>
+      </c>
+      <c r="O277" t="s">
+        <v>86</v>
+      </c>
+      <c r="P277" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q277">
+        <v>3</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>4</v>
+      </c>
+      <c r="T277">
+        <v>1.5</v>
+      </c>
+      <c r="U277">
+        <v>2.5</v>
+      </c>
+      <c r="V277">
+        <v>3.5</v>
+      </c>
+      <c r="W277">
+        <v>1.29</v>
+      </c>
+      <c r="X277">
+        <v>11</v>
+      </c>
+      <c r="Y277">
+        <v>1.05</v>
+      </c>
+      <c r="Z277">
+        <v>2.22</v>
+      </c>
+      <c r="AA277">
+        <v>3.02</v>
+      </c>
+      <c r="AB277">
+        <v>3.45</v>
+      </c>
+      <c r="AC277">
+        <v>1.03</v>
+      </c>
+      <c r="AD277">
+        <v>10.5</v>
+      </c>
+      <c r="AE277">
+        <v>1.28</v>
+      </c>
+      <c r="AF277">
+        <v>3.5</v>
+      </c>
+      <c r="AG277">
+        <v>2.2</v>
+      </c>
+      <c r="AH277">
+        <v>1.55</v>
+      </c>
+      <c r="AI277">
+        <v>1.91</v>
+      </c>
+      <c r="AJ277">
+        <v>1.8</v>
+      </c>
+      <c r="AK277">
+        <v>1.3</v>
+      </c>
+      <c r="AL277">
+        <v>1.28</v>
+      </c>
+      <c r="AM277">
+        <v>1.65</v>
+      </c>
+      <c r="AN277">
+        <v>1.94</v>
+      </c>
+      <c r="AO277">
+        <v>1.29</v>
+      </c>
+      <c r="AP277">
+        <v>1.83</v>
+      </c>
+      <c r="AQ277">
+        <v>1.39</v>
+      </c>
+      <c r="AR277">
+        <v>1.7</v>
+      </c>
+      <c r="AS277">
+        <v>1.45</v>
+      </c>
+      <c r="AT277">
+        <v>3.15</v>
+      </c>
+      <c r="AU277">
+        <v>6</v>
+      </c>
+      <c r="AV277">
+        <v>3</v>
+      </c>
+      <c r="AW277">
+        <v>11</v>
+      </c>
+      <c r="AX277">
+        <v>7</v>
+      </c>
+      <c r="AY277">
+        <v>21</v>
+      </c>
+      <c r="AZ277">
+        <v>11</v>
+      </c>
+      <c r="BA277">
+        <v>10</v>
+      </c>
+      <c r="BB277">
+        <v>3</v>
+      </c>
+      <c r="BC277">
+        <v>13</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>0</v>
+      </c>
+      <c r="BJ277">
+        <v>0</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,12 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['13', '20', '74']</t>
+  </si>
+  <si>
+    <t>['41', '56', '63']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -1067,6 +1073,9 @@
   </si>
   <si>
     <t>['44', '77']</t>
+  </si>
+  <si>
+    <t>['67', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,7 +1696,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2589,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.39</v>
@@ -2717,7 +2726,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2923,7 +2932,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3413,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ10">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3541,7 +3550,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3747,7 +3756,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3953,7 +3962,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4034,7 +4043,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4159,7 +4168,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4365,7 +4374,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4571,7 +4580,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5189,7 +5198,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5267,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.22</v>
@@ -5395,7 +5404,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5473,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ20">
         <v>0.65</v>
@@ -5807,7 +5816,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5888,7 +5897,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -6013,7 +6022,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7455,7 +7464,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7661,7 +7670,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7867,7 +7876,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8073,7 +8082,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8151,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.9399999999999999</v>
@@ -8360,7 +8369,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8485,7 +8494,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8897,7 +8906,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9515,7 +9524,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9593,7 +9602,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ40">
         <v>1.39</v>
@@ -9721,7 +9730,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10417,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.78</v>
@@ -10957,7 +10966,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11369,7 +11378,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11447,7 +11456,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ49">
         <v>1.06</v>
@@ -12068,7 +12077,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ52">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12399,7 +12408,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13017,7 +13026,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13429,7 +13438,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13635,7 +13644,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13716,7 +13725,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -13919,7 +13928,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>1.12</v>
@@ -14047,7 +14056,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14540,7 +14549,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -15077,7 +15086,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15361,7 +15370,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ68">
         <v>1.35</v>
@@ -15489,7 +15498,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15901,7 +15910,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16107,7 +16116,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16600,7 +16609,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16725,7 +16734,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16803,7 +16812,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -17137,7 +17146,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17549,7 +17558,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17961,7 +17970,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18042,7 +18051,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18245,7 +18254,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ82">
         <v>1.39</v>
@@ -18373,7 +18382,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18991,7 +19000,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19815,7 +19824,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20021,7 +20030,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20227,7 +20236,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20433,7 +20442,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20845,7 +20854,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20923,7 +20932,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>0.65</v>
@@ -21750,7 +21759,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -21956,7 +21965,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ100">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -22081,7 +22090,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22365,7 +22374,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ102">
         <v>0.83</v>
@@ -22699,7 +22708,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23317,7 +23326,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23523,7 +23532,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23807,7 +23816,7 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.06</v>
@@ -23935,7 +23944,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24141,7 +24150,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24428,7 +24437,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24553,7 +24562,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24965,7 +24974,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25043,7 +25052,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ115">
         <v>1.22</v>
@@ -25664,7 +25673,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR118">
         <v>1.37</v>
@@ -26076,7 +26085,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26201,7 +26210,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26282,7 +26291,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26407,7 +26416,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26485,7 +26494,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -27231,7 +27240,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27724,7 +27733,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -28673,7 +28682,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28957,7 +28966,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>0.83</v>
@@ -29497,7 +29506,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30115,7 +30124,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30527,7 +30536,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30733,7 +30742,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30814,7 +30823,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ143">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -30939,7 +30948,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31145,7 +31154,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31557,7 +31566,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31763,7 +31772,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31969,7 +31978,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32175,7 +32184,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32253,7 +32262,7 @@
         <v>0.89</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32459,10 +32468,10 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ151">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR151">
         <v>2.01</v>
@@ -32793,7 +32802,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32874,7 +32883,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR153">
         <v>1.53</v>
@@ -32999,7 +33008,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33617,7 +33626,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -34110,7 +34119,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR159">
         <v>1.46</v>
@@ -35059,7 +35068,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35471,7 +35480,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -35964,7 +35973,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ168">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR168">
         <v>1.63</v>
@@ -36089,7 +36098,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36167,7 +36176,7 @@
         <v>1.6</v>
       </c>
       <c r="AP169">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ169">
         <v>1.82</v>
@@ -36295,7 +36304,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36501,7 +36510,7 @@
         <v>98</v>
       </c>
       <c r="P171" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q171">
         <v>1.99</v>
@@ -36579,7 +36588,7 @@
         <v>0.7</v>
       </c>
       <c r="AP171">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -37200,7 +37209,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR174">
         <v>1.61</v>
@@ -38355,7 +38364,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -38433,7 +38442,7 @@
         <v>0.73</v>
       </c>
       <c r="AP180">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ180">
         <v>1.06</v>
@@ -39260,7 +39269,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ184">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR184">
         <v>1.32</v>
@@ -39797,7 +39806,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -40209,7 +40218,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40621,7 +40630,7 @@
         <v>204</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>1.91</v>
@@ -40905,10 +40914,10 @@
         <v>1.64</v>
       </c>
       <c r="AP192">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR192">
         <v>2.13</v>
@@ -41033,7 +41042,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41239,7 +41248,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -41320,7 +41329,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ194">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR194">
         <v>1.47</v>
@@ -42347,7 +42356,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ199">
         <v>1.12</v>
@@ -42887,7 +42896,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43093,7 +43102,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43505,7 +43514,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43711,7 +43720,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43995,7 +44004,7 @@
         <v>1.08</v>
       </c>
       <c r="AP207">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ207">
         <v>1</v>
@@ -44329,7 +44338,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44410,7 +44419,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR209">
         <v>1.6</v>
@@ -44535,7 +44544,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -45153,7 +45162,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45437,10 +45446,10 @@
         <v>1.69</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ214">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR214">
         <v>1.44</v>
@@ -45565,7 +45574,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45771,7 +45780,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46058,7 +46067,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ217">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR217">
         <v>1.78</v>
@@ -46183,7 +46192,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46595,7 +46604,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -47291,7 +47300,7 @@
         <v>1.46</v>
       </c>
       <c r="AP223">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ223">
         <v>1.39</v>
@@ -47419,7 +47428,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47625,7 +47634,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -48037,7 +48046,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48118,7 +48127,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ227">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR227">
         <v>1.44</v>
@@ -48243,7 +48252,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -48324,7 +48333,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ228">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR228">
         <v>1.64</v>
@@ -48733,7 +48742,7 @@
         <v>1.07</v>
       </c>
       <c r="AP230">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ230">
         <v>1</v>
@@ -49479,7 +49488,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49685,7 +49694,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -50587,7 +50596,7 @@
         <v>1.43</v>
       </c>
       <c r="AP239">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ239">
         <v>1.35</v>
@@ -50921,7 +50930,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51127,7 +51136,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51208,7 +51217,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ242">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR242">
         <v>1.36</v>
@@ -52363,7 +52372,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52441,7 +52450,7 @@
         <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ248">
         <v>1.06</v>
@@ -52569,7 +52578,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -52981,7 +52990,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53187,7 +53196,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53393,7 +53402,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53677,7 +53686,7 @@
         <v>1.27</v>
       </c>
       <c r="AP254">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ254">
         <v>1.12</v>
@@ -53805,7 +53814,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54011,7 +54020,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54298,7 +54307,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ257">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AR257">
         <v>1.65</v>
@@ -54629,7 +54638,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -54916,7 +54925,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ260">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AR260">
         <v>1.55</v>
@@ -55119,7 +55128,7 @@
         <v>1.38</v>
       </c>
       <c r="AP261">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ261">
         <v>1.39</v>
@@ -55247,7 +55256,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -56071,7 +56080,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56483,7 +56492,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56689,7 +56698,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -57513,7 +57522,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57925,7 +57934,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58337,7 +58346,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58494,6 +58503,418 @@
       </c>
       <c r="BP277">
         <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7856900</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45767.45833333334</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+      <c r="G278" t="s">
+        <v>78</v>
+      </c>
+      <c r="H278" t="s">
+        <v>76</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>249</v>
+      </c>
+      <c r="P278" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q278">
+        <v>3.75</v>
+      </c>
+      <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
+        <v>3.25</v>
+      </c>
+      <c r="T278">
+        <v>1.53</v>
+      </c>
+      <c r="U278">
+        <v>2.38</v>
+      </c>
+      <c r="V278">
+        <v>3.5</v>
+      </c>
+      <c r="W278">
+        <v>1.29</v>
+      </c>
+      <c r="X278">
+        <v>11</v>
+      </c>
+      <c r="Y278">
+        <v>1.05</v>
+      </c>
+      <c r="Z278">
+        <v>2.57</v>
+      </c>
+      <c r="AA278">
+        <v>3.07</v>
+      </c>
+      <c r="AB278">
+        <v>2.82</v>
+      </c>
+      <c r="AC278">
+        <v>1.09</v>
+      </c>
+      <c r="AD278">
+        <v>6.5</v>
+      </c>
+      <c r="AE278">
+        <v>1.44</v>
+      </c>
+      <c r="AF278">
+        <v>2.65</v>
+      </c>
+      <c r="AG278">
+        <v>2.2</v>
+      </c>
+      <c r="AH278">
+        <v>1.55</v>
+      </c>
+      <c r="AI278">
+        <v>2</v>
+      </c>
+      <c r="AJ278">
+        <v>1.73</v>
+      </c>
+      <c r="AK278">
+        <v>1.53</v>
+      </c>
+      <c r="AL278">
+        <v>1.33</v>
+      </c>
+      <c r="AM278">
+        <v>1.36</v>
+      </c>
+      <c r="AN278">
+        <v>1.5</v>
+      </c>
+      <c r="AO278">
+        <v>0.88</v>
+      </c>
+      <c r="AP278">
+        <v>1.59</v>
+      </c>
+      <c r="AQ278">
+        <v>0.83</v>
+      </c>
+      <c r="AR278">
+        <v>1.46</v>
+      </c>
+      <c r="AS278">
+        <v>1.25</v>
+      </c>
+      <c r="AT278">
+        <v>2.71</v>
+      </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
+      <c r="AV278">
+        <v>11</v>
+      </c>
+      <c r="AW278">
+        <v>5</v>
+      </c>
+      <c r="AX278">
+        <v>18</v>
+      </c>
+      <c r="AY278">
+        <v>12</v>
+      </c>
+      <c r="AZ278">
+        <v>40</v>
+      </c>
+      <c r="BA278">
+        <v>2</v>
+      </c>
+      <c r="BB278">
+        <v>7</v>
+      </c>
+      <c r="BC278">
+        <v>9</v>
+      </c>
+      <c r="BD278">
+        <v>2.31</v>
+      </c>
+      <c r="BE278">
+        <v>6.25</v>
+      </c>
+      <c r="BF278">
+        <v>1.95</v>
+      </c>
+      <c r="BG278">
+        <v>1.33</v>
+      </c>
+      <c r="BH278">
+        <v>2.83</v>
+      </c>
+      <c r="BI278">
+        <v>1.63</v>
+      </c>
+      <c r="BJ278">
+        <v>2.09</v>
+      </c>
+      <c r="BK278">
+        <v>1.85</v>
+      </c>
+      <c r="BL278">
+        <v>1.85</v>
+      </c>
+      <c r="BM278">
+        <v>2.78</v>
+      </c>
+      <c r="BN278">
+        <v>1.36</v>
+      </c>
+      <c r="BO278">
+        <v>3.82</v>
+      </c>
+      <c r="BP278">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7856893</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45767.58333333334</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+      <c r="G279" t="s">
+        <v>74</v>
+      </c>
+      <c r="H279" t="s">
+        <v>75</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>3</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>5</v>
+      </c>
+      <c r="O279" t="s">
+        <v>250</v>
+      </c>
+      <c r="P279" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q279">
+        <v>2.75</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>4.5</v>
+      </c>
+      <c r="T279">
+        <v>1.5</v>
+      </c>
+      <c r="U279">
+        <v>2.5</v>
+      </c>
+      <c r="V279">
+        <v>3.4</v>
+      </c>
+      <c r="W279">
+        <v>1.3</v>
+      </c>
+      <c r="X279">
+        <v>10</v>
+      </c>
+      <c r="Y279">
+        <v>1.06</v>
+      </c>
+      <c r="Z279">
+        <v>2.33</v>
+      </c>
+      <c r="AA279">
+        <v>3</v>
+      </c>
+      <c r="AB279">
+        <v>3.25</v>
+      </c>
+      <c r="AC279">
+        <v>1.09</v>
+      </c>
+      <c r="AD279">
+        <v>6.5</v>
+      </c>
+      <c r="AE279">
+        <v>1.48</v>
+      </c>
+      <c r="AF279">
+        <v>2.33</v>
+      </c>
+      <c r="AG279">
+        <v>2.15</v>
+      </c>
+      <c r="AH279">
+        <v>1.57</v>
+      </c>
+      <c r="AI279">
+        <v>2</v>
+      </c>
+      <c r="AJ279">
+        <v>1.73</v>
+      </c>
+      <c r="AK279">
+        <v>1.22</v>
+      </c>
+      <c r="AL279">
+        <v>1.3</v>
+      </c>
+      <c r="AM279">
+        <v>1.75</v>
+      </c>
+      <c r="AN279">
+        <v>1.94</v>
+      </c>
+      <c r="AO279">
+        <v>1.5</v>
+      </c>
+      <c r="AP279">
+        <v>2</v>
+      </c>
+      <c r="AQ279">
+        <v>1.41</v>
+      </c>
+      <c r="AR279">
+        <v>2.05</v>
+      </c>
+      <c r="AS279">
+        <v>1.55</v>
+      </c>
+      <c r="AT279">
+        <v>3.6</v>
+      </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
+      <c r="AV279">
+        <v>7</v>
+      </c>
+      <c r="AW279">
+        <v>2</v>
+      </c>
+      <c r="AX279">
+        <v>10</v>
+      </c>
+      <c r="AY279">
+        <v>8</v>
+      </c>
+      <c r="AZ279">
+        <v>19</v>
+      </c>
+      <c r="BA279">
+        <v>2</v>
+      </c>
+      <c r="BB279">
+        <v>7</v>
+      </c>
+      <c r="BC279">
+        <v>9</v>
+      </c>
+      <c r="BD279">
+        <v>1.57</v>
+      </c>
+      <c r="BE279">
+        <v>8.5</v>
+      </c>
+      <c r="BF279">
+        <v>2.85</v>
+      </c>
+      <c r="BG279">
+        <v>1.27</v>
+      </c>
+      <c r="BH279">
+        <v>3.14</v>
+      </c>
+      <c r="BI279">
+        <v>1.52</v>
+      </c>
+      <c r="BJ279">
+        <v>2.3</v>
+      </c>
+      <c r="BK279">
+        <v>1.85</v>
+      </c>
+      <c r="BL279">
+        <v>1.85</v>
+      </c>
+      <c r="BM279">
+        <v>2.48</v>
+      </c>
+      <c r="BN279">
+        <v>1.45</v>
+      </c>
+      <c r="BO279">
+        <v>3.34</v>
+      </c>
+      <c r="BP279">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,9 @@
     <t>['41', '56', '63']</t>
   </si>
   <si>
+    <t>['18', '42', '49', '59']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -1076,6 +1079,9 @@
   </si>
   <si>
     <t>['67', '90+7']</t>
+  </si>
+  <si>
+    <t>['53', '62']</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1696,7 +1702,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1983,7 +1989,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ3">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2726,7 +2732,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2932,7 +2938,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3216,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3550,7 +3556,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3756,7 +3762,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3962,7 +3968,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4168,7 +4174,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4374,7 +4380,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4452,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4580,7 +4586,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5198,7 +5204,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5404,7 +5410,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5485,7 +5491,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ20">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5816,7 +5822,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6022,7 +6028,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6103,7 +6109,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ23">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -6512,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ25">
         <v>1.06</v>
@@ -6924,10 +6930,10 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -7464,7 +7470,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7670,7 +7676,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7876,7 +7882,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8082,7 +8088,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8494,7 +8500,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8906,7 +8912,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8987,7 +8993,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ37">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9396,7 +9402,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ39">
         <v>1.39</v>
@@ -9524,7 +9530,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9730,7 +9736,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10017,7 +10023,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ42">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -10966,7 +10972,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11250,7 +11256,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -11378,7 +11384,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11868,10 +11874,10 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -12408,7 +12414,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13026,7 +13032,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13438,7 +13444,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13644,7 +13650,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -14056,7 +14062,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14137,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14752,7 +14758,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -15086,7 +15092,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15164,7 +15170,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ67">
         <v>0.9399999999999999</v>
@@ -15373,7 +15379,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ68">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -15498,7 +15504,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15910,7 +15916,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16116,7 +16122,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16197,7 +16203,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR72">
         <v>1.78</v>
@@ -16734,7 +16740,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17146,7 +17152,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17227,7 +17233,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ77">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -17558,7 +17564,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17842,7 +17848,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ80">
         <v>1.06</v>
@@ -17970,7 +17976,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18048,7 +18054,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -18382,7 +18388,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -19000,7 +19006,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19824,7 +19830,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20030,7 +20036,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20236,7 +20242,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20317,7 +20323,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20442,7 +20448,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20854,7 +20860,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20935,7 +20941,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -21756,7 +21762,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ99">
         <v>1.41</v>
@@ -22090,7 +22096,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22168,7 +22174,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ101">
         <v>1.82</v>
@@ -22708,7 +22714,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22995,7 +23001,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ105">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR105">
         <v>1.58</v>
@@ -23198,7 +23204,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ106">
         <v>0.78</v>
@@ -23326,7 +23332,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23532,7 +23538,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23944,7 +23950,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24150,7 +24156,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24231,7 +24237,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ111">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24562,7 +24568,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24846,7 +24852,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
         <v>1.12</v>
@@ -24974,7 +24980,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -26210,7 +26216,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26288,7 +26294,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ121">
         <v>1.41</v>
@@ -26416,7 +26422,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -27240,7 +27246,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -28145,7 +28151,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ130">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR130">
         <v>1.47</v>
@@ -28682,7 +28688,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29172,7 +29178,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ135">
         <v>1.39</v>
@@ -29506,7 +29512,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29587,7 +29593,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ137">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.59</v>
@@ -30124,7 +30130,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30536,7 +30542,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30614,7 +30620,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30742,7 +30748,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30948,7 +30954,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31154,7 +31160,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31566,7 +31572,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31772,7 +31778,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31850,10 +31856,10 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ148">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
         <v>1.32</v>
@@ -31978,7 +31984,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32184,7 +32190,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32802,7 +32808,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -33008,7 +33014,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33292,7 +33298,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP155">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ155">
         <v>0.78</v>
@@ -33626,7 +33632,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -34531,7 +34537,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ161">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -35068,7 +35074,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35149,7 +35155,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ164">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35352,7 +35358,7 @@
         <v>1.3</v>
       </c>
       <c r="AP165">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ165">
         <v>0.83</v>
@@ -35480,7 +35486,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -35764,7 +35770,7 @@
         <v>1.1</v>
       </c>
       <c r="AP167">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ167">
         <v>1.06</v>
@@ -36098,7 +36104,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36304,7 +36310,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36510,7 +36516,7 @@
         <v>98</v>
       </c>
       <c r="P171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q171">
         <v>1.99</v>
@@ -36797,7 +36803,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ172">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
@@ -38236,7 +38242,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ179">
         <v>1.39</v>
@@ -38364,7 +38370,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -38651,7 +38657,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ181">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR181">
         <v>1.62</v>
@@ -39266,7 +39272,7 @@
         <v>0.55</v>
       </c>
       <c r="AP184">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ184">
         <v>0.83</v>
@@ -39806,7 +39812,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -40218,7 +40224,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40299,7 +40305,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR189">
         <v>1.34</v>
@@ -40630,7 +40636,7 @@
         <v>204</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q191">
         <v>1.91</v>
@@ -41042,7 +41048,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41248,7 +41254,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -41738,7 +41744,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ196">
         <v>1.22</v>
@@ -42768,7 +42774,7 @@
         <v>1.83</v>
       </c>
       <c r="AP201">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ201">
         <v>1.82</v>
@@ -42896,7 +42902,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43102,7 +43108,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43183,7 +43189,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR203">
         <v>1.35</v>
@@ -43514,7 +43520,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43720,7 +43726,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44213,7 +44219,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ208">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR208">
         <v>1.66</v>
@@ -44338,7 +44344,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44544,7 +44550,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -45034,7 +45040,7 @@
         <v>1.15</v>
       </c>
       <c r="AP212">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ212">
         <v>1.12</v>
@@ -45162,7 +45168,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45240,7 +45246,7 @@
         <v>0.77</v>
       </c>
       <c r="AP213">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ213">
         <v>0.9399999999999999</v>
@@ -45574,7 +45580,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45780,7 +45786,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46192,7 +46198,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46273,7 +46279,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ218">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR218">
         <v>1.24</v>
@@ -46604,7 +46610,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -46685,7 +46691,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ220">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR220">
         <v>1.73</v>
@@ -47428,7 +47434,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47634,7 +47640,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -48046,7 +48052,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48252,7 +48258,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -49360,7 +49366,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ233">
         <v>1.06</v>
@@ -49488,7 +49494,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49694,7 +49700,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -49978,7 +49984,7 @@
         <v>1.14</v>
       </c>
       <c r="AP236">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ236">
         <v>1</v>
@@ -50393,7 +50399,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR238">
         <v>1.86</v>
@@ -50599,7 +50605,7 @@
         <v>2</v>
       </c>
       <c r="AQ239">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR239">
         <v>2.11</v>
@@ -50930,7 +50936,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51136,7 +51142,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51214,7 +51220,7 @@
         <v>0.8</v>
       </c>
       <c r="AP242">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ242">
         <v>0.83</v>
@@ -52372,7 +52378,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52578,7 +52584,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -52659,7 +52665,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ249">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR249">
         <v>1.45</v>
@@ -52990,7 +52996,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53196,7 +53202,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53402,7 +53408,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53483,7 +53489,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ253">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR253">
         <v>1.7</v>
@@ -53814,7 +53820,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -53892,7 +53898,7 @@
         <v>1.8</v>
       </c>
       <c r="AP255">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="AQ255">
         <v>1.82</v>
@@ -54020,7 +54026,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54638,7 +54644,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -54716,7 +54722,7 @@
         <v>1.07</v>
       </c>
       <c r="AP259">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ259">
         <v>1</v>
@@ -55256,7 +55262,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -55337,7 +55343,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ262">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR262">
         <v>1.32</v>
@@ -55955,7 +55961,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ265">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR265">
         <v>1.89</v>
@@ -56080,7 +56086,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56492,7 +56498,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56698,7 +56704,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -57522,7 +57528,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57934,7 +57940,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58346,7 +58352,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58758,7 +58764,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -58915,6 +58921,418 @@
       </c>
       <c r="BP279">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7856896</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45768.5</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+      <c r="G280" t="s">
+        <v>77</v>
+      </c>
+      <c r="H280" t="s">
+        <v>84</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>4</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280" t="s">
+        <v>251</v>
+      </c>
+      <c r="P280" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q280">
+        <v>2.5</v>
+      </c>
+      <c r="R280">
+        <v>2</v>
+      </c>
+      <c r="S280">
+        <v>6</v>
+      </c>
+      <c r="T280">
+        <v>1.53</v>
+      </c>
+      <c r="U280">
+        <v>2.38</v>
+      </c>
+      <c r="V280">
+        <v>3.75</v>
+      </c>
+      <c r="W280">
+        <v>1.25</v>
+      </c>
+      <c r="X280">
+        <v>11</v>
+      </c>
+      <c r="Y280">
+        <v>1.05</v>
+      </c>
+      <c r="Z280">
+        <v>1.64</v>
+      </c>
+      <c r="AA280">
+        <v>3.55</v>
+      </c>
+      <c r="AB280">
+        <v>5.6</v>
+      </c>
+      <c r="AC280">
+        <v>1.1</v>
+      </c>
+      <c r="AD280">
+        <v>7.14</v>
+      </c>
+      <c r="AE280">
+        <v>1.5</v>
+      </c>
+      <c r="AF280">
+        <v>2.4</v>
+      </c>
+      <c r="AG280">
+        <v>2.37</v>
+      </c>
+      <c r="AH280">
+        <v>1.48</v>
+      </c>
+      <c r="AI280">
+        <v>2.25</v>
+      </c>
+      <c r="AJ280">
+        <v>1.57</v>
+      </c>
+      <c r="AK280">
+        <v>1.13</v>
+      </c>
+      <c r="AL280">
+        <v>1.25</v>
+      </c>
+      <c r="AM280">
+        <v>2.05</v>
+      </c>
+      <c r="AN280">
+        <v>1.65</v>
+      </c>
+      <c r="AO280">
+        <v>0.65</v>
+      </c>
+      <c r="AP280">
+        <v>1.72</v>
+      </c>
+      <c r="AQ280">
+        <v>0.61</v>
+      </c>
+      <c r="AR280">
+        <v>1.33</v>
+      </c>
+      <c r="AS280">
+        <v>1.1</v>
+      </c>
+      <c r="AT280">
+        <v>2.43</v>
+      </c>
+      <c r="AU280">
+        <v>12</v>
+      </c>
+      <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>6</v>
+      </c>
+      <c r="AX280">
+        <v>6</v>
+      </c>
+      <c r="AY280">
+        <v>20</v>
+      </c>
+      <c r="AZ280">
+        <v>10</v>
+      </c>
+      <c r="BA280">
+        <v>9</v>
+      </c>
+      <c r="BB280">
+        <v>4</v>
+      </c>
+      <c r="BC280">
+        <v>13</v>
+      </c>
+      <c r="BD280">
+        <v>1.41</v>
+      </c>
+      <c r="BE280">
+        <v>8.9</v>
+      </c>
+      <c r="BF280">
+        <v>3.52</v>
+      </c>
+      <c r="BG280">
+        <v>1.29</v>
+      </c>
+      <c r="BH280">
+        <v>3.04</v>
+      </c>
+      <c r="BI280">
+        <v>1.56</v>
+      </c>
+      <c r="BJ280">
+        <v>2.21</v>
+      </c>
+      <c r="BK280">
+        <v>1.98</v>
+      </c>
+      <c r="BL280">
+        <v>1.74</v>
+      </c>
+      <c r="BM280">
+        <v>2.57</v>
+      </c>
+      <c r="BN280">
+        <v>1.42</v>
+      </c>
+      <c r="BO280">
+        <v>3.5</v>
+      </c>
+      <c r="BP280">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7856894</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45768.625</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+      <c r="G281" t="s">
+        <v>83</v>
+      </c>
+      <c r="H281" t="s">
+        <v>80</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+      <c r="N281">
+        <v>2</v>
+      </c>
+      <c r="O281" t="s">
+        <v>86</v>
+      </c>
+      <c r="P281" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q281">
+        <v>3.75</v>
+      </c>
+      <c r="R281">
+        <v>2.05</v>
+      </c>
+      <c r="S281">
+        <v>3.1</v>
+      </c>
+      <c r="T281">
+        <v>1.44</v>
+      </c>
+      <c r="U281">
+        <v>2.63</v>
+      </c>
+      <c r="V281">
+        <v>3.4</v>
+      </c>
+      <c r="W281">
+        <v>1.3</v>
+      </c>
+      <c r="X281">
+        <v>10</v>
+      </c>
+      <c r="Y281">
+        <v>1.06</v>
+      </c>
+      <c r="Z281">
+        <v>3.28</v>
+      </c>
+      <c r="AA281">
+        <v>3.03</v>
+      </c>
+      <c r="AB281">
+        <v>2.3</v>
+      </c>
+      <c r="AC281">
+        <v>1.03</v>
+      </c>
+      <c r="AD281">
+        <v>7.2</v>
+      </c>
+      <c r="AE281">
+        <v>1.36</v>
+      </c>
+      <c r="AF281">
+        <v>3.05</v>
+      </c>
+      <c r="AG281">
+        <v>2.05</v>
+      </c>
+      <c r="AH281">
+        <v>1.61</v>
+      </c>
+      <c r="AI281">
+        <v>1.83</v>
+      </c>
+      <c r="AJ281">
+        <v>1.83</v>
+      </c>
+      <c r="AK281">
+        <v>1.57</v>
+      </c>
+      <c r="AL281">
+        <v>1.3</v>
+      </c>
+      <c r="AM281">
+        <v>1.35</v>
+      </c>
+      <c r="AN281">
+        <v>1.81</v>
+      </c>
+      <c r="AO281">
+        <v>1.35</v>
+      </c>
+      <c r="AP281">
+        <v>1.71</v>
+      </c>
+      <c r="AQ281">
+        <v>1.44</v>
+      </c>
+      <c r="AR281">
+        <v>1.33</v>
+      </c>
+      <c r="AS281">
+        <v>1.52</v>
+      </c>
+      <c r="AT281">
+        <v>2.85</v>
+      </c>
+      <c r="AU281">
+        <v>3</v>
+      </c>
+      <c r="AV281">
+        <v>7</v>
+      </c>
+      <c r="AW281">
+        <v>9</v>
+      </c>
+      <c r="AX281">
+        <v>6</v>
+      </c>
+      <c r="AY281">
+        <v>12</v>
+      </c>
+      <c r="AZ281">
+        <v>16</v>
+      </c>
+      <c r="BA281">
+        <v>8</v>
+      </c>
+      <c r="BB281">
+        <v>5</v>
+      </c>
+      <c r="BC281">
+        <v>13</v>
+      </c>
+      <c r="BD281">
+        <v>2.06</v>
+      </c>
+      <c r="BE281">
+        <v>6.2</v>
+      </c>
+      <c r="BF281">
+        <v>2.18</v>
+      </c>
+      <c r="BG281">
+        <v>1.33</v>
+      </c>
+      <c r="BH281">
+        <v>2.83</v>
+      </c>
+      <c r="BI281">
+        <v>1.63</v>
+      </c>
+      <c r="BJ281">
+        <v>2.09</v>
+      </c>
+      <c r="BK281">
+        <v>2.11</v>
+      </c>
+      <c r="BL281">
+        <v>1.65</v>
+      </c>
+      <c r="BM281">
+        <v>2.79</v>
+      </c>
+      <c r="BN281">
+        <v>1.36</v>
+      </c>
+      <c r="BO281">
+        <v>3.85</v>
+      </c>
+      <c r="BP281">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="357">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['18', '42', '49', '59']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -985,9 +988,6 @@
     <t>['35', '82', '90+2']</t>
   </si>
   <si>
-    <t>['45+1']</t>
-  </si>
-  <si>
     <t>['45']</t>
   </si>
   <si>
@@ -1082,6 +1082,9 @@
   </si>
   <si>
     <t>['53', '62']</t>
+  </si>
+  <si>
+    <t>['11', '33', '80']</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1705,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2192,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ4">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2732,7 +2735,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2938,7 +2941,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3019,7 +3022,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3556,7 +3559,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3762,7 +3765,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3968,7 +3971,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4174,7 +4177,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4380,7 +4383,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4586,7 +4589,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5204,7 +5207,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5285,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5410,7 +5413,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5694,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ21">
         <v>1.39</v>
@@ -5822,7 +5825,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6028,7 +6031,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7139,7 +7142,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ28">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7470,7 +7473,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7676,7 +7679,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7882,7 +7885,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8088,7 +8091,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8500,7 +8503,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8581,7 +8584,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ35">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8912,7 +8915,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8990,7 +8993,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ37">
         <v>1.44</v>
@@ -9530,7 +9533,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9736,7 +9739,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10435,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10972,7 +10975,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11259,7 +11262,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ48">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -11384,7 +11387,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11668,7 +11671,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -12414,7 +12417,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13032,7 +13035,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13113,7 +13116,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ57">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13444,7 +13447,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13650,7 +13653,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -14062,7 +14065,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14552,7 +14555,7 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ64">
         <v>0.83</v>
@@ -14967,7 +14970,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ66">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -15092,7 +15095,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15504,7 +15507,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15916,7 +15919,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16122,7 +16125,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16740,7 +16743,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17152,7 +17155,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17439,7 +17442,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ78">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17564,7 +17567,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17976,7 +17979,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18388,7 +18391,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18675,7 +18678,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -19006,7 +19009,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19084,7 +19087,7 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ86">
         <v>1.82</v>
@@ -19830,7 +19833,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20036,7 +20039,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20117,7 +20120,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ91">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -20242,7 +20245,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20448,7 +20451,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20860,7 +20863,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21353,7 +21356,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ97">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR97">
         <v>1.37</v>
@@ -21556,7 +21559,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ98">
         <v>1.12</v>
@@ -22096,7 +22099,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22714,7 +22717,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23207,7 +23210,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ106">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23332,7 +23335,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23538,7 +23541,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23950,7 +23953,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24156,7 +24159,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24568,7 +24571,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24646,7 +24649,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24980,7 +24983,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25061,7 +25064,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ115">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -26216,7 +26219,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26422,7 +26425,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -27246,7 +27249,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -28148,7 +28151,7 @@
         <v>0.63</v>
       </c>
       <c r="AP130">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ130">
         <v>0.61</v>
@@ -28357,7 +28360,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR131">
         <v>1.58</v>
@@ -28688,7 +28691,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29387,7 +29390,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ136">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29512,7 +29515,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30130,7 +30133,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30417,7 +30420,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ141">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30542,7 +30545,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30748,7 +30751,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30954,7 +30957,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31160,7 +31163,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31444,7 +31447,7 @@
         <v>1.22</v>
       </c>
       <c r="AP146">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ146">
         <v>1.06</v>
@@ -31572,7 +31575,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31778,7 +31781,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31984,7 +31987,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32190,7 +32193,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32683,7 +32686,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ152">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR152">
         <v>1.23</v>
@@ -32808,7 +32811,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -33014,7 +33017,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33301,7 +33304,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ155">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR155">
         <v>1.16</v>
@@ -33632,7 +33635,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -34740,7 +34743,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ162">
         <v>1.39</v>
@@ -35074,7 +35077,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35486,7 +35489,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -35567,7 +35570,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ166">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR166">
         <v>1.81</v>
@@ -36104,7 +36107,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36310,7 +36313,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36516,7 +36519,7 @@
         <v>98</v>
       </c>
       <c r="P171" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q171">
         <v>1.99</v>
@@ -37833,7 +37836,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ177">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR177">
         <v>1.54</v>
@@ -38370,7 +38373,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -38860,10 +38863,10 @@
         <v>1.18</v>
       </c>
       <c r="AP182">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ182">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -39812,7 +39815,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -40224,7 +40227,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40636,7 +40639,7 @@
         <v>204</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
       <c r="Q191">
         <v>1.91</v>
@@ -40717,7 +40720,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ191">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR191">
         <v>1.78</v>
@@ -41747,7 +41750,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ196">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR196">
         <v>1.24</v>
@@ -42568,7 +42571,7 @@
         <v>0.83</v>
       </c>
       <c r="AP200">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ200">
         <v>0.9399999999999999</v>
@@ -43520,7 +43523,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43807,7 +43810,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ206">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR206">
         <v>1.62</v>
@@ -44628,7 +44631,7 @@
         <v>0.85</v>
       </c>
       <c r="AP210">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ210">
         <v>1.06</v>
@@ -44837,7 +44840,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ211">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR211">
         <v>1.81</v>
@@ -47103,7 +47106,7 @@
         <v>1</v>
       </c>
       <c r="AQ222">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR222">
         <v>1.35</v>
@@ -47927,7 +47930,7 @@
         <v>1</v>
       </c>
       <c r="AQ226">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR226">
         <v>1.35</v>
@@ -48052,7 +48055,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48130,7 +48133,7 @@
         <v>1.64</v>
       </c>
       <c r="AP227">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ227">
         <v>1.41</v>
@@ -49575,7 +49578,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ234">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR234">
         <v>1.36</v>
@@ -51635,7 +51638,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ244">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR244">
         <v>1.69</v>
@@ -52253,7 +52256,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ247">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR247">
         <v>1.55</v>
@@ -52662,7 +52665,7 @@
         <v>0.33</v>
       </c>
       <c r="AP249">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ249">
         <v>0.61</v>
@@ -53074,7 +53077,7 @@
         <v>0.93</v>
       </c>
       <c r="AP251">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ251">
         <v>1.06</v>
@@ -54107,7 +54110,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ256">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR256">
         <v>1.45</v>
@@ -54519,7 +54522,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ258">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR258">
         <v>1.48</v>
@@ -56086,7 +56089,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56167,7 +56170,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ266">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AR266">
         <v>1.44</v>
@@ -56576,7 +56579,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP268">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AQ268">
         <v>0.9399999999999999</v>
@@ -57403,7 +57406,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ272">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR272">
         <v>1.86</v>
@@ -57528,7 +57531,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57940,7 +57943,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -59333,6 +59336,418 @@
       </c>
       <c r="BP281">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7856905</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45772.53125</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282" t="s">
+        <v>79</v>
+      </c>
+      <c r="H282" t="s">
+        <v>78</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>252</v>
+      </c>
+      <c r="P282" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q282">
+        <v>2.9</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>3.65</v>
+      </c>
+      <c r="T282">
+        <v>1.45</v>
+      </c>
+      <c r="U282">
+        <v>2.55</v>
+      </c>
+      <c r="V282">
+        <v>3</v>
+      </c>
+      <c r="W282">
+        <v>1.33</v>
+      </c>
+      <c r="X282">
+        <v>7.6</v>
+      </c>
+      <c r="Y282">
+        <v>1.07</v>
+      </c>
+      <c r="Z282">
+        <v>2.5</v>
+      </c>
+      <c r="AA282">
+        <v>3.13</v>
+      </c>
+      <c r="AB282">
+        <v>2.84</v>
+      </c>
+      <c r="AC282">
+        <v>1.07</v>
+      </c>
+      <c r="AD282">
+        <v>7.5</v>
+      </c>
+      <c r="AE282">
+        <v>1.38</v>
+      </c>
+      <c r="AF282">
+        <v>2.9</v>
+      </c>
+      <c r="AG282">
+        <v>2.1</v>
+      </c>
+      <c r="AH282">
+        <v>1.6</v>
+      </c>
+      <c r="AI282">
+        <v>1.83</v>
+      </c>
+      <c r="AJ282">
+        <v>1.8</v>
+      </c>
+      <c r="AK282">
+        <v>1.35</v>
+      </c>
+      <c r="AL282">
+        <v>1.28</v>
+      </c>
+      <c r="AM282">
+        <v>1.6</v>
+      </c>
+      <c r="AN282">
+        <v>1</v>
+      </c>
+      <c r="AO282">
+        <v>0.78</v>
+      </c>
+      <c r="AP282">
+        <v>1</v>
+      </c>
+      <c r="AQ282">
+        <v>0.79</v>
+      </c>
+      <c r="AR282">
+        <v>1.44</v>
+      </c>
+      <c r="AS282">
+        <v>1.4</v>
+      </c>
+      <c r="AT282">
+        <v>2.84</v>
+      </c>
+      <c r="AU282">
+        <v>3</v>
+      </c>
+      <c r="AV282">
+        <v>3</v>
+      </c>
+      <c r="AW282">
+        <v>11</v>
+      </c>
+      <c r="AX282">
+        <v>15</v>
+      </c>
+      <c r="AY282">
+        <v>15</v>
+      </c>
+      <c r="AZ282">
+        <v>24</v>
+      </c>
+      <c r="BA282">
+        <v>6</v>
+      </c>
+      <c r="BB282">
+        <v>6</v>
+      </c>
+      <c r="BC282">
+        <v>12</v>
+      </c>
+      <c r="BD282">
+        <v>0</v>
+      </c>
+      <c r="BE282">
+        <v>0</v>
+      </c>
+      <c r="BF282">
+        <v>0</v>
+      </c>
+      <c r="BG282">
+        <v>0</v>
+      </c>
+      <c r="BH282">
+        <v>0</v>
+      </c>
+      <c r="BI282">
+        <v>0</v>
+      </c>
+      <c r="BJ282">
+        <v>0</v>
+      </c>
+      <c r="BK282">
+        <v>0</v>
+      </c>
+      <c r="BL282">
+        <v>0</v>
+      </c>
+      <c r="BM282">
+        <v>0</v>
+      </c>
+      <c r="BN282">
+        <v>0</v>
+      </c>
+      <c r="BO282">
+        <v>0</v>
+      </c>
+      <c r="BP282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7856906</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45772.625</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283" t="s">
+        <v>72</v>
+      </c>
+      <c r="H283" t="s">
+        <v>85</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>2</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>3</v>
+      </c>
+      <c r="N283">
+        <v>3</v>
+      </c>
+      <c r="O283" t="s">
+        <v>86</v>
+      </c>
+      <c r="P283" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q283">
+        <v>2.75</v>
+      </c>
+      <c r="R283">
+        <v>1.93</v>
+      </c>
+      <c r="S283">
+        <v>4.2</v>
+      </c>
+      <c r="T283">
+        <v>1.53</v>
+      </c>
+      <c r="U283">
+        <v>2.38</v>
+      </c>
+      <c r="V283">
+        <v>3.3</v>
+      </c>
+      <c r="W283">
+        <v>1.28</v>
+      </c>
+      <c r="X283">
+        <v>8.6</v>
+      </c>
+      <c r="Y283">
+        <v>1.01</v>
+      </c>
+      <c r="Z283">
+        <v>2.22</v>
+      </c>
+      <c r="AA283">
+        <v>3.14</v>
+      </c>
+      <c r="AB283">
+        <v>3.33</v>
+      </c>
+      <c r="AC283">
+        <v>1.09</v>
+      </c>
+      <c r="AD283">
+        <v>6.5</v>
+      </c>
+      <c r="AE283">
+        <v>1.48</v>
+      </c>
+      <c r="AF283">
+        <v>2.55</v>
+      </c>
+      <c r="AG283">
+        <v>2.3</v>
+      </c>
+      <c r="AH283">
+        <v>1.5</v>
+      </c>
+      <c r="AI283">
+        <v>2</v>
+      </c>
+      <c r="AJ283">
+        <v>1.67</v>
+      </c>
+      <c r="AK283">
+        <v>1.25</v>
+      </c>
+      <c r="AL283">
+        <v>1.3</v>
+      </c>
+      <c r="AM283">
+        <v>1.7</v>
+      </c>
+      <c r="AN283">
+        <v>1.39</v>
+      </c>
+      <c r="AO283">
+        <v>1.22</v>
+      </c>
+      <c r="AP283">
+        <v>1.32</v>
+      </c>
+      <c r="AQ283">
+        <v>1.32</v>
+      </c>
+      <c r="AR283">
+        <v>1.5</v>
+      </c>
+      <c r="AS283">
+        <v>1.29</v>
+      </c>
+      <c r="AT283">
+        <v>2.79</v>
+      </c>
+      <c r="AU283">
+        <v>2</v>
+      </c>
+      <c r="AV283">
+        <v>6</v>
+      </c>
+      <c r="AW283">
+        <v>5</v>
+      </c>
+      <c r="AX283">
+        <v>6</v>
+      </c>
+      <c r="AY283">
+        <v>8</v>
+      </c>
+      <c r="AZ283">
+        <v>14</v>
+      </c>
+      <c r="BA283">
+        <v>5</v>
+      </c>
+      <c r="BB283">
+        <v>5</v>
+      </c>
+      <c r="BC283">
+        <v>10</v>
+      </c>
+      <c r="BD283">
+        <v>0</v>
+      </c>
+      <c r="BE283">
+        <v>0</v>
+      </c>
+      <c r="BF283">
+        <v>0</v>
+      </c>
+      <c r="BG283">
+        <v>0</v>
+      </c>
+      <c r="BH283">
+        <v>0</v>
+      </c>
+      <c r="BI283">
+        <v>0</v>
+      </c>
+      <c r="BJ283">
+        <v>0</v>
+      </c>
+      <c r="BK283">
+        <v>0</v>
+      </c>
+      <c r="BL283">
+        <v>0</v>
+      </c>
+      <c r="BM283">
+        <v>0</v>
+      </c>
+      <c r="BN283">
+        <v>0</v>
+      </c>
+      <c r="BO283">
+        <v>0</v>
+      </c>
+      <c r="BP283">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,9 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['33', '43', '90+2']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -1446,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1708,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1989,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ3">
         <v>1.44</v>
@@ -2735,7 +2738,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2941,7 +2944,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3559,7 +3562,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3765,7 +3768,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3846,7 +3849,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ12">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3971,7 +3974,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4177,7 +4180,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4383,7 +4386,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4589,7 +4592,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5079,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ18">
         <v>0.83</v>
@@ -5207,7 +5210,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5413,7 +5416,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5825,7 +5828,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6031,7 +6034,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7473,7 +7476,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7679,7 +7682,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7760,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7885,7 +7888,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8091,7 +8094,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8375,7 +8378,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ34">
         <v>0.83</v>
@@ -8503,7 +8506,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8915,7 +8918,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9533,7 +9536,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9739,7 +9742,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10232,7 +10235,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10975,7 +10978,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11387,7 +11390,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -12289,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ53">
         <v>1.82</v>
@@ -12417,7 +12420,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13035,7 +13038,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13113,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ57">
         <v>0.79</v>
@@ -13447,7 +13450,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13653,7 +13656,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13940,7 +13943,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR61">
         <v>2.06</v>
@@ -14065,7 +14068,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -15095,7 +15098,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15507,7 +15510,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15919,7 +15922,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16125,7 +16128,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16615,7 +16618,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ74">
         <v>1.41</v>
@@ -16743,7 +16746,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17155,7 +17158,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17567,7 +17570,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17979,7 +17982,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18391,7 +18394,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18472,7 +18475,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -19009,7 +19012,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19833,7 +19836,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20039,7 +20042,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20245,7 +20248,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20451,7 +20454,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20529,7 +20532,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20863,7 +20866,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21562,7 +21565,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ98">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -22099,7 +22102,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22717,7 +22720,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23335,7 +23338,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23413,7 +23416,7 @@
         <v>0.71</v>
       </c>
       <c r="AP107">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ107">
         <v>1.39</v>
@@ -23541,7 +23544,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23953,7 +23956,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24159,7 +24162,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24571,7 +24574,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24858,7 +24861,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ114">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>1.16</v>
@@ -24983,7 +24986,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -26219,7 +26222,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26425,7 +26428,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26918,7 +26921,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ124">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>1.43</v>
@@ -27249,7 +27252,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -28563,7 +28566,7 @@
         <v>1.78</v>
       </c>
       <c r="AP132">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ132">
         <v>1.39</v>
@@ -28691,7 +28694,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29515,7 +29518,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30133,7 +30136,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30545,7 +30548,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30751,7 +30754,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30957,7 +30960,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31038,7 +31041,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ144">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR144">
         <v>1.39</v>
@@ -31163,7 +31166,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31575,7 +31578,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31781,7 +31784,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31987,7 +31990,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32193,7 +32196,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32683,7 +32686,7 @@
         <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ152">
         <v>1.32</v>
@@ -32811,7 +32814,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -33017,7 +33020,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33510,7 +33513,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ156">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR156">
         <v>1.39</v>
@@ -33635,7 +33638,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -34949,7 +34952,7 @@
         <v>0.9</v>
       </c>
       <c r="AP163">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ163">
         <v>0.9399999999999999</v>
@@ -35077,7 +35080,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35489,7 +35492,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -36107,7 +36110,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36313,7 +36316,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36519,7 +36522,7 @@
         <v>98</v>
       </c>
       <c r="P171" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q171">
         <v>1.99</v>
@@ -37630,7 +37633,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ176">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR176">
         <v>1.54</v>
@@ -38373,7 +38376,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -39687,10 +39690,10 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ186">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR186">
         <v>1.23</v>
@@ -39815,7 +39818,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -40227,7 +40230,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -41051,7 +41054,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41257,7 +41260,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -42368,7 +42371,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ199">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR199">
         <v>1.46</v>
@@ -42905,7 +42908,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43111,7 +43114,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43523,7 +43526,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43601,7 +43604,7 @@
         <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43729,7 +43732,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44347,7 +44350,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44553,7 +44556,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -45046,7 +45049,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ212">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR212">
         <v>1.27</v>
@@ -45171,7 +45174,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45583,7 +45586,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45789,7 +45792,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46201,7 +46204,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46279,7 +46282,7 @@
         <v>0.38</v>
       </c>
       <c r="AP218">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ218">
         <v>0.61</v>
@@ -46613,7 +46616,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -47437,7 +47440,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47643,7 +47646,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -48055,7 +48058,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48261,7 +48264,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -49166,7 +49169,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ232">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR232">
         <v>1.4</v>
@@ -49497,7 +49500,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49703,7 +49706,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -50193,7 +50196,7 @@
         <v>1.14</v>
       </c>
       <c r="AP237">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ237">
         <v>1.06</v>
@@ -50939,7 +50942,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51145,7 +51148,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52047,7 +52050,7 @@
         <v>0.87</v>
       </c>
       <c r="AP246">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ246">
         <v>0.83</v>
@@ -52381,7 +52384,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52587,7 +52590,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -52999,7 +53002,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53205,7 +53208,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53411,7 +53414,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53698,7 +53701,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ254">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR254">
         <v>1.44</v>
@@ -53823,7 +53826,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54029,7 +54032,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54647,7 +54650,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -55265,7 +55268,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -55343,7 +55346,7 @@
         <v>0.5</v>
       </c>
       <c r="AP262">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ262">
         <v>0.61</v>
@@ -56089,7 +56092,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56373,7 +56376,7 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ267">
         <v>1</v>
@@ -56501,7 +56504,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56707,7 +56710,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -56994,7 +56997,7 @@
         <v>1</v>
       </c>
       <c r="AQ270">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR270">
         <v>1.45</v>
@@ -57531,7 +57534,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57943,7 +57946,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58355,7 +58358,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58767,7 +58770,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59179,7 +59182,7 @@
         <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q281">
         <v>3.75</v>
@@ -59591,7 +59594,7 @@
         <v>86</v>
       </c>
       <c r="P283" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -59747,6 +59750,212 @@
         <v>0</v>
       </c>
       <c r="BP283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7856907</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F284">
+        <v>6</v>
+      </c>
+      <c r="G284" t="s">
+        <v>71</v>
+      </c>
+      <c r="H284" t="s">
+        <v>73</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>2</v>
+      </c>
+      <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>253</v>
+      </c>
+      <c r="P284" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q284">
+        <v>2.5</v>
+      </c>
+      <c r="R284">
+        <v>2.1</v>
+      </c>
+      <c r="S284">
+        <v>5</v>
+      </c>
+      <c r="T284">
+        <v>1.44</v>
+      </c>
+      <c r="U284">
+        <v>2.63</v>
+      </c>
+      <c r="V284">
+        <v>3.25</v>
+      </c>
+      <c r="W284">
+        <v>1.33</v>
+      </c>
+      <c r="X284">
+        <v>10</v>
+      </c>
+      <c r="Y284">
+        <v>1.06</v>
+      </c>
+      <c r="Z284">
+        <v>1.93</v>
+      </c>
+      <c r="AA284">
+        <v>3.25</v>
+      </c>
+      <c r="AB284">
+        <v>4.1</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>2.31</v>
+      </c>
+      <c r="AF284">
+        <v>1.55</v>
+      </c>
+      <c r="AG284">
+        <v>1.98</v>
+      </c>
+      <c r="AH284">
+        <v>1.77</v>
+      </c>
+      <c r="AI284">
+        <v>1.91</v>
+      </c>
+      <c r="AJ284">
+        <v>1.8</v>
+      </c>
+      <c r="AK284">
+        <v>0</v>
+      </c>
+      <c r="AL284">
+        <v>0</v>
+      </c>
+      <c r="AM284">
+        <v>0</v>
+      </c>
+      <c r="AN284">
+        <v>1.61</v>
+      </c>
+      <c r="AO284">
+        <v>1.12</v>
+      </c>
+      <c r="AP284">
+        <v>1.68</v>
+      </c>
+      <c r="AQ284">
+        <v>1.06</v>
+      </c>
+      <c r="AR284">
+        <v>1.47</v>
+      </c>
+      <c r="AS284">
+        <v>1.37</v>
+      </c>
+      <c r="AT284">
+        <v>2.84</v>
+      </c>
+      <c r="AU284">
+        <v>7</v>
+      </c>
+      <c r="AV284">
+        <v>9</v>
+      </c>
+      <c r="AW284">
+        <v>13</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>23</v>
+      </c>
+      <c r="AZ284">
+        <v>13</v>
+      </c>
+      <c r="BA284">
+        <v>6</v>
+      </c>
+      <c r="BB284">
+        <v>6</v>
+      </c>
+      <c r="BC284">
+        <v>12</v>
+      </c>
+      <c r="BD284">
+        <v>0</v>
+      </c>
+      <c r="BE284">
+        <v>0</v>
+      </c>
+      <c r="BF284">
+        <v>0</v>
+      </c>
+      <c r="BG284">
+        <v>0</v>
+      </c>
+      <c r="BH284">
+        <v>0</v>
+      </c>
+      <c r="BI284">
+        <v>0</v>
+      </c>
+      <c r="BJ284">
+        <v>0</v>
+      </c>
+      <c r="BK284">
+        <v>0</v>
+      </c>
+      <c r="BL284">
+        <v>0</v>
+      </c>
+      <c r="BM284">
+        <v>0</v>
+      </c>
+      <c r="BN284">
+        <v>0</v>
+      </c>
+      <c r="BO284">
+        <v>0</v>
+      </c>
+      <c r="BP284">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="359">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,9 @@
     <t>['33', '43', '90+2']</t>
   </si>
   <si>
+    <t>['59', '75']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -1449,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP284"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1711,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1995,7 +1998,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ3">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2738,7 +2741,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2944,7 +2947,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3562,7 +3565,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3768,7 +3771,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3974,7 +3977,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4180,7 +4183,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4258,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.06</v>
@@ -4386,7 +4389,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4592,7 +4595,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5210,7 +5213,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5416,7 +5419,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5828,7 +5831,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6034,7 +6037,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6115,7 +6118,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -7476,7 +7479,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7682,7 +7685,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7888,7 +7891,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8094,7 +8097,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8506,7 +8509,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8918,7 +8921,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8999,7 +9002,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ37">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9536,7 +9539,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9742,7 +9745,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10850,7 +10853,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10978,7 +10981,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11390,7 +11393,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11883,7 +11886,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ51">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -12420,7 +12423,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13038,7 +13041,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13450,7 +13453,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13656,7 +13659,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -14068,7 +14071,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14352,7 +14355,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1.39</v>
@@ -15098,7 +15101,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15385,7 +15388,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ68">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -15510,7 +15513,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15922,7 +15925,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16128,7 +16131,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16746,7 +16749,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17158,7 +17161,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17236,10 +17239,10 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -17570,7 +17573,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17982,7 +17985,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18394,7 +18397,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -19012,7 +19015,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19836,7 +19839,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20042,7 +20045,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20248,7 +20251,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20329,7 +20332,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20454,7 +20457,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20866,7 +20869,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21356,7 +21359,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.32</v>
@@ -22102,7 +22105,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22720,7 +22723,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23338,7 +23341,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23544,7 +23547,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23956,7 +23959,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24162,7 +24165,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24243,7 +24246,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ111">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24574,7 +24577,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24986,7 +24989,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25270,7 +25273,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.9399999999999999</v>
@@ -26222,7 +26225,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26428,7 +26431,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -27252,7 +27255,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27330,7 +27333,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>1.82</v>
@@ -28694,7 +28697,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29518,7 +29521,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29599,7 +29602,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ137">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR137">
         <v>1.59</v>
@@ -30136,7 +30139,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30548,7 +30551,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30754,7 +30757,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30960,7 +30963,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31038,7 +31041,7 @@
         <v>0.75</v>
       </c>
       <c r="AP144">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>1.06</v>
@@ -31166,7 +31169,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31578,7 +31581,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31784,7 +31787,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31865,7 +31868,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR148">
         <v>1.32</v>
@@ -31990,7 +31993,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32196,7 +32199,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32814,7 +32817,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32892,7 +32895,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>1.41</v>
@@ -33020,7 +33023,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33638,7 +33641,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33922,7 +33925,7 @@
         <v>1.44</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -35080,7 +35083,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35161,7 +35164,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ164">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -35492,7 +35495,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -36110,7 +36113,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36316,7 +36319,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36522,7 +36525,7 @@
         <v>98</v>
       </c>
       <c r="P171" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q171">
         <v>1.99</v>
@@ -36806,7 +36809,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
         <v>0.61</v>
@@ -38376,7 +38379,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -38663,7 +38666,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ181">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR181">
         <v>1.62</v>
@@ -39818,7 +39821,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -40230,7 +40233,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40514,7 +40517,7 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ190">
         <v>1.06</v>
@@ -41054,7 +41057,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41260,7 +41263,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -42908,7 +42911,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43114,7 +43117,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43195,7 +43198,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR203">
         <v>1.35</v>
@@ -43526,7 +43529,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43732,7 +43735,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43810,7 +43813,7 @@
         <v>0.42</v>
       </c>
       <c r="AP206">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ206">
         <v>0.79</v>
@@ -44350,7 +44353,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44556,7 +44559,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -45174,7 +45177,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45586,7 +45589,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45792,7 +45795,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -45870,7 +45873,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ216">
         <v>0.83</v>
@@ -46204,7 +46207,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46616,7 +46619,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -46697,7 +46700,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ220">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR220">
         <v>1.73</v>
@@ -47440,7 +47443,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47646,7 +47649,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -48058,7 +48061,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48264,7 +48267,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -48342,7 +48345,7 @@
         <v>0.64</v>
       </c>
       <c r="AP228">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ228">
         <v>0.83</v>
@@ -49500,7 +49503,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49706,7 +49709,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -50611,7 +50614,7 @@
         <v>2</v>
       </c>
       <c r="AQ239">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR239">
         <v>2.11</v>
@@ -50942,7 +50945,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51148,7 +51151,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52384,7 +52387,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52590,7 +52593,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -53002,7 +53005,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53208,7 +53211,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53414,7 +53417,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53495,7 +53498,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ253">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR253">
         <v>1.7</v>
@@ -53826,7 +53829,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54032,7 +54035,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54316,7 +54319,7 @@
         <v>1.6</v>
       </c>
       <c r="AP257">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ257">
         <v>1.41</v>
@@ -54650,7 +54653,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -55268,7 +55271,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -55967,7 +55970,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ265">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR265">
         <v>1.89</v>
@@ -56092,7 +56095,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56504,7 +56507,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56710,7 +56713,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -56788,7 +56791,7 @@
         <v>1.29</v>
       </c>
       <c r="AP269">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ269">
         <v>1.39</v>
@@ -57534,7 +57537,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57946,7 +57949,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58358,7 +58361,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58770,7 +58773,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59182,7 +59185,7 @@
         <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q281">
         <v>3.75</v>
@@ -59263,7 +59266,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ281">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AR281">
         <v>1.33</v>
@@ -59594,7 +59597,7 @@
         <v>86</v>
       </c>
       <c r="P283" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -59956,6 +59959,212 @@
         <v>0</v>
       </c>
       <c r="BP284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7856903</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45773.58333333334</v>
+      </c>
+      <c r="F285">
+        <v>6</v>
+      </c>
+      <c r="G285" t="s">
+        <v>82</v>
+      </c>
+      <c r="H285" t="s">
+        <v>80</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285" t="s">
+        <v>254</v>
+      </c>
+      <c r="P285" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q285">
+        <v>3.6</v>
+      </c>
+      <c r="R285">
+        <v>2.05</v>
+      </c>
+      <c r="S285">
+        <v>3.2</v>
+      </c>
+      <c r="T285">
+        <v>1.44</v>
+      </c>
+      <c r="U285">
+        <v>2.63</v>
+      </c>
+      <c r="V285">
+        <v>3.4</v>
+      </c>
+      <c r="W285">
+        <v>1.3</v>
+      </c>
+      <c r="X285">
+        <v>10</v>
+      </c>
+      <c r="Y285">
+        <v>1.06</v>
+      </c>
+      <c r="Z285">
+        <v>2.69</v>
+      </c>
+      <c r="AA285">
+        <v>3.08</v>
+      </c>
+      <c r="AB285">
+        <v>2.67</v>
+      </c>
+      <c r="AC285">
+        <v>0</v>
+      </c>
+      <c r="AD285">
+        <v>0</v>
+      </c>
+      <c r="AE285">
+        <v>0</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>2.05</v>
+      </c>
+      <c r="AH285">
+        <v>1.65</v>
+      </c>
+      <c r="AI285">
+        <v>1.83</v>
+      </c>
+      <c r="AJ285">
+        <v>1.83</v>
+      </c>
+      <c r="AK285">
+        <v>0</v>
+      </c>
+      <c r="AL285">
+        <v>0</v>
+      </c>
+      <c r="AM285">
+        <v>0</v>
+      </c>
+      <c r="AN285">
+        <v>1.94</v>
+      </c>
+      <c r="AO285">
+        <v>1.44</v>
+      </c>
+      <c r="AP285">
+        <v>2</v>
+      </c>
+      <c r="AQ285">
+        <v>1.37</v>
+      </c>
+      <c r="AR285">
+        <v>1.56</v>
+      </c>
+      <c r="AS285">
+        <v>1.53</v>
+      </c>
+      <c r="AT285">
+        <v>3.09</v>
+      </c>
+      <c r="AU285">
+        <v>4</v>
+      </c>
+      <c r="AV285">
+        <v>2</v>
+      </c>
+      <c r="AW285">
+        <v>12</v>
+      </c>
+      <c r="AX285">
+        <v>8</v>
+      </c>
+      <c r="AY285">
+        <v>19</v>
+      </c>
+      <c r="AZ285">
+        <v>10</v>
+      </c>
+      <c r="BA285">
+        <v>10</v>
+      </c>
+      <c r="BB285">
+        <v>5</v>
+      </c>
+      <c r="BC285">
+        <v>15</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1092,6 +1092,12 @@
   <si>
     <t>['11', '33', '80']</t>
   </si>
+  <si>
+    <t>['34', '84']</t>
+  </si>
+  <si>
+    <t>['6', '42']</t>
+  </si>
 </sst>
 </file>
 
@@ -1452,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3440,7 +3446,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ10">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3646,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4055,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ13">
         <v>1.41</v>
@@ -4673,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5912,7 +5918,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ22">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -7969,7 +7975,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8384,7 +8390,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8793,7 +8799,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
         <v>1.06</v>
@@ -10647,7 +10653,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ45">
         <v>1.39</v>
@@ -12092,7 +12098,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12298,7 +12304,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ53">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12501,7 +12507,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
         <v>1.39</v>
@@ -14564,7 +14570,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14973,7 +14979,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ66">
         <v>1.32</v>
@@ -15594,7 +15600,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ69">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -16003,7 +16009,7 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ71">
         <v>1.39</v>
@@ -18066,7 +18072,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18681,7 +18687,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ84">
         <v>1.32</v>
@@ -18887,7 +18893,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ85">
         <v>0.9399999999999999</v>
@@ -19096,7 +19102,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ86">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -21153,7 +21159,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ96">
         <v>1.06</v>
@@ -21980,7 +21986,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ100">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -22186,7 +22192,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ101">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22595,7 +22601,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ103">
         <v>0.9399999999999999</v>
@@ -24449,7 +24455,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ112">
         <v>1.41</v>
@@ -25482,7 +25488,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ117">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -25688,7 +25694,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR118">
         <v>1.37</v>
@@ -25891,7 +25897,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ119">
         <v>1.06</v>
@@ -26100,7 +26106,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ120">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26921,7 +26927,7 @@
         <v>0.86</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ124">
         <v>1.06</v>
@@ -27336,7 +27342,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27539,7 +27545,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27954,7 +27960,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -30011,7 +30017,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30423,7 +30429,7 @@
         <v>0.63</v>
       </c>
       <c r="AP141">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ141">
         <v>0.79</v>
@@ -31250,7 +31256,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ145">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR145">
         <v>1.39</v>
@@ -31659,7 +31665,7 @@
         <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ147">
         <v>1.39</v>
@@ -32486,7 +32492,7 @@
         <v>2</v>
       </c>
       <c r="AQ151">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR151">
         <v>2.01</v>
@@ -34340,7 +34346,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ160">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34543,7 +34549,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP161">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ161">
         <v>0.61</v>
@@ -35161,7 +35167,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ164">
         <v>1.37</v>
@@ -35988,7 +35994,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ168">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR168">
         <v>1.63</v>
@@ -36194,7 +36200,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ169">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -37839,7 +37845,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ177">
         <v>0.79</v>
@@ -38045,7 +38051,7 @@
         <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ178">
         <v>0.83</v>
@@ -38663,7 +38669,7 @@
         <v>1.45</v>
       </c>
       <c r="AP181">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ181">
         <v>1.37</v>
@@ -39078,7 +39084,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ183">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR183">
         <v>1.63</v>
@@ -39284,7 +39290,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ184">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR184">
         <v>1.32</v>
@@ -41341,10 +41347,10 @@
         <v>0.5</v>
       </c>
       <c r="AP194">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ194">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR194">
         <v>1.47</v>
@@ -41547,7 +41553,7 @@
         <v>1.08</v>
       </c>
       <c r="AP195">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ195">
         <v>0.83</v>
@@ -42786,7 +42792,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ201">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR201">
         <v>1.3</v>
@@ -45667,10 +45673,10 @@
         <v>1.77</v>
       </c>
       <c r="AP215">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ215">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR215">
         <v>1.43</v>
@@ -46079,10 +46085,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP217">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ217">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR217">
         <v>1.78</v>
@@ -48348,7 +48354,7 @@
         <v>2</v>
       </c>
       <c r="AQ228">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR228">
         <v>1.64</v>
@@ -48963,10 +48969,10 @@
         <v>1.86</v>
       </c>
       <c r="AP231">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ231">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR231">
         <v>1.73</v>
@@ -49169,7 +49175,7 @@
         <v>1.29</v>
       </c>
       <c r="AP232">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ232">
         <v>1.06</v>
@@ -51232,7 +51238,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ242">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR242">
         <v>1.36</v>
@@ -53495,7 +53501,7 @@
         <v>1.33</v>
       </c>
       <c r="AP253">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ253">
         <v>1.37</v>
@@ -53910,7 +53916,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ255">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR255">
         <v>1.36</v>
@@ -54113,7 +54119,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ256">
         <v>1.32</v>
@@ -54940,7 +54946,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ260">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR260">
         <v>1.55</v>
@@ -55555,7 +55561,7 @@
         <v>1.38</v>
       </c>
       <c r="AP263">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ263">
         <v>1.39</v>
@@ -56173,7 +56179,7 @@
         <v>0.65</v>
       </c>
       <c r="AP266">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AQ266">
         <v>0.79</v>
@@ -57206,7 +57212,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ271">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AR271">
         <v>1.83</v>
@@ -58439,7 +58445,7 @@
         <v>1.29</v>
       </c>
       <c r="AP277">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ277">
         <v>1.39</v>
@@ -58648,7 +58654,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ278">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="AR278">
         <v>1.46</v>
@@ -60165,6 +60171,418 @@
         <v>0</v>
       </c>
       <c r="BP285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7856904</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45774.35416666666</v>
+      </c>
+      <c r="F286">
+        <v>6</v>
+      </c>
+      <c r="G286" t="s">
+        <v>84</v>
+      </c>
+      <c r="H286" t="s">
+        <v>76</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" t="s">
+        <v>86</v>
+      </c>
+      <c r="P286" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q286">
+        <v>4</v>
+      </c>
+      <c r="R286">
+        <v>2.05</v>
+      </c>
+      <c r="S286">
+        <v>2.88</v>
+      </c>
+      <c r="T286">
+        <v>1.44</v>
+      </c>
+      <c r="U286">
+        <v>2.63</v>
+      </c>
+      <c r="V286">
+        <v>3.25</v>
+      </c>
+      <c r="W286">
+        <v>1.33</v>
+      </c>
+      <c r="X286">
+        <v>10</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>2.87</v>
+      </c>
+      <c r="AA286">
+        <v>3.19</v>
+      </c>
+      <c r="AB286">
+        <v>2.45</v>
+      </c>
+      <c r="AC286">
+        <v>0</v>
+      </c>
+      <c r="AD286">
+        <v>0</v>
+      </c>
+      <c r="AE286">
+        <v>0</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>2.2</v>
+      </c>
+      <c r="AH286">
+        <v>1.55</v>
+      </c>
+      <c r="AI286">
+        <v>1.83</v>
+      </c>
+      <c r="AJ286">
+        <v>1.83</v>
+      </c>
+      <c r="AK286">
+        <v>0</v>
+      </c>
+      <c r="AL286">
+        <v>0</v>
+      </c>
+      <c r="AM286">
+        <v>0</v>
+      </c>
+      <c r="AN286">
+        <v>0.88</v>
+      </c>
+      <c r="AO286">
+        <v>0.83</v>
+      </c>
+      <c r="AP286">
+        <v>0.83</v>
+      </c>
+      <c r="AQ286">
+        <v>0.95</v>
+      </c>
+      <c r="AR286">
+        <v>1.47</v>
+      </c>
+      <c r="AS286">
+        <v>1.35</v>
+      </c>
+      <c r="AT286">
+        <v>2.82</v>
+      </c>
+      <c r="AU286">
+        <v>4</v>
+      </c>
+      <c r="AV286">
+        <v>9</v>
+      </c>
+      <c r="AW286">
+        <v>4</v>
+      </c>
+      <c r="AX286">
+        <v>11</v>
+      </c>
+      <c r="AY286">
+        <v>11</v>
+      </c>
+      <c r="AZ286">
+        <v>23</v>
+      </c>
+      <c r="BA286">
+        <v>4</v>
+      </c>
+      <c r="BB286">
+        <v>4</v>
+      </c>
+      <c r="BC286">
+        <v>8</v>
+      </c>
+      <c r="BD286">
+        <v>0</v>
+      </c>
+      <c r="BE286">
+        <v>0</v>
+      </c>
+      <c r="BF286">
+        <v>0</v>
+      </c>
+      <c r="BG286">
+        <v>0</v>
+      </c>
+      <c r="BH286">
+        <v>0</v>
+      </c>
+      <c r="BI286">
+        <v>0</v>
+      </c>
+      <c r="BJ286">
+        <v>0</v>
+      </c>
+      <c r="BK286">
+        <v>0</v>
+      </c>
+      <c r="BL286">
+        <v>0</v>
+      </c>
+      <c r="BM286">
+        <v>0</v>
+      </c>
+      <c r="BN286">
+        <v>0</v>
+      </c>
+      <c r="BO286">
+        <v>0</v>
+      </c>
+      <c r="BP286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7856901</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45774.625</v>
+      </c>
+      <c r="F287">
+        <v>6</v>
+      </c>
+      <c r="G287" t="s">
+        <v>81</v>
+      </c>
+      <c r="H287" t="s">
+        <v>74</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>141</v>
+      </c>
+      <c r="P287" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q287">
+        <v>4.5</v>
+      </c>
+      <c r="R287">
+        <v>2.05</v>
+      </c>
+      <c r="S287">
+        <v>2.75</v>
+      </c>
+      <c r="T287">
+        <v>1.5</v>
+      </c>
+      <c r="U287">
+        <v>2.5</v>
+      </c>
+      <c r="V287">
+        <v>3.4</v>
+      </c>
+      <c r="W287">
+        <v>1.3</v>
+      </c>
+      <c r="X287">
+        <v>10</v>
+      </c>
+      <c r="Y287">
+        <v>1.06</v>
+      </c>
+      <c r="Z287">
+        <v>3.12</v>
+      </c>
+      <c r="AA287">
+        <v>3.21</v>
+      </c>
+      <c r="AB287">
+        <v>2.28</v>
+      </c>
+      <c r="AC287">
+        <v>0</v>
+      </c>
+      <c r="AD287">
+        <v>0</v>
+      </c>
+      <c r="AE287">
+        <v>0</v>
+      </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
+      <c r="AG287">
+        <v>1.87</v>
+      </c>
+      <c r="AH287">
+        <v>1.87</v>
+      </c>
+      <c r="AI287">
+        <v>2</v>
+      </c>
+      <c r="AJ287">
+        <v>1.73</v>
+      </c>
+      <c r="AK287">
+        <v>0</v>
+      </c>
+      <c r="AL287">
+        <v>0</v>
+      </c>
+      <c r="AM287">
+        <v>0</v>
+      </c>
+      <c r="AN287">
+        <v>1.83</v>
+      </c>
+      <c r="AO287">
+        <v>1.82</v>
+      </c>
+      <c r="AP287">
+        <v>1.74</v>
+      </c>
+      <c r="AQ287">
+        <v>1.89</v>
+      </c>
+      <c r="AR287">
+        <v>1.72</v>
+      </c>
+      <c r="AS287">
+        <v>1.61</v>
+      </c>
+      <c r="AT287">
+        <v>3.33</v>
+      </c>
+      <c r="AU287">
+        <v>-1</v>
+      </c>
+      <c r="AV287">
+        <v>-1</v>
+      </c>
+      <c r="AW287">
+        <v>-1</v>
+      </c>
+      <c r="AX287">
+        <v>-1</v>
+      </c>
+      <c r="AY287">
+        <v>-1</v>
+      </c>
+      <c r="AZ287">
+        <v>-1</v>
+      </c>
+      <c r="BA287">
+        <v>-1</v>
+      </c>
+      <c r="BB287">
+        <v>-1</v>
+      </c>
+      <c r="BC287">
+        <v>-1</v>
+      </c>
+      <c r="BD287">
+        <v>0</v>
+      </c>
+      <c r="BE287">
+        <v>0</v>
+      </c>
+      <c r="BF287">
+        <v>0</v>
+      </c>
+      <c r="BG287">
+        <v>0</v>
+      </c>
+      <c r="BH287">
+        <v>0</v>
+      </c>
+      <c r="BI287">
+        <v>0</v>
+      </c>
+      <c r="BJ287">
+        <v>0</v>
+      </c>
+      <c r="BK287">
+        <v>0</v>
+      </c>
+      <c r="BL287">
+        <v>0</v>
+      </c>
+      <c r="BM287">
+        <v>0</v>
+      </c>
+      <c r="BN287">
+        <v>0</v>
+      </c>
+      <c r="BO287">
+        <v>0</v>
+      </c>
+      <c r="BP287">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1458,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP287"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ9">
         <v>0.61</v>
@@ -4064,7 +4064,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ13">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ25">
         <v>1.06</v>
@@ -6945,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>0.61</v>
@@ -8184,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -9417,7 +9417,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>1.39</v>
@@ -11271,7 +11271,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
         <v>1.32</v>
@@ -11889,7 +11889,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>1.37</v>
@@ -12716,7 +12716,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ55">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -13746,7 +13746,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ60">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -14773,7 +14773,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -15185,10 +15185,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -16630,7 +16630,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ74">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -17863,7 +17863,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>1.06</v>
@@ -18069,7 +18069,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81">
         <v>0.95</v>
@@ -18896,7 +18896,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -21777,10 +21777,10 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ99">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -22189,7 +22189,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
         <v>1.89</v>
@@ -22604,7 +22604,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ103">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23219,7 +23219,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ106">
         <v>0.79</v>
@@ -24458,7 +24458,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ112">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24867,7 +24867,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ114">
         <v>1.06</v>
@@ -25282,7 +25282,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -26309,10 +26309,10 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -27136,7 +27136,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.4</v>
@@ -27754,7 +27754,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ128">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -29193,7 +29193,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ135">
         <v>1.39</v>
@@ -29814,7 +29814,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -30635,7 +30635,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30844,7 +30844,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ143">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -31871,7 +31871,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ148">
         <v>1.37</v>
@@ -32286,7 +32286,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ150">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32904,7 +32904,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR153">
         <v>1.53</v>
@@ -33313,7 +33313,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP155">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ155">
         <v>0.79</v>
@@ -34140,7 +34140,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR159">
         <v>1.46</v>
@@ -34964,7 +34964,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ163">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -35373,7 +35373,7 @@
         <v>1.3</v>
       </c>
       <c r="AP165">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ165">
         <v>0.83</v>
@@ -35785,7 +35785,7 @@
         <v>1.1</v>
       </c>
       <c r="AP167">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ167">
         <v>1.06</v>
@@ -37230,7 +37230,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ174">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR174">
         <v>1.61</v>
@@ -38257,7 +38257,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ179">
         <v>1.39</v>
@@ -39287,7 +39287,7 @@
         <v>0.55</v>
       </c>
       <c r="AP184">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ184">
         <v>0.95</v>
@@ -39496,7 +39496,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ185">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR185">
         <v>1.75</v>
@@ -40938,7 +40938,7 @@
         <v>2</v>
       </c>
       <c r="AQ192">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR192">
         <v>2.13</v>
@@ -41759,7 +41759,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ196">
         <v>1.32</v>
@@ -42586,7 +42586,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ200">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -42789,7 +42789,7 @@
         <v>1.83</v>
       </c>
       <c r="AP201">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ201">
         <v>1.89</v>
@@ -44440,7 +44440,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ209">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR209">
         <v>1.6</v>
@@ -45055,7 +45055,7 @@
         <v>1.15</v>
       </c>
       <c r="AP212">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ212">
         <v>1.06</v>
@@ -45261,10 +45261,10 @@
         <v>0.77</v>
       </c>
       <c r="AP213">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ213">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR213">
         <v>1.24</v>
@@ -45470,7 +45470,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ214">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR214">
         <v>1.44</v>
@@ -48148,7 +48148,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ227">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR227">
         <v>1.44</v>
@@ -48560,7 +48560,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ229">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR229">
         <v>1.81</v>
@@ -49381,7 +49381,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ233">
         <v>1.06</v>
@@ -49999,7 +49999,7 @@
         <v>1.14</v>
       </c>
       <c r="AP236">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ236">
         <v>1</v>
@@ -51235,7 +51235,7 @@
         <v>0.8</v>
       </c>
       <c r="AP242">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ242">
         <v>0.95</v>
@@ -53298,7 +53298,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ252">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR252">
         <v>1.82</v>
@@ -53913,7 +53913,7 @@
         <v>1.8</v>
       </c>
       <c r="AP255">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ255">
         <v>1.89</v>
@@ -54328,7 +54328,7 @@
         <v>2</v>
       </c>
       <c r="AQ257">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR257">
         <v>1.65</v>
@@ -54737,7 +54737,7 @@
         <v>1.07</v>
       </c>
       <c r="AP259">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ259">
         <v>1</v>
@@ -56594,7 +56594,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ268">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR268">
         <v>1.5</v>
@@ -58860,7 +58860,7 @@
         <v>2</v>
       </c>
       <c r="AQ279">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR279">
         <v>2.05</v>
@@ -59063,7 +59063,7 @@
         <v>0.65</v>
       </c>
       <c r="AP280">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ280">
         <v>0.61</v>
@@ -59269,7 +59269,7 @@
         <v>1.35</v>
       </c>
       <c r="AP281">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ281">
         <v>1.37</v>
@@ -60520,31 +60520,31 @@
         <v>3.33</v>
       </c>
       <c r="AU287">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV287">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW287">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AX287">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY287">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="AZ287">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA287">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB287">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC287">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD287">
         <v>0</v>
@@ -60583,6 +60583,418 @@
         <v>0</v>
       </c>
       <c r="BP287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7856908</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45775.5</v>
+      </c>
+      <c r="F288">
+        <v>6</v>
+      </c>
+      <c r="G288" t="s">
+        <v>77</v>
+      </c>
+      <c r="H288" t="s">
+        <v>70</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
+        <v>86</v>
+      </c>
+      <c r="P288" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q288">
+        <v>3.2</v>
+      </c>
+      <c r="R288">
+        <v>2.05</v>
+      </c>
+      <c r="S288">
+        <v>3.6</v>
+      </c>
+      <c r="T288">
+        <v>1.44</v>
+      </c>
+      <c r="U288">
+        <v>2.63</v>
+      </c>
+      <c r="V288">
+        <v>3.4</v>
+      </c>
+      <c r="W288">
+        <v>1.3</v>
+      </c>
+      <c r="X288">
+        <v>10</v>
+      </c>
+      <c r="Y288">
+        <v>1.06</v>
+      </c>
+      <c r="Z288">
+        <v>2.45</v>
+      </c>
+      <c r="AA288">
+        <v>3</v>
+      </c>
+      <c r="AB288">
+        <v>2.9</v>
+      </c>
+      <c r="AC288">
+        <v>0</v>
+      </c>
+      <c r="AD288">
+        <v>0</v>
+      </c>
+      <c r="AE288">
+        <v>0</v>
+      </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
+      <c r="AG288">
+        <v>2.1</v>
+      </c>
+      <c r="AH288">
+        <v>1.61</v>
+      </c>
+      <c r="AI288">
+        <v>1.83</v>
+      </c>
+      <c r="AJ288">
+        <v>1.83</v>
+      </c>
+      <c r="AK288">
+        <v>0</v>
+      </c>
+      <c r="AL288">
+        <v>0</v>
+      </c>
+      <c r="AM288">
+        <v>0</v>
+      </c>
+      <c r="AN288">
+        <v>1.72</v>
+      </c>
+      <c r="AO288">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP288">
+        <v>1.63</v>
+      </c>
+      <c r="AQ288">
+        <v>1.06</v>
+      </c>
+      <c r="AR288">
+        <v>1.39</v>
+      </c>
+      <c r="AS288">
+        <v>1.28</v>
+      </c>
+      <c r="AT288">
+        <v>2.67</v>
+      </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
+      <c r="AV288">
+        <v>5</v>
+      </c>
+      <c r="AW288">
+        <v>13</v>
+      </c>
+      <c r="AX288">
+        <v>9</v>
+      </c>
+      <c r="AY288">
+        <v>19</v>
+      </c>
+      <c r="AZ288">
+        <v>17</v>
+      </c>
+      <c r="BA288">
+        <v>4</v>
+      </c>
+      <c r="BB288">
+        <v>5</v>
+      </c>
+      <c r="BC288">
+        <v>9</v>
+      </c>
+      <c r="BD288">
+        <v>0</v>
+      </c>
+      <c r="BE288">
+        <v>0</v>
+      </c>
+      <c r="BF288">
+        <v>0</v>
+      </c>
+      <c r="BG288">
+        <v>0</v>
+      </c>
+      <c r="BH288">
+        <v>0</v>
+      </c>
+      <c r="BI288">
+        <v>0</v>
+      </c>
+      <c r="BJ288">
+        <v>0</v>
+      </c>
+      <c r="BK288">
+        <v>0</v>
+      </c>
+      <c r="BL288">
+        <v>0</v>
+      </c>
+      <c r="BM288">
+        <v>0</v>
+      </c>
+      <c r="BN288">
+        <v>0</v>
+      </c>
+      <c r="BO288">
+        <v>0</v>
+      </c>
+      <c r="BP288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7856902</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45775.625</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+      <c r="G289" t="s">
+        <v>83</v>
+      </c>
+      <c r="H289" t="s">
+        <v>75</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>168</v>
+      </c>
+      <c r="P289" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q289">
+        <v>4.75</v>
+      </c>
+      <c r="R289">
+        <v>2</v>
+      </c>
+      <c r="S289">
+        <v>2.75</v>
+      </c>
+      <c r="T289">
+        <v>1.5</v>
+      </c>
+      <c r="U289">
+        <v>2.5</v>
+      </c>
+      <c r="V289">
+        <v>3.5</v>
+      </c>
+      <c r="W289">
+        <v>1.29</v>
+      </c>
+      <c r="X289">
+        <v>11</v>
+      </c>
+      <c r="Y289">
+        <v>1.05</v>
+      </c>
+      <c r="Z289">
+        <v>3.77</v>
+      </c>
+      <c r="AA289">
+        <v>3.28</v>
+      </c>
+      <c r="AB289">
+        <v>2</v>
+      </c>
+      <c r="AC289">
+        <v>0</v>
+      </c>
+      <c r="AD289">
+        <v>0</v>
+      </c>
+      <c r="AE289">
+        <v>3.17</v>
+      </c>
+      <c r="AF289">
+        <v>1.35</v>
+      </c>
+      <c r="AG289">
+        <v>2.2</v>
+      </c>
+      <c r="AH289">
+        <v>1.55</v>
+      </c>
+      <c r="AI289">
+        <v>2.1</v>
+      </c>
+      <c r="AJ289">
+        <v>1.67</v>
+      </c>
+      <c r="AK289">
+        <v>0</v>
+      </c>
+      <c r="AL289">
+        <v>0</v>
+      </c>
+      <c r="AM289">
+        <v>0</v>
+      </c>
+      <c r="AN289">
+        <v>1.71</v>
+      </c>
+      <c r="AO289">
+        <v>1.41</v>
+      </c>
+      <c r="AP289">
+        <v>1.67</v>
+      </c>
+      <c r="AQ289">
+        <v>1.39</v>
+      </c>
+      <c r="AR289">
+        <v>1.33</v>
+      </c>
+      <c r="AS289">
+        <v>1.58</v>
+      </c>
+      <c r="AT289">
+        <v>2.91</v>
+      </c>
+      <c r="AU289">
+        <v>4</v>
+      </c>
+      <c r="AV289">
+        <v>3</v>
+      </c>
+      <c r="AW289">
+        <v>13</v>
+      </c>
+      <c r="AX289">
+        <v>7</v>
+      </c>
+      <c r="AY289">
+        <v>19</v>
+      </c>
+      <c r="AZ289">
+        <v>13</v>
+      </c>
+      <c r="BA289">
+        <v>6</v>
+      </c>
+      <c r="BB289">
+        <v>3</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>0</v>
+      </c>
+      <c r="BE289">
+        <v>0</v>
+      </c>
+      <c r="BF289">
+        <v>0</v>
+      </c>
+      <c r="BG289">
+        <v>0</v>
+      </c>
+      <c r="BH289">
+        <v>0</v>
+      </c>
+      <c r="BI289">
+        <v>0</v>
+      </c>
+      <c r="BJ289">
+        <v>0</v>
+      </c>
+      <c r="BK289">
+        <v>0</v>
+      </c>
+      <c r="BL289">
+        <v>0</v>
+      </c>
+      <c r="BM289">
+        <v>0</v>
+      </c>
+      <c r="BN289">
+        <v>0</v>
+      </c>
+      <c r="BO289">
+        <v>0</v>
+      </c>
+      <c r="BP289">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -60266,10 +60266,10 @@
         <v>0</v>
       </c>
       <c r="AE286">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AF286">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG286">
         <v>2.2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1098,6 +1098,9 @@
   <si>
     <t>['6', '42']</t>
   </si>
+  <si>
+    <t>['64', '83']</t>
+  </si>
 </sst>
 </file>
 
@@ -1458,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1801,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ2">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2416,7 +2419,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ5">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3031,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ8">
         <v>1.32</v>
@@ -3443,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
         <v>0.95</v>
@@ -3855,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.06</v>
@@ -5094,7 +5097,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -5503,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
         <v>0.61</v>
@@ -6536,7 +6539,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ25">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -7357,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -8802,7 +8805,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ36">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -9214,7 +9217,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ38">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -9623,7 +9626,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>1.39</v>
@@ -10035,7 +10038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.61</v>
@@ -10241,7 +10244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ43">
         <v>1.06</v>
@@ -11477,10 +11480,10 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11686,7 +11689,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR50">
         <v>1.71</v>
@@ -13331,10 +13334,10 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -13537,7 +13540,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -14776,7 +14779,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -15391,7 +15394,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ68">
         <v>1.37</v>
@@ -16215,7 +16218,7 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ72">
         <v>0.61</v>
@@ -17660,7 +17663,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -18275,7 +18278,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
         <v>1.39</v>
@@ -19305,10 +19308,10 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -20747,10 +20750,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ94">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -21983,7 +21986,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.95</v>
@@ -22395,10 +22398,10 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -23634,7 +23637,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23840,7 +23843,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR109">
         <v>2.02</v>
@@ -24043,7 +24046,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ110">
         <v>1.39</v>
@@ -25073,7 +25076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
         <v>1.32</v>
@@ -25485,7 +25488,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.89</v>
@@ -26515,7 +26518,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26721,7 +26724,7 @@
         <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.06</v>
@@ -27957,7 +27960,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ129">
         <v>1.89</v>
@@ -28784,7 +28787,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ133">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -28990,7 +28993,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR134">
         <v>2.06</v>
@@ -29399,7 +29402,7 @@
         <v>0.57</v>
       </c>
       <c r="AP136">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ136">
         <v>0.79</v>
@@ -29811,7 +29814,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ138">
         <v>1.06</v>
@@ -30841,7 +30844,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>1.39</v>
@@ -31462,7 +31465,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ146">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR146">
         <v>1.46</v>
@@ -32080,7 +32083,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ149">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -32283,7 +32286,7 @@
         <v>0.89</v>
       </c>
       <c r="AP150">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -33107,7 +33110,7 @@
         <v>0.44</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -33725,7 +33728,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -35376,7 +35379,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ165">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -35788,7 +35791,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ167">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR167">
         <v>1.24</v>
@@ -36197,7 +36200,7 @@
         <v>1.6</v>
       </c>
       <c r="AP169">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ169">
         <v>1.89</v>
@@ -37227,7 +37230,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ174">
         <v>1.39</v>
@@ -37433,7 +37436,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
         <v>1.39</v>
@@ -38054,7 +38057,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ178">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR178">
         <v>1.45</v>
@@ -38463,7 +38466,7 @@
         <v>0.73</v>
       </c>
       <c r="AP180">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ180">
         <v>1.06</v>
@@ -40111,7 +40114,7 @@
         <v>1.09</v>
       </c>
       <c r="AP188">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ188">
         <v>1</v>
@@ -40526,7 +40529,7 @@
         <v>2</v>
       </c>
       <c r="AQ190">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR190">
         <v>1.64</v>
@@ -40729,7 +40732,7 @@
         <v>0.45</v>
       </c>
       <c r="AP191">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ191">
         <v>0.79</v>
@@ -41556,7 +41559,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ195">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR195">
         <v>1.63</v>
@@ -42171,7 +42174,7 @@
         <v>1.5</v>
       </c>
       <c r="AP198">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>1.39</v>
@@ -42377,7 +42380,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -42995,7 +42998,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ202">
         <v>1.39</v>
@@ -43410,7 +43413,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ204">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR204">
         <v>1.36</v>
@@ -44849,7 +44852,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>1.32</v>
@@ -45467,7 +45470,7 @@
         <v>1.69</v>
       </c>
       <c r="AP214">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ214">
         <v>1.39</v>
@@ -45882,7 +45885,7 @@
         <v>2</v>
       </c>
       <c r="AQ216">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR216">
         <v>1.57</v>
@@ -46703,7 +46706,7 @@
         <v>1.46</v>
       </c>
       <c r="AP220">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ220">
         <v>1.37</v>
@@ -47736,7 +47739,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ225">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR225">
         <v>1.67</v>
@@ -48557,7 +48560,7 @@
         <v>0.93</v>
       </c>
       <c r="AP229">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ229">
         <v>1.06</v>
@@ -48763,7 +48766,7 @@
         <v>1.07</v>
       </c>
       <c r="AP230">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ230">
         <v>1</v>
@@ -50208,7 +50211,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ237">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR237">
         <v>1.24</v>
@@ -50823,10 +50826,10 @@
         <v>0.93</v>
       </c>
       <c r="AP240">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ240">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR240">
         <v>1.73</v>
@@ -51441,7 +51444,7 @@
         <v>1.47</v>
       </c>
       <c r="AP243">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ243">
         <v>1.39</v>
@@ -52062,7 +52065,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ246">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR246">
         <v>1.26</v>
@@ -52474,7 +52477,7 @@
         <v>2</v>
       </c>
       <c r="AQ248">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR248">
         <v>2.08</v>
@@ -53295,7 +53298,7 @@
         <v>0.87</v>
       </c>
       <c r="AP252">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ252">
         <v>1.06</v>
@@ -53707,7 +53710,7 @@
         <v>1.27</v>
       </c>
       <c r="AP254">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ254">
         <v>1.06</v>
@@ -55770,7 +55773,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ264">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR264">
         <v>1.7</v>
@@ -57209,7 +57212,7 @@
         <v>1.88</v>
       </c>
       <c r="AP271">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ271">
         <v>1.89</v>
@@ -57415,7 +57418,7 @@
         <v>1.12</v>
       </c>
       <c r="AP272">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AQ272">
         <v>1.32</v>
@@ -57624,7 +57627,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ273">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR273">
         <v>1.87</v>
@@ -57830,7 +57833,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ274">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR274">
         <v>1.49</v>
@@ -58651,7 +58654,7 @@
         <v>0.88</v>
       </c>
       <c r="AP278">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ278">
         <v>0.95</v>
@@ -60996,6 +60999,624 @@
       </c>
       <c r="BP289">
         <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7856915</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45779.47916666666</v>
+      </c>
+      <c r="F290">
+        <v>7</v>
+      </c>
+      <c r="G290" t="s">
+        <v>78</v>
+      </c>
+      <c r="H290" t="s">
+        <v>72</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290" t="s">
+        <v>86</v>
+      </c>
+      <c r="P290" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q290">
+        <v>3.25</v>
+      </c>
+      <c r="R290">
+        <v>2.1</v>
+      </c>
+      <c r="S290">
+        <v>2.95</v>
+      </c>
+      <c r="T290">
+        <v>1.37</v>
+      </c>
+      <c r="U290">
+        <v>2.85</v>
+      </c>
+      <c r="V290">
+        <v>2.65</v>
+      </c>
+      <c r="W290">
+        <v>1.42</v>
+      </c>
+      <c r="X290">
+        <v>6.75</v>
+      </c>
+      <c r="Y290">
+        <v>1.09</v>
+      </c>
+      <c r="Z290">
+        <v>2.82</v>
+      </c>
+      <c r="AA290">
+        <v>3.08</v>
+      </c>
+      <c r="AB290">
+        <v>2.56</v>
+      </c>
+      <c r="AC290">
+        <v>1.05</v>
+      </c>
+      <c r="AD290">
+        <v>8.5</v>
+      </c>
+      <c r="AE290">
+        <v>1.3</v>
+      </c>
+      <c r="AF290">
+        <v>3.35</v>
+      </c>
+      <c r="AG290">
+        <v>1.8</v>
+      </c>
+      <c r="AH290">
+        <v>1.83</v>
+      </c>
+      <c r="AI290">
+        <v>1.7</v>
+      </c>
+      <c r="AJ290">
+        <v>2</v>
+      </c>
+      <c r="AK290">
+        <v>1.53</v>
+      </c>
+      <c r="AL290">
+        <v>1.31</v>
+      </c>
+      <c r="AM290">
+        <v>1.41</v>
+      </c>
+      <c r="AN290">
+        <v>1.59</v>
+      </c>
+      <c r="AO290">
+        <v>1</v>
+      </c>
+      <c r="AP290">
+        <v>1.56</v>
+      </c>
+      <c r="AQ290">
+        <v>1</v>
+      </c>
+      <c r="AR290">
+        <v>1.44</v>
+      </c>
+      <c r="AS290">
+        <v>1.46</v>
+      </c>
+      <c r="AT290">
+        <v>2.9</v>
+      </c>
+      <c r="AU290">
+        <v>0</v>
+      </c>
+      <c r="AV290">
+        <v>5</v>
+      </c>
+      <c r="AW290">
+        <v>12</v>
+      </c>
+      <c r="AX290">
+        <v>5</v>
+      </c>
+      <c r="AY290">
+        <v>13</v>
+      </c>
+      <c r="AZ290">
+        <v>11</v>
+      </c>
+      <c r="BA290">
+        <v>1</v>
+      </c>
+      <c r="BB290">
+        <v>3</v>
+      </c>
+      <c r="BC290">
+        <v>4</v>
+      </c>
+      <c r="BD290">
+        <v>1.98</v>
+      </c>
+      <c r="BE290">
+        <v>6.4</v>
+      </c>
+      <c r="BF290">
+        <v>1.98</v>
+      </c>
+      <c r="BG290">
+        <v>1.29</v>
+      </c>
+      <c r="BH290">
+        <v>3.15</v>
+      </c>
+      <c r="BI290">
+        <v>1.5</v>
+      </c>
+      <c r="BJ290">
+        <v>2.35</v>
+      </c>
+      <c r="BK290">
+        <v>1.82</v>
+      </c>
+      <c r="BL290">
+        <v>1.85</v>
+      </c>
+      <c r="BM290">
+        <v>2.25</v>
+      </c>
+      <c r="BN290">
+        <v>1.53</v>
+      </c>
+      <c r="BO290">
+        <v>2.9</v>
+      </c>
+      <c r="BP290">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7856911</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45779.60416666666</v>
+      </c>
+      <c r="F291">
+        <v>7</v>
+      </c>
+      <c r="G291" t="s">
+        <v>80</v>
+      </c>
+      <c r="H291" t="s">
+        <v>81</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>2</v>
+      </c>
+      <c r="N291">
+        <v>3</v>
+      </c>
+      <c r="O291" t="s">
+        <v>109</v>
+      </c>
+      <c r="P291" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q291">
+        <v>2.45</v>
+      </c>
+      <c r="R291">
+        <v>2.05</v>
+      </c>
+      <c r="S291">
+        <v>4.33</v>
+      </c>
+      <c r="T291">
+        <v>1.41</v>
+      </c>
+      <c r="U291">
+        <v>2.7</v>
+      </c>
+      <c r="V291">
+        <v>2.8</v>
+      </c>
+      <c r="W291">
+        <v>1.38</v>
+      </c>
+      <c r="X291">
+        <v>7.25</v>
+      </c>
+      <c r="Y291">
+        <v>1.08</v>
+      </c>
+      <c r="Z291">
+        <v>1.89</v>
+      </c>
+      <c r="AA291">
+        <v>3.3</v>
+      </c>
+      <c r="AB291">
+        <v>4.2</v>
+      </c>
+      <c r="AC291">
+        <v>1.06</v>
+      </c>
+      <c r="AD291">
+        <v>8</v>
+      </c>
+      <c r="AE291">
+        <v>1.33</v>
+      </c>
+      <c r="AF291">
+        <v>3.1</v>
+      </c>
+      <c r="AG291">
+        <v>1.95</v>
+      </c>
+      <c r="AH291">
+        <v>1.75</v>
+      </c>
+      <c r="AI291">
+        <v>1.85</v>
+      </c>
+      <c r="AJ291">
+        <v>1.83</v>
+      </c>
+      <c r="AK291">
+        <v>1.22</v>
+      </c>
+      <c r="AL291">
+        <v>1.3</v>
+      </c>
+      <c r="AM291">
+        <v>1.87</v>
+      </c>
+      <c r="AN291">
+        <v>2.12</v>
+      </c>
+      <c r="AO291">
+        <v>1.06</v>
+      </c>
+      <c r="AP291">
+        <v>2</v>
+      </c>
+      <c r="AQ291">
+        <v>1.17</v>
+      </c>
+      <c r="AR291">
+        <v>1.82</v>
+      </c>
+      <c r="AS291">
+        <v>1.42</v>
+      </c>
+      <c r="AT291">
+        <v>3.24</v>
+      </c>
+      <c r="AU291">
+        <v>5</v>
+      </c>
+      <c r="AV291">
+        <v>4</v>
+      </c>
+      <c r="AW291">
+        <v>10</v>
+      </c>
+      <c r="AX291">
+        <v>5</v>
+      </c>
+      <c r="AY291">
+        <v>18</v>
+      </c>
+      <c r="AZ291">
+        <v>9</v>
+      </c>
+      <c r="BA291">
+        <v>10</v>
+      </c>
+      <c r="BB291">
+        <v>2</v>
+      </c>
+      <c r="BC291">
+        <v>12</v>
+      </c>
+      <c r="BD291">
+        <v>1.6</v>
+      </c>
+      <c r="BE291">
+        <v>6.75</v>
+      </c>
+      <c r="BF291">
+        <v>2.55</v>
+      </c>
+      <c r="BG291">
+        <v>1.27</v>
+      </c>
+      <c r="BH291">
+        <v>3.3</v>
+      </c>
+      <c r="BI291">
+        <v>1.45</v>
+      </c>
+      <c r="BJ291">
+        <v>2.48</v>
+      </c>
+      <c r="BK291">
+        <v>1.74</v>
+      </c>
+      <c r="BL291">
+        <v>1.93</v>
+      </c>
+      <c r="BM291">
+        <v>2.18</v>
+      </c>
+      <c r="BN291">
+        <v>1.58</v>
+      </c>
+      <c r="BO291">
+        <v>2.7</v>
+      </c>
+      <c r="BP291">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7856916</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45780.32291666666</v>
+      </c>
+      <c r="F292">
+        <v>7</v>
+      </c>
+      <c r="G292" t="s">
+        <v>76</v>
+      </c>
+      <c r="H292" t="s">
+        <v>79</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" t="s">
+        <v>109</v>
+      </c>
+      <c r="P292" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q292">
+        <v>2.05</v>
+      </c>
+      <c r="R292">
+        <v>2.2</v>
+      </c>
+      <c r="S292">
+        <v>5.75</v>
+      </c>
+      <c r="T292">
+        <v>1.38</v>
+      </c>
+      <c r="U292">
+        <v>2.8</v>
+      </c>
+      <c r="V292">
+        <v>2.75</v>
+      </c>
+      <c r="W292">
+        <v>1.4</v>
+      </c>
+      <c r="X292">
+        <v>6.55</v>
+      </c>
+      <c r="Y292">
+        <v>1.05</v>
+      </c>
+      <c r="Z292">
+        <v>1.56</v>
+      </c>
+      <c r="AA292">
+        <v>3.95</v>
+      </c>
+      <c r="AB292">
+        <v>5.7</v>
+      </c>
+      <c r="AC292">
+        <v>1.05</v>
+      </c>
+      <c r="AD292">
+        <v>8.5</v>
+      </c>
+      <c r="AE292">
+        <v>1.3</v>
+      </c>
+      <c r="AF292">
+        <v>3.35</v>
+      </c>
+      <c r="AG292">
+        <v>1.92</v>
+      </c>
+      <c r="AH292">
+        <v>1.82</v>
+      </c>
+      <c r="AI292">
+        <v>1.93</v>
+      </c>
+      <c r="AJ292">
+        <v>1.73</v>
+      </c>
+      <c r="AK292">
+        <v>1.09</v>
+      </c>
+      <c r="AL292">
+        <v>1.2</v>
+      </c>
+      <c r="AM292">
+        <v>2.4</v>
+      </c>
+      <c r="AN292">
+        <v>1.29</v>
+      </c>
+      <c r="AO292">
+        <v>0.83</v>
+      </c>
+      <c r="AP292">
+        <v>1.28</v>
+      </c>
+      <c r="AQ292">
+        <v>0.84</v>
+      </c>
+      <c r="AR292">
+        <v>1.83</v>
+      </c>
+      <c r="AS292">
+        <v>1.27</v>
+      </c>
+      <c r="AT292">
+        <v>3.1</v>
+      </c>
+      <c r="AU292">
+        <v>11</v>
+      </c>
+      <c r="AV292">
+        <v>4</v>
+      </c>
+      <c r="AW292">
+        <v>10</v>
+      </c>
+      <c r="AX292">
+        <v>2</v>
+      </c>
+      <c r="AY292">
+        <v>24</v>
+      </c>
+      <c r="AZ292">
+        <v>6</v>
+      </c>
+      <c r="BA292">
+        <v>5</v>
+      </c>
+      <c r="BB292">
+        <v>6</v>
+      </c>
+      <c r="BC292">
+        <v>11</v>
+      </c>
+      <c r="BD292">
+        <v>1.36</v>
+      </c>
+      <c r="BE292">
+        <v>7.5</v>
+      </c>
+      <c r="BF292">
+        <v>3.4</v>
+      </c>
+      <c r="BG292">
+        <v>1.23</v>
+      </c>
+      <c r="BH292">
+        <v>3.55</v>
+      </c>
+      <c r="BI292">
+        <v>1.4</v>
+      </c>
+      <c r="BJ292">
+        <v>2.65</v>
+      </c>
+      <c r="BK292">
+        <v>1.66</v>
+      </c>
+      <c r="BL292">
+        <v>2.02</v>
+      </c>
+      <c r="BM292">
+        <v>2.04</v>
+      </c>
+      <c r="BN292">
+        <v>1.66</v>
+      </c>
+      <c r="BO292">
+        <v>2.55</v>
+      </c>
+      <c r="BP292">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,9 @@
     <t>['59', '75']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -830,9 +833,6 @@
   </si>
   <si>
     <t>['5', '43']</t>
-  </si>
-  <si>
-    <t>['13']</t>
   </si>
   <si>
     <t>['32', '82']</t>
@@ -1461,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP292"/>
+  <dimension ref="A1:BP294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1720,7 +1720,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ2">
         <v>0.84</v>
@@ -2625,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ7">
         <v>1.39</v>
@@ -2956,7 +2956,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3243,7 +3243,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ9">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3780,7 +3780,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3986,7 +3986,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4192,7 +4192,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4398,7 +4398,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4604,7 +4604,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5222,7 +5222,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5428,7 +5428,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5509,7 +5509,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5840,7 +5840,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ22">
         <v>0.95</v>
@@ -6046,7 +6046,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23">
         <v>1.37</v>
@@ -6333,7 +6333,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ24">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR24">
         <v>1.56</v>
@@ -6951,7 +6951,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
         <v>0.79</v>
@@ -7488,7 +7488,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7566,10 +7566,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7694,7 +7694,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7900,7 +7900,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8106,7 +8106,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8518,7 +8518,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -9214,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ38">
         <v>0.84</v>
@@ -9423,7 +9423,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ39">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -10041,7 +10041,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
         <v>1.06</v>
@@ -12098,7 +12098,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ52">
         <v>0.95</v>
@@ -12513,7 +12513,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -13746,7 +13746,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ60">
         <v>1.39</v>
@@ -14161,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -15600,7 +15600,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>1.89</v>
@@ -16015,7 +16015,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ71">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -16221,7 +16221,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ72">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR72">
         <v>1.78</v>
@@ -17042,7 +17042,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -18281,7 +18281,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ82">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -18484,7 +18484,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ83">
         <v>1.06</v>
@@ -19720,7 +19720,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ89">
         <v>1.39</v>
@@ -19929,7 +19929,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -20132,7 +20132,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ91">
         <v>0.79</v>
@@ -20959,7 +20959,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -22810,7 +22810,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -23019,7 +23019,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ105">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR105">
         <v>1.58</v>
@@ -24049,7 +24049,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ110">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR110">
         <v>1.9</v>
@@ -24252,7 +24252,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
         <v>1.37</v>
@@ -28169,7 +28169,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ130">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR130">
         <v>1.47</v>
@@ -28372,7 +28372,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ131">
         <v>1.32</v>
@@ -28581,7 +28581,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ132">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR132">
         <v>1.25</v>
@@ -28784,7 +28784,7 @@
         <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ133">
         <v>1.17</v>
@@ -31796,7 +31796,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -34346,7 +34346,7 @@
         <v>1.67</v>
       </c>
       <c r="AP160">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ160">
         <v>1.89</v>
@@ -34555,7 +34555,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ161">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -34761,7 +34761,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ162">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -35582,7 +35582,7 @@
         <v>1.3</v>
       </c>
       <c r="AP166">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ166">
         <v>1.32</v>
@@ -36534,7 +36534,7 @@
         <v>98</v>
       </c>
       <c r="P171" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="Q171">
         <v>1.99</v>
@@ -36821,7 +36821,7 @@
         <v>2</v>
       </c>
       <c r="AQ172">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
@@ -37642,7 +37642,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176">
         <v>1.06</v>
@@ -38263,7 +38263,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ179">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR179">
         <v>1.24</v>
@@ -39496,7 +39496,7 @@
         <v>0.91</v>
       </c>
       <c r="AP185">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ185">
         <v>1.06</v>
@@ -40323,7 +40323,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR189">
         <v>1.34</v>
@@ -41144,7 +41144,7 @@
         <v>1.27</v>
       </c>
       <c r="AP193">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ193">
         <v>1</v>
@@ -41968,7 +41968,7 @@
         <v>0.92</v>
       </c>
       <c r="AP197">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ197">
         <v>1.06</v>
@@ -42177,7 +42177,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR198">
         <v>1.82</v>
@@ -44234,10 +44234,10 @@
         <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ208">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR208">
         <v>1.66</v>
@@ -46297,7 +46297,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ218">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR218">
         <v>1.24</v>
@@ -46503,7 +46503,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ219">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR219">
         <v>1.36</v>
@@ -46912,7 +46912,7 @@
         <v>1.15</v>
       </c>
       <c r="AP221">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ221">
         <v>1</v>
@@ -47736,7 +47736,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ225">
         <v>1.17</v>
@@ -49796,10 +49796,10 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ235">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR235">
         <v>1.69</v>
@@ -50414,10 +50414,10 @@
         <v>0.36</v>
       </c>
       <c r="AP238">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ238">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR238">
         <v>1.86</v>
@@ -51447,7 +51447,7 @@
         <v>2</v>
       </c>
       <c r="AQ243">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR243">
         <v>1.83</v>
@@ -51650,7 +51650,7 @@
         <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ244">
         <v>0.79</v>
@@ -51856,7 +51856,7 @@
         <v>1.47</v>
       </c>
       <c r="AP245">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ245">
         <v>1.39</v>
@@ -52683,7 +52683,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ249">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR249">
         <v>1.45</v>
@@ -55155,7 +55155,7 @@
         <v>2</v>
       </c>
       <c r="AQ261">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR261">
         <v>2.07</v>
@@ -55361,7 +55361,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ262">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR262">
         <v>1.32</v>
@@ -55770,7 +55770,7 @@
         <v>0.88</v>
       </c>
       <c r="AP264">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ264">
         <v>0.84</v>
@@ -55976,7 +55976,7 @@
         <v>1.44</v>
       </c>
       <c r="AP265">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ265">
         <v>1.37</v>
@@ -57624,7 +57624,7 @@
         <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ273">
         <v>1.17</v>
@@ -57958,7 +57958,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58242,7 +58242,7 @@
         <v>1.06</v>
       </c>
       <c r="AP276">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ276">
         <v>1.06</v>
@@ -58451,7 +58451,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ277">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR277">
         <v>1.7</v>
@@ -59069,7 +59069,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ280">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AR280">
         <v>1.33</v>
@@ -61565,7 +61565,7 @@
         <v>2</v>
       </c>
       <c r="AY292">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ292">
         <v>6</v>
@@ -61617,6 +61617,418 @@
       </c>
       <c r="BP292">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7856912</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45780.51041666666</v>
+      </c>
+      <c r="F293">
+        <v>7</v>
+      </c>
+      <c r="G293" t="s">
+        <v>70</v>
+      </c>
+      <c r="H293" t="s">
+        <v>84</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
+        <v>255</v>
+      </c>
+      <c r="P293" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q293">
+        <v>1.77</v>
+      </c>
+      <c r="R293">
+        <v>2.5</v>
+      </c>
+      <c r="S293">
+        <v>6.5</v>
+      </c>
+      <c r="T293">
+        <v>1.3</v>
+      </c>
+      <c r="U293">
+        <v>3.2</v>
+      </c>
+      <c r="V293">
+        <v>2.45</v>
+      </c>
+      <c r="W293">
+        <v>1.48</v>
+      </c>
+      <c r="X293">
+        <v>5.7</v>
+      </c>
+      <c r="Y293">
+        <v>1.1</v>
+      </c>
+      <c r="Z293">
+        <v>1.31</v>
+      </c>
+      <c r="AA293">
+        <v>5.1</v>
+      </c>
+      <c r="AB293">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC293">
+        <v>1.04</v>
+      </c>
+      <c r="AD293">
+        <v>9.5</v>
+      </c>
+      <c r="AE293">
+        <v>1.22</v>
+      </c>
+      <c r="AF293">
+        <v>3.85</v>
+      </c>
+      <c r="AG293">
+        <v>1.78</v>
+      </c>
+      <c r="AH293">
+        <v>1.92</v>
+      </c>
+      <c r="AI293">
+        <v>2.05</v>
+      </c>
+      <c r="AJ293">
+        <v>1.65</v>
+      </c>
+      <c r="AK293">
+        <v>1.04</v>
+      </c>
+      <c r="AL293">
+        <v>1.12</v>
+      </c>
+      <c r="AM293">
+        <v>3.1</v>
+      </c>
+      <c r="AN293">
+        <v>1.39</v>
+      </c>
+      <c r="AO293">
+        <v>0.61</v>
+      </c>
+      <c r="AP293">
+        <v>1.47</v>
+      </c>
+      <c r="AQ293">
+        <v>0.58</v>
+      </c>
+      <c r="AR293">
+        <v>1.68</v>
+      </c>
+      <c r="AS293">
+        <v>1.11</v>
+      </c>
+      <c r="AT293">
+        <v>2.79</v>
+      </c>
+      <c r="AU293">
+        <v>4</v>
+      </c>
+      <c r="AV293">
+        <v>2</v>
+      </c>
+      <c r="AW293">
+        <v>7</v>
+      </c>
+      <c r="AX293">
+        <v>5</v>
+      </c>
+      <c r="AY293">
+        <v>12</v>
+      </c>
+      <c r="AZ293">
+        <v>11</v>
+      </c>
+      <c r="BA293">
+        <v>3</v>
+      </c>
+      <c r="BB293">
+        <v>6</v>
+      </c>
+      <c r="BC293">
+        <v>9</v>
+      </c>
+      <c r="BD293">
+        <v>1.35</v>
+      </c>
+      <c r="BE293">
+        <v>7.5</v>
+      </c>
+      <c r="BF293">
+        <v>3.45</v>
+      </c>
+      <c r="BG293">
+        <v>1.32</v>
+      </c>
+      <c r="BH293">
+        <v>3</v>
+      </c>
+      <c r="BI293">
+        <v>1.52</v>
+      </c>
+      <c r="BJ293">
+        <v>2.28</v>
+      </c>
+      <c r="BK293">
+        <v>1.85</v>
+      </c>
+      <c r="BL293">
+        <v>1.81</v>
+      </c>
+      <c r="BM293">
+        <v>2.33</v>
+      </c>
+      <c r="BN293">
+        <v>1.5</v>
+      </c>
+      <c r="BO293">
+        <v>3.05</v>
+      </c>
+      <c r="BP293">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7856910</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45780.625</v>
+      </c>
+      <c r="F294">
+        <v>7</v>
+      </c>
+      <c r="G294" t="s">
+        <v>75</v>
+      </c>
+      <c r="H294" t="s">
+        <v>82</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>1</v>
+      </c>
+      <c r="O294" t="s">
+        <v>239</v>
+      </c>
+      <c r="P294" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q294">
+        <v>2.4</v>
+      </c>
+      <c r="R294">
+        <v>2.05</v>
+      </c>
+      <c r="S294">
+        <v>4.75</v>
+      </c>
+      <c r="T294">
+        <v>1.42</v>
+      </c>
+      <c r="U294">
+        <v>2.62</v>
+      </c>
+      <c r="V294">
+        <v>2.95</v>
+      </c>
+      <c r="W294">
+        <v>1.35</v>
+      </c>
+      <c r="X294">
+        <v>9</v>
+      </c>
+      <c r="Y294">
+        <v>1.01</v>
+      </c>
+      <c r="Z294">
+        <v>1.82</v>
+      </c>
+      <c r="AA294">
+        <v>3.38</v>
+      </c>
+      <c r="AB294">
+        <v>4.4</v>
+      </c>
+      <c r="AC294">
+        <v>1.06</v>
+      </c>
+      <c r="AD294">
+        <v>8</v>
+      </c>
+      <c r="AE294">
+        <v>1.36</v>
+      </c>
+      <c r="AF294">
+        <v>2.95</v>
+      </c>
+      <c r="AG294">
+        <v>2.05</v>
+      </c>
+      <c r="AH294">
+        <v>1.65</v>
+      </c>
+      <c r="AI294">
+        <v>1.91</v>
+      </c>
+      <c r="AJ294">
+        <v>1.73</v>
+      </c>
+      <c r="AK294">
+        <v>1.17</v>
+      </c>
+      <c r="AL294">
+        <v>1.25</v>
+      </c>
+      <c r="AM294">
+        <v>1.93</v>
+      </c>
+      <c r="AN294">
+        <v>2.06</v>
+      </c>
+      <c r="AO294">
+        <v>1.39</v>
+      </c>
+      <c r="AP294">
+        <v>2.11</v>
+      </c>
+      <c r="AQ294">
+        <v>1.32</v>
+      </c>
+      <c r="AR294">
+        <v>1.89</v>
+      </c>
+      <c r="AS294">
+        <v>1.43</v>
+      </c>
+      <c r="AT294">
+        <v>3.32</v>
+      </c>
+      <c r="AU294">
+        <v>2</v>
+      </c>
+      <c r="AV294">
+        <v>3</v>
+      </c>
+      <c r="AW294">
+        <v>8</v>
+      </c>
+      <c r="AX294">
+        <v>6</v>
+      </c>
+      <c r="AY294">
+        <v>13</v>
+      </c>
+      <c r="AZ294">
+        <v>11</v>
+      </c>
+      <c r="BA294">
+        <v>6</v>
+      </c>
+      <c r="BB294">
+        <v>4</v>
+      </c>
+      <c r="BC294">
+        <v>10</v>
+      </c>
+      <c r="BD294">
+        <v>1.64</v>
+      </c>
+      <c r="BE294">
+        <v>8</v>
+      </c>
+      <c r="BF294">
+        <v>2.77</v>
+      </c>
+      <c r="BG294">
+        <v>1.4</v>
+      </c>
+      <c r="BH294">
+        <v>2.73</v>
+      </c>
+      <c r="BI294">
+        <v>1.69</v>
+      </c>
+      <c r="BJ294">
+        <v>2.1</v>
+      </c>
+      <c r="BK294">
+        <v>2.11</v>
+      </c>
+      <c r="BL294">
+        <v>1.68</v>
+      </c>
+      <c r="BM294">
+        <v>2.68</v>
+      </c>
+      <c r="BN294">
+        <v>1.41</v>
+      </c>
+      <c r="BO294">
+        <v>3.58</v>
+      </c>
+      <c r="BP294">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1101,6 +1101,9 @@
   <si>
     <t>['64', '83']</t>
   </si>
+  <si>
+    <t>['60', '62']</t>
+  </si>
 </sst>
 </file>
 
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP294"/>
+  <dimension ref="A1:BP295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4273,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4888,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ17">
         <v>1.06</v>
@@ -6742,10 +6745,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ26">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -11071,7 +11074,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -12922,7 +12925,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -15809,7 +15812,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -16424,7 +16427,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
         <v>1.39</v>
@@ -17869,7 +17872,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -20338,7 +20341,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ92">
         <v>1.37</v>
@@ -21165,7 +21168,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ96">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -23634,7 +23637,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ108">
         <v>0.84</v>
@@ -25903,7 +25906,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ119">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -26106,7 +26109,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120">
         <v>0.95</v>
@@ -26727,7 +26730,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR123">
         <v>1.82</v>
@@ -27754,7 +27757,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
         <v>1.39</v>
@@ -30229,7 +30232,7 @@
         <v>1</v>
       </c>
       <c r="AQ140">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR140">
         <v>1.45</v>
@@ -31256,7 +31259,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ145">
         <v>1.89</v>
@@ -33113,7 +33116,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ154">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR154">
         <v>1.64</v>
@@ -33522,7 +33525,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ156">
         <v>1.06</v>
@@ -36615,7 +36618,7 @@
         <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR171">
         <v>2.04</v>
@@ -37024,7 +37027,7 @@
         <v>1.3</v>
       </c>
       <c r="AP173">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -38469,7 +38472,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ180">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR180">
         <v>1.37</v>
@@ -40320,7 +40323,7 @@
         <v>0.45</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ189">
         <v>0.58</v>
@@ -41971,7 +41974,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ197">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR197">
         <v>1.86</v>
@@ -43410,7 +43413,7 @@
         <v>1</v>
       </c>
       <c r="AP204">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ204">
         <v>1.17</v>
@@ -44649,7 +44652,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ210">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR210">
         <v>1.42</v>
@@ -46500,7 +46503,7 @@
         <v>1.38</v>
       </c>
       <c r="AP219">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ219">
         <v>1.32</v>
@@ -49387,7 +49390,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ233">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR233">
         <v>1.34</v>
@@ -49590,7 +49593,7 @@
         <v>0.5</v>
       </c>
       <c r="AP234">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ234">
         <v>0.79</v>
@@ -53095,7 +53098,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ251">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR251">
         <v>1.48</v>
@@ -54534,7 +54537,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ258">
         <v>0.79</v>
@@ -57830,7 +57833,7 @@
         <v>0.88</v>
       </c>
       <c r="AP274">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AQ274">
         <v>0.84</v>
@@ -58245,7 +58248,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ276">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR276">
         <v>1.7</v>
@@ -62028,6 +62031,212 @@
         <v>3.58</v>
       </c>
       <c r="BP294">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7856914</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45781.61458333334</v>
+      </c>
+      <c r="F295">
+        <v>7</v>
+      </c>
+      <c r="G295" t="s">
+        <v>85</v>
+      </c>
+      <c r="H295" t="s">
+        <v>71</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>3</v>
+      </c>
+      <c r="O295" t="s">
+        <v>121</v>
+      </c>
+      <c r="P295" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q295">
+        <v>2.94</v>
+      </c>
+      <c r="R295">
+        <v>1.91</v>
+      </c>
+      <c r="S295">
+        <v>4.15</v>
+      </c>
+      <c r="T295">
+        <v>1.51</v>
+      </c>
+      <c r="U295">
+        <v>2.39</v>
+      </c>
+      <c r="V295">
+        <v>3.56</v>
+      </c>
+      <c r="W295">
+        <v>1.25</v>
+      </c>
+      <c r="X295">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y295">
+        <v>1.01</v>
+      </c>
+      <c r="Z295">
+        <v>2.26</v>
+      </c>
+      <c r="AA295">
+        <v>3.02</v>
+      </c>
+      <c r="AB295">
+        <v>3.37</v>
+      </c>
+      <c r="AC295">
+        <v>1.04</v>
+      </c>
+      <c r="AD295">
+        <v>7.1</v>
+      </c>
+      <c r="AE295">
+        <v>1.42</v>
+      </c>
+      <c r="AF295">
+        <v>2.5</v>
+      </c>
+      <c r="AG295">
+        <v>2.4</v>
+      </c>
+      <c r="AH295">
+        <v>1.5</v>
+      </c>
+      <c r="AI295">
+        <v>2.06</v>
+      </c>
+      <c r="AJ295">
+        <v>1.68</v>
+      </c>
+      <c r="AK295">
+        <v>1.31</v>
+      </c>
+      <c r="AL295">
+        <v>1.34</v>
+      </c>
+      <c r="AM295">
+        <v>1.63</v>
+      </c>
+      <c r="AN295">
+        <v>1.29</v>
+      </c>
+      <c r="AO295">
+        <v>1.06</v>
+      </c>
+      <c r="AP295">
+        <v>1.22</v>
+      </c>
+      <c r="AQ295">
+        <v>1.17</v>
+      </c>
+      <c r="AR295">
+        <v>1.51</v>
+      </c>
+      <c r="AS295">
+        <v>1.3</v>
+      </c>
+      <c r="AT295">
+        <v>2.81</v>
+      </c>
+      <c r="AU295">
+        <v>11</v>
+      </c>
+      <c r="AV295">
+        <v>4</v>
+      </c>
+      <c r="AW295">
+        <v>8</v>
+      </c>
+      <c r="AX295">
+        <v>5</v>
+      </c>
+      <c r="AY295">
+        <v>19</v>
+      </c>
+      <c r="AZ295">
+        <v>9</v>
+      </c>
+      <c r="BA295">
+        <v>9</v>
+      </c>
+      <c r="BB295">
+        <v>2</v>
+      </c>
+      <c r="BC295">
+        <v>11</v>
+      </c>
+      <c r="BD295">
+        <v>1.74</v>
+      </c>
+      <c r="BE295">
+        <v>6.25</v>
+      </c>
+      <c r="BF295">
+        <v>2.38</v>
+      </c>
+      <c r="BG295">
+        <v>1.38</v>
+      </c>
+      <c r="BH295">
+        <v>2.65</v>
+      </c>
+      <c r="BI295">
+        <v>1.65</v>
+      </c>
+      <c r="BJ295">
+        <v>2.04</v>
+      </c>
+      <c r="BK295">
+        <v>2.07</v>
+      </c>
+      <c r="BL295">
+        <v>1.64</v>
+      </c>
+      <c r="BM295">
+        <v>2.65</v>
+      </c>
+      <c r="BN295">
+        <v>1.38</v>
+      </c>
+      <c r="BO295">
+        <v>3.55</v>
+      </c>
+      <c r="BP295">
         <v>1.23</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,12 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['59', '67']</t>
+  </si>
+  <si>
+    <t>['23', '26', '36']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -1103,6 +1109,9 @@
   </si>
   <si>
     <t>['60', '62']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1732,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2419,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ5">
         <v>1.17</v>
@@ -2625,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ6">
         <v>1.32</v>
@@ -2753,7 +2762,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2834,7 +2843,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ7">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2959,7 +2968,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3577,7 +3586,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3783,7 +3792,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3989,7 +3998,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4195,7 +4204,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4401,7 +4410,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4482,7 +4491,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4607,7 +4616,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5225,7 +5234,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5303,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ19">
         <v>1.32</v>
@@ -5431,7 +5440,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5718,7 +5727,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ21">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5843,7 +5852,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6049,7 +6058,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6333,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ24">
         <v>1.32</v>
@@ -7366,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -7491,7 +7500,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7697,7 +7706,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7903,7 +7912,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8109,7 +8118,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8187,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ33">
         <v>1.06</v>
@@ -8599,7 +8608,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ35">
         <v>1.32</v>
@@ -8933,7 +8942,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9551,7 +9560,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9632,7 +9641,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9757,7 +9766,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9838,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -10453,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ44">
         <v>0.79</v>
@@ -10662,7 +10671,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ45">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10993,7 +11002,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11405,7 +11414,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -12435,7 +12444,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12719,7 +12728,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -13053,7 +13062,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13465,7 +13474,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13546,7 +13555,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13671,7 +13680,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13955,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ61">
         <v>1.06</v>
@@ -14083,7 +14092,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14370,7 +14379,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -15113,7 +15122,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15525,7 +15534,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15809,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ70">
         <v>1.17</v>
@@ -15937,7 +15946,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16143,7 +16152,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16430,7 +16439,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ73">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16761,7 +16770,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16839,10 +16848,10 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -17173,7 +17182,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17457,7 +17466,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ78">
         <v>0.79</v>
@@ -17585,7 +17594,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17997,7 +18006,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18409,7 +18418,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -19027,7 +19036,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19517,10 +19526,10 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19726,7 +19735,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ89">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR89">
         <v>1.6</v>
@@ -19851,7 +19860,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20057,7 +20066,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20263,7 +20272,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20469,7 +20478,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20881,7 +20890,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20959,7 +20968,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ95">
         <v>0.58</v>
@@ -22117,7 +22126,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22735,7 +22744,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23019,7 +23028,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ105">
         <v>0.58</v>
@@ -23353,7 +23362,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23434,7 +23443,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ107">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23559,7 +23568,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23843,7 +23852,7 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ109">
         <v>1.17</v>
@@ -23971,7 +23980,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24177,7 +24186,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24589,7 +24598,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24670,7 +24679,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR113">
         <v>1.54</v>
@@ -25001,7 +25010,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -26237,7 +26246,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26443,7 +26452,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -27267,7 +27276,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27554,7 +27563,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR127">
         <v>1.4</v>
@@ -28709,7 +28718,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28993,7 +29002,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ134">
         <v>0.84</v>
@@ -29202,7 +29211,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR135">
         <v>1.36</v>
@@ -29533,7 +29542,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29611,7 +29620,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ137">
         <v>1.37</v>
@@ -30026,7 +30035,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR139">
         <v>1.55</v>
@@ -30151,7 +30160,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30563,7 +30572,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30769,7 +30778,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30975,7 +30984,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31181,7 +31190,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31593,7 +31602,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31674,7 +31683,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ147">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31799,7 +31808,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32005,7 +32014,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32083,7 +32092,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ149">
         <v>0.84</v>
@@ -32211,7 +32220,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32495,7 +32504,7 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ151">
         <v>0.95</v>
@@ -32829,7 +32838,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -33035,7 +33044,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33653,7 +33662,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33940,7 +33949,7 @@
         <v>2</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -35095,7 +35104,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35507,7 +35516,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -35997,7 +36006,7 @@
         <v>0.6</v>
       </c>
       <c r="AP168">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ168">
         <v>0.95</v>
@@ -36125,7 +36134,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36331,7 +36340,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36615,7 +36624,7 @@
         <v>0.7</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ171">
         <v>1.17</v>
@@ -37030,7 +37039,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ173">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -37442,7 +37451,7 @@
         <v>2</v>
       </c>
       <c r="AQ175">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR175">
         <v>1.78</v>
@@ -38391,7 +38400,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -39087,7 +39096,7 @@
         <v>1.73</v>
       </c>
       <c r="AP183">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ183">
         <v>1.89</v>
@@ -39833,7 +39842,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -39914,7 +39923,7 @@
         <v>1</v>
       </c>
       <c r="AQ187">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR187">
         <v>1.38</v>
@@ -40245,7 +40254,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40941,7 +40950,7 @@
         <v>1.64</v>
       </c>
       <c r="AP192">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ192">
         <v>1.39</v>
@@ -41069,7 +41078,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41150,7 +41159,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
         <v>1.72</v>
@@ -41275,7 +41284,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -42923,7 +42932,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43004,7 +43013,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ202">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR202">
         <v>1.75</v>
@@ -43129,7 +43138,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43541,7 +43550,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43622,7 +43631,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR205">
         <v>1.24</v>
@@ -43747,7 +43756,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44031,7 +44040,7 @@
         <v>1.08</v>
       </c>
       <c r="AP207">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ207">
         <v>1</v>
@@ -44365,7 +44374,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44443,7 +44452,7 @@
         <v>1.58</v>
       </c>
       <c r="AP209">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ209">
         <v>1.39</v>
@@ -44571,7 +44580,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -45189,7 +45198,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45601,7 +45610,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45807,7 +45816,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46219,7 +46228,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46631,7 +46640,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -46918,7 +46927,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ221">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR221">
         <v>1.86</v>
@@ -47327,10 +47336,10 @@
         <v>1.46</v>
       </c>
       <c r="AP223">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ223">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR223">
         <v>2.11</v>
@@ -47455,7 +47464,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47533,7 +47542,7 @@
         <v>1</v>
       </c>
       <c r="AP224">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ224">
         <v>1</v>
@@ -47661,7 +47670,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -48073,7 +48082,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48279,7 +48288,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -48772,7 +48781,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR230">
         <v>1.44</v>
@@ -49515,7 +49524,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49721,7 +49730,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -50623,7 +50632,7 @@
         <v>1.43</v>
       </c>
       <c r="AP239">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ239">
         <v>1.37</v>
@@ -50957,7 +50966,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51035,10 +51044,10 @@
         <v>1.36</v>
       </c>
       <c r="AP241">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ241">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR241">
         <v>1.56</v>
@@ -51163,7 +51172,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51862,7 +51871,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ245">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR245">
         <v>1.92</v>
@@ -52271,7 +52280,7 @@
         <v>1.07</v>
       </c>
       <c r="AP247">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ247">
         <v>1.32</v>
@@ -52399,7 +52408,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52477,7 +52486,7 @@
         <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ248">
         <v>1.17</v>
@@ -52605,7 +52614,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -52892,7 +52901,7 @@
         <v>1</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.45</v>
@@ -53017,7 +53026,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53223,7 +53232,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53429,7 +53438,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53841,7 +53850,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54047,7 +54056,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54665,7 +54674,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -54949,7 +54958,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP260">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ260">
         <v>0.95</v>
@@ -55155,7 +55164,7 @@
         <v>1.38</v>
       </c>
       <c r="AP261">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ261">
         <v>1.32</v>
@@ -55283,7 +55292,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -55570,7 +55579,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ263">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR263">
         <v>1.71</v>
@@ -56107,7 +56116,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56394,7 +56403,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ267">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR267">
         <v>1.39</v>
@@ -56519,7 +56528,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56725,7 +56734,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -56806,7 +56815,7 @@
         <v>2</v>
       </c>
       <c r="AQ269">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AR269">
         <v>1.58</v>
@@ -57549,7 +57558,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57961,7 +57970,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58039,7 +58048,7 @@
         <v>1</v>
       </c>
       <c r="AP275">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ275">
         <v>1</v>
@@ -58373,7 +58382,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58785,7 +58794,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -58863,7 +58872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP279">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ279">
         <v>1.39</v>
@@ -59197,7 +59206,7 @@
         <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q281">
         <v>3.75</v>
@@ -59609,7 +59618,7 @@
         <v>86</v>
       </c>
       <c r="P283" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60227,7 +60236,7 @@
         <v>86</v>
       </c>
       <c r="P286" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q286">
         <v>4</v>
@@ -60433,7 +60442,7 @@
         <v>141</v>
       </c>
       <c r="P287" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q287">
         <v>4.5</v>
@@ -61257,7 +61266,7 @@
         <v>109</v>
       </c>
       <c r="P291" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q291">
         <v>2.45</v>
@@ -61463,7 +61472,7 @@
         <v>109</v>
       </c>
       <c r="P292" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q292">
         <v>2.05</v>
@@ -62081,7 +62090,7 @@
         <v>121</v>
       </c>
       <c r="P295" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q295">
         <v>2.94</v>
@@ -62238,6 +62247,418 @@
       </c>
       <c r="BP295">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7856913</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45782.47916666666</v>
+      </c>
+      <c r="F296">
+        <v>7</v>
+      </c>
+      <c r="G296" t="s">
+        <v>73</v>
+      </c>
+      <c r="H296" t="s">
+        <v>77</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>2</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>256</v>
+      </c>
+      <c r="P296" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q296">
+        <v>3</v>
+      </c>
+      <c r="R296">
+        <v>1.91</v>
+      </c>
+      <c r="S296">
+        <v>4</v>
+      </c>
+      <c r="T296">
+        <v>1.52</v>
+      </c>
+      <c r="U296">
+        <v>2.43</v>
+      </c>
+      <c r="V296">
+        <v>3.5</v>
+      </c>
+      <c r="W296">
+        <v>1.24</v>
+      </c>
+      <c r="X296">
+        <v>8.9</v>
+      </c>
+      <c r="Y296">
+        <v>1.05</v>
+      </c>
+      <c r="Z296">
+        <v>2.34</v>
+      </c>
+      <c r="AA296">
+        <v>3.03</v>
+      </c>
+      <c r="AB296">
+        <v>3.19</v>
+      </c>
+      <c r="AC296">
+        <v>1.07</v>
+      </c>
+      <c r="AD296">
+        <v>7</v>
+      </c>
+      <c r="AE296">
+        <v>1.5</v>
+      </c>
+      <c r="AF296">
+        <v>2.4</v>
+      </c>
+      <c r="AG296">
+        <v>2.37</v>
+      </c>
+      <c r="AH296">
+        <v>1.48</v>
+      </c>
+      <c r="AI296">
+        <v>2.05</v>
+      </c>
+      <c r="AJ296">
+        <v>1.75</v>
+      </c>
+      <c r="AK296">
+        <v>1.33</v>
+      </c>
+      <c r="AL296">
+        <v>1.36</v>
+      </c>
+      <c r="AM296">
+        <v>1.57</v>
+      </c>
+      <c r="AN296">
+        <v>1.22</v>
+      </c>
+      <c r="AO296">
+        <v>1</v>
+      </c>
+      <c r="AP296">
+        <v>1.32</v>
+      </c>
+      <c r="AQ296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR296">
+        <v>1.53</v>
+      </c>
+      <c r="AS296">
+        <v>1.34</v>
+      </c>
+      <c r="AT296">
+        <v>2.87</v>
+      </c>
+      <c r="AU296">
+        <v>4</v>
+      </c>
+      <c r="AV296">
+        <v>4</v>
+      </c>
+      <c r="AW296">
+        <v>12</v>
+      </c>
+      <c r="AX296">
+        <v>7</v>
+      </c>
+      <c r="AY296">
+        <v>17</v>
+      </c>
+      <c r="AZ296">
+        <v>13</v>
+      </c>
+      <c r="BA296">
+        <v>7</v>
+      </c>
+      <c r="BB296">
+        <v>4</v>
+      </c>
+      <c r="BC296">
+        <v>11</v>
+      </c>
+      <c r="BD296">
+        <v>1.9</v>
+      </c>
+      <c r="BE296">
+        <v>6.4</v>
+      </c>
+      <c r="BF296">
+        <v>2.1</v>
+      </c>
+      <c r="BG296">
+        <v>1.38</v>
+      </c>
+      <c r="BH296">
+        <v>2.7</v>
+      </c>
+      <c r="BI296">
+        <v>1.65</v>
+      </c>
+      <c r="BJ296">
+        <v>2.05</v>
+      </c>
+      <c r="BK296">
+        <v>2.05</v>
+      </c>
+      <c r="BL296">
+        <v>1.65</v>
+      </c>
+      <c r="BM296">
+        <v>2.63</v>
+      </c>
+      <c r="BN296">
+        <v>1.4</v>
+      </c>
+      <c r="BO296">
+        <v>3.4</v>
+      </c>
+      <c r="BP296">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7856909</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45782.60416666666</v>
+      </c>
+      <c r="F297">
+        <v>7</v>
+      </c>
+      <c r="G297" t="s">
+        <v>74</v>
+      </c>
+      <c r="H297" t="s">
+        <v>83</v>
+      </c>
+      <c r="I297">
+        <v>3</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>3</v>
+      </c>
+      <c r="L297">
+        <v>3</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>4</v>
+      </c>
+      <c r="O297" t="s">
+        <v>257</v>
+      </c>
+      <c r="P297" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q297">
+        <v>1.94</v>
+      </c>
+      <c r="R297">
+        <v>2.21</v>
+      </c>
+      <c r="S297">
+        <v>7.3</v>
+      </c>
+      <c r="T297">
+        <v>1.37</v>
+      </c>
+      <c r="U297">
+        <v>2.85</v>
+      </c>
+      <c r="V297">
+        <v>2.89</v>
+      </c>
+      <c r="W297">
+        <v>1.36</v>
+      </c>
+      <c r="X297">
+        <v>7.8</v>
+      </c>
+      <c r="Y297">
+        <v>1.02</v>
+      </c>
+      <c r="Z297">
+        <v>1.5</v>
+      </c>
+      <c r="AA297">
+        <v>4</v>
+      </c>
+      <c r="AB297">
+        <v>6.5</v>
+      </c>
+      <c r="AC297">
+        <v>1.01</v>
+      </c>
+      <c r="AD297">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE297">
+        <v>1.25</v>
+      </c>
+      <c r="AF297">
+        <v>3.28</v>
+      </c>
+      <c r="AG297">
+        <v>1.98</v>
+      </c>
+      <c r="AH297">
+        <v>1.77</v>
+      </c>
+      <c r="AI297">
+        <v>2.14</v>
+      </c>
+      <c r="AJ297">
+        <v>1.63</v>
+      </c>
+      <c r="AK297">
+        <v>1.07</v>
+      </c>
+      <c r="AL297">
+        <v>1.2</v>
+      </c>
+      <c r="AM297">
+        <v>2.78</v>
+      </c>
+      <c r="AN297">
+        <v>2</v>
+      </c>
+      <c r="AO297">
+        <v>1.39</v>
+      </c>
+      <c r="AP297">
+        <v>2.05</v>
+      </c>
+      <c r="AQ297">
+        <v>1.32</v>
+      </c>
+      <c r="AR297">
+        <v>1.98</v>
+      </c>
+      <c r="AS297">
+        <v>1.25</v>
+      </c>
+      <c r="AT297">
+        <v>3.23</v>
+      </c>
+      <c r="AU297">
+        <v>6</v>
+      </c>
+      <c r="AV297">
+        <v>2</v>
+      </c>
+      <c r="AW297">
+        <v>4</v>
+      </c>
+      <c r="AX297">
+        <v>8</v>
+      </c>
+      <c r="AY297">
+        <v>12</v>
+      </c>
+      <c r="AZ297">
+        <v>13</v>
+      </c>
+      <c r="BA297">
+        <v>2</v>
+      </c>
+      <c r="BB297">
+        <v>7</v>
+      </c>
+      <c r="BC297">
+        <v>9</v>
+      </c>
+      <c r="BD297">
+        <v>1.38</v>
+      </c>
+      <c r="BE297">
+        <v>7</v>
+      </c>
+      <c r="BF297">
+        <v>3.4</v>
+      </c>
+      <c r="BG297">
+        <v>1.34</v>
+      </c>
+      <c r="BH297">
+        <v>2.9</v>
+      </c>
+      <c r="BI297">
+        <v>1.57</v>
+      </c>
+      <c r="BJ297">
+        <v>2.2</v>
+      </c>
+      <c r="BK297">
+        <v>1.93</v>
+      </c>
+      <c r="BL297">
+        <v>1.74</v>
+      </c>
+      <c r="BM297">
+        <v>2.43</v>
+      </c>
+      <c r="BN297">
+        <v>1.47</v>
+      </c>
+      <c r="BO297">
+        <v>3.15</v>
+      </c>
+      <c r="BP297">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="367">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1113,6 +1113,9 @@
   <si>
     <t>['56']</t>
   </si>
+  <si>
+    <t>['1', '54', '67']</t>
+  </si>
 </sst>
 </file>
 
@@ -1473,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1816,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ2">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -4694,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -5109,7 +5112,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ18">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -8814,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ36">
         <v>1.17</v>
@@ -9229,7 +9232,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ38">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -11701,7 +11704,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ50">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR50">
         <v>1.71</v>
@@ -12522,7 +12525,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ54">
         <v>1.32</v>
@@ -14791,7 +14794,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14994,7 +14997,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ66">
         <v>1.32</v>
@@ -18908,7 +18911,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ85">
         <v>1.06</v>
@@ -19323,7 +19326,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -21174,7 +21177,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ96">
         <v>1.17</v>
@@ -22413,7 +22416,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -23649,7 +23652,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ108">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -24470,7 +24473,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ112">
         <v>1.39</v>
@@ -27560,7 +27563,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ127">
         <v>0.9399999999999999</v>
@@ -29005,7 +29008,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ134">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR134">
         <v>2.06</v>
@@ -30444,7 +30447,7 @@
         <v>0.63</v>
       </c>
       <c r="AP141">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ141">
         <v>0.79</v>
@@ -31680,7 +31683,7 @@
         <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ147">
         <v>1.32</v>
@@ -32095,7 +32098,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ149">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -35182,7 +35185,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ164">
         <v>1.37</v>
@@ -35391,7 +35394,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ165">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -38066,10 +38069,10 @@
         <v>1.18</v>
       </c>
       <c r="AP178">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ178">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR178">
         <v>1.45</v>
@@ -41362,7 +41365,7 @@
         <v>0.5</v>
       </c>
       <c r="AP194">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ194">
         <v>0.95</v>
@@ -41571,7 +41574,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ195">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR195">
         <v>1.63</v>
@@ -45688,7 +45691,7 @@
         <v>1.77</v>
       </c>
       <c r="AP215">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ215">
         <v>1.89</v>
@@ -45897,7 +45900,7 @@
         <v>2</v>
       </c>
       <c r="AQ216">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR216">
         <v>1.57</v>
@@ -49190,7 +49193,7 @@
         <v>1.29</v>
       </c>
       <c r="AP232">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ232">
         <v>1.06</v>
@@ -50841,7 +50844,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ240">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR240">
         <v>1.73</v>
@@ -52077,7 +52080,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ246">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR246">
         <v>1.26</v>
@@ -54134,7 +54137,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ256">
         <v>1.32</v>
@@ -55785,7 +55788,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ264">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR264">
         <v>1.7</v>
@@ -56194,7 +56197,7 @@
         <v>0.65</v>
       </c>
       <c r="AP266">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ266">
         <v>0.79</v>
@@ -57845,7 +57848,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ274">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR274">
         <v>1.49</v>
@@ -60314,7 +60317,7 @@
         <v>0.83</v>
       </c>
       <c r="AP286">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ286">
         <v>0.95</v>
@@ -61553,7 +61556,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ292">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="AR292">
         <v>1.83</v>
@@ -62659,6 +62662,212 @@
       </c>
       <c r="BP297">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7856920</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45786.5</v>
+      </c>
+      <c r="F298">
+        <v>8</v>
+      </c>
+      <c r="G298" t="s">
+        <v>84</v>
+      </c>
+      <c r="H298" t="s">
+        <v>79</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>3</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>86</v>
+      </c>
+      <c r="P298" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q298">
+        <v>6.25</v>
+      </c>
+      <c r="R298">
+        <v>2.2</v>
+      </c>
+      <c r="S298">
+        <v>1.98</v>
+      </c>
+      <c r="T298">
+        <v>1.39</v>
+      </c>
+      <c r="U298">
+        <v>2.75</v>
+      </c>
+      <c r="V298">
+        <v>2.8</v>
+      </c>
+      <c r="W298">
+        <v>1.37</v>
+      </c>
+      <c r="X298">
+        <v>7.25</v>
+      </c>
+      <c r="Y298">
+        <v>1.08</v>
+      </c>
+      <c r="Z298">
+        <v>4.33</v>
+      </c>
+      <c r="AA298">
+        <v>3.25</v>
+      </c>
+      <c r="AB298">
+        <v>1.72</v>
+      </c>
+      <c r="AC298">
+        <v>1.05</v>
+      </c>
+      <c r="AD298">
+        <v>8.5</v>
+      </c>
+      <c r="AE298">
+        <v>1.3</v>
+      </c>
+      <c r="AF298">
+        <v>3.3</v>
+      </c>
+      <c r="AG298">
+        <v>1.94</v>
+      </c>
+      <c r="AH298">
+        <v>1.76</v>
+      </c>
+      <c r="AI298">
+        <v>2.15</v>
+      </c>
+      <c r="AJ298">
+        <v>1.6</v>
+      </c>
+      <c r="AK298">
+        <v>2.65</v>
+      </c>
+      <c r="AL298">
+        <v>1.21</v>
+      </c>
+      <c r="AM298">
+        <v>1.1</v>
+      </c>
+      <c r="AN298">
+        <v>0.83</v>
+      </c>
+      <c r="AO298">
+        <v>0.84</v>
+      </c>
+      <c r="AP298">
+        <v>0.79</v>
+      </c>
+      <c r="AQ298">
+        <v>0.95</v>
+      </c>
+      <c r="AR298">
+        <v>1.46</v>
+      </c>
+      <c r="AS298">
+        <v>1.25</v>
+      </c>
+      <c r="AT298">
+        <v>2.71</v>
+      </c>
+      <c r="AU298">
+        <v>0</v>
+      </c>
+      <c r="AV298">
+        <v>7</v>
+      </c>
+      <c r="AW298">
+        <v>4</v>
+      </c>
+      <c r="AX298">
+        <v>10</v>
+      </c>
+      <c r="AY298">
+        <v>5</v>
+      </c>
+      <c r="AZ298">
+        <v>21</v>
+      </c>
+      <c r="BA298">
+        <v>2</v>
+      </c>
+      <c r="BB298">
+        <v>7</v>
+      </c>
+      <c r="BC298">
+        <v>9</v>
+      </c>
+      <c r="BD298">
+        <v>2.9</v>
+      </c>
+      <c r="BE298">
+        <v>7</v>
+      </c>
+      <c r="BF298">
+        <v>1.48</v>
+      </c>
+      <c r="BG298">
+        <v>1.3</v>
+      </c>
+      <c r="BH298">
+        <v>3.05</v>
+      </c>
+      <c r="BI298">
+        <v>1.52</v>
+      </c>
+      <c r="BJ298">
+        <v>2.3</v>
+      </c>
+      <c r="BK298">
+        <v>1.83</v>
+      </c>
+      <c r="BL298">
+        <v>1.83</v>
+      </c>
+      <c r="BM298">
+        <v>2.28</v>
+      </c>
+      <c r="BN298">
+        <v>1.52</v>
+      </c>
+      <c r="BO298">
+        <v>2.95</v>
+      </c>
+      <c r="BP298">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,9 @@
     <t>['23', '26', '36']</t>
   </si>
   <si>
+    <t>['71', '81']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -1476,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP298"/>
+  <dimension ref="A1:BP299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,7 +1738,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2225,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
         <v>0.79</v>
@@ -2765,7 +2768,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2971,7 +2974,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3464,7 +3467,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3589,7 +3592,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3795,7 +3798,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -4001,7 +4004,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4207,7 +4210,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4413,7 +4416,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4619,7 +4622,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5237,7 +5240,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5443,7 +5446,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5727,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>1.32</v>
@@ -5855,7 +5858,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5936,7 +5939,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ22">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -6061,7 +6064,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7503,7 +7506,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7709,7 +7712,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7915,7 +7918,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8121,7 +8124,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8408,7 +8411,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ34">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8945,7 +8948,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9023,7 +9026,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>1.37</v>
@@ -9563,7 +9566,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9769,7 +9772,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -11005,7 +11008,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11417,7 +11420,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11701,7 +11704,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
         <v>0.95</v>
@@ -12116,7 +12119,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ52">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12447,7 +12450,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13065,7 +13068,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13477,7 +13480,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13683,7 +13686,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -14095,7 +14098,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14585,10 +14588,10 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -15125,7 +15128,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15537,7 +15540,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15949,7 +15952,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16155,7 +16158,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16773,7 +16776,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17185,7 +17188,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17597,7 +17600,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -18009,7 +18012,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18090,7 +18093,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18421,7 +18424,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -19039,7 +19042,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19117,7 +19120,7 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86">
         <v>1.89</v>
@@ -19863,7 +19866,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20069,7 +20072,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20275,7 +20278,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20481,7 +20484,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20893,7 +20896,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21589,7 +21592,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
         <v>1.06</v>
@@ -22004,7 +22007,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -22129,7 +22132,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22747,7 +22750,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23365,7 +23368,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23571,7 +23574,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23983,7 +23986,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24189,7 +24192,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24601,7 +24604,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24679,7 +24682,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -25013,7 +25016,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25712,7 +25715,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR118">
         <v>1.37</v>
@@ -26124,7 +26127,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ120">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26249,7 +26252,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26455,7 +26458,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -27279,7 +27282,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -28181,7 +28184,7 @@
         <v>0.63</v>
       </c>
       <c r="AP130">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ130">
         <v>0.58</v>
@@ -28721,7 +28724,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29545,7 +29548,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30163,7 +30166,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30575,7 +30578,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30781,7 +30784,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30987,7 +30990,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31193,7 +31196,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31477,7 +31480,7 @@
         <v>1.22</v>
       </c>
       <c r="AP146">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ146">
         <v>1.17</v>
@@ -31605,7 +31608,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31811,7 +31814,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32017,7 +32020,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32223,7 +32226,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32510,7 +32513,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ151">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR151">
         <v>2.01</v>
@@ -32841,7 +32844,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -33047,7 +33050,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33665,7 +33668,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -34773,7 +34776,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ162">
         <v>1.32</v>
@@ -35107,7 +35110,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35519,7 +35522,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -36012,7 +36015,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ168">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR168">
         <v>1.63</v>
@@ -36137,7 +36140,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36343,7 +36346,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -38403,7 +38406,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -38893,7 +38896,7 @@
         <v>1.18</v>
       </c>
       <c r="AP182">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ182">
         <v>1.32</v>
@@ -39308,7 +39311,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ184">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR184">
         <v>1.32</v>
@@ -39845,7 +39848,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -40257,7 +40260,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -41081,7 +41084,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41287,7 +41290,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -41368,7 +41371,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ194">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR194">
         <v>1.47</v>
@@ -42601,7 +42604,7 @@
         <v>0.83</v>
       </c>
       <c r="AP200">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ200">
         <v>1.06</v>
@@ -42935,7 +42938,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43141,7 +43144,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43553,7 +43556,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43759,7 +43762,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44377,7 +44380,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44583,7 +44586,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44661,7 +44664,7 @@
         <v>0.85</v>
       </c>
       <c r="AP210">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ210">
         <v>1.17</v>
@@ -45201,7 +45204,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45613,7 +45616,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45819,7 +45822,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46106,7 +46109,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ217">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR217">
         <v>1.78</v>
@@ -46231,7 +46234,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46643,7 +46646,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -47467,7 +47470,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47673,7 +47676,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -48085,7 +48088,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48163,7 +48166,7 @@
         <v>1.64</v>
       </c>
       <c r="AP227">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ227">
         <v>1.39</v>
@@ -48291,7 +48294,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -48372,7 +48375,7 @@
         <v>2</v>
       </c>
       <c r="AQ228">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR228">
         <v>1.64</v>
@@ -49527,7 +49530,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49733,7 +49736,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -50969,7 +50972,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51175,7 +51178,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51256,7 +51259,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ242">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR242">
         <v>1.36</v>
@@ -52411,7 +52414,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52617,7 +52620,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -52695,7 +52698,7 @@
         <v>0.33</v>
       </c>
       <c r="AP249">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ249">
         <v>0.58</v>
@@ -53029,7 +53032,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53107,7 +53110,7 @@
         <v>0.93</v>
       </c>
       <c r="AP251">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ251">
         <v>1.17</v>
@@ -53235,7 +53238,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53441,7 +53444,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53853,7 +53856,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54059,7 +54062,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54677,7 +54680,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -54964,7 +54967,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ260">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR260">
         <v>1.55</v>
@@ -55295,7 +55298,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -56119,7 +56122,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56531,7 +56534,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56609,7 +56612,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP268">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ268">
         <v>1.06</v>
@@ -56737,7 +56740,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -57561,7 +57564,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57973,7 +57976,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58385,7 +58388,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58672,7 +58675,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ278">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR278">
         <v>1.46</v>
@@ -58797,7 +58800,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59209,7 +59212,7 @@
         <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q281">
         <v>3.75</v>
@@ -59621,7 +59624,7 @@
         <v>86</v>
       </c>
       <c r="P283" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -59699,7 +59702,7 @@
         <v>1.22</v>
       </c>
       <c r="AP283">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AQ283">
         <v>1.32</v>
@@ -60239,7 +60242,7 @@
         <v>86</v>
       </c>
       <c r="P286" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q286">
         <v>4</v>
@@ -60320,7 +60323,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ286">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="AR286">
         <v>1.47</v>
@@ -60445,7 +60448,7 @@
         <v>141</v>
       </c>
       <c r="P287" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q287">
         <v>4.5</v>
@@ -61269,7 +61272,7 @@
         <v>109</v>
       </c>
       <c r="P291" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q291">
         <v>2.45</v>
@@ -61475,7 +61478,7 @@
         <v>109</v>
       </c>
       <c r="P292" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q292">
         <v>2.05</v>
@@ -62093,7 +62096,7 @@
         <v>121</v>
       </c>
       <c r="P295" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q295">
         <v>2.94</v>
@@ -62505,7 +62508,7 @@
         <v>257</v>
       </c>
       <c r="P297" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q297">
         <v>1.94</v>
@@ -62711,7 +62714,7 @@
         <v>86</v>
       </c>
       <c r="P298" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q298">
         <v>6.25</v>
@@ -62867,6 +62870,212 @@
         <v>2.95</v>
       </c>
       <c r="BP298">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="299" spans="1:68">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>7856921</v>
+      </c>
+      <c r="C299" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" t="s">
+        <v>69</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45786.625</v>
+      </c>
+      <c r="F299">
+        <v>8</v>
+      </c>
+      <c r="G299" t="s">
+        <v>72</v>
+      </c>
+      <c r="H299" t="s">
+        <v>76</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>2</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>2</v>
+      </c>
+      <c r="O299" t="s">
+        <v>258</v>
+      </c>
+      <c r="P299" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q299">
+        <v>2.9</v>
+      </c>
+      <c r="R299">
+        <v>2</v>
+      </c>
+      <c r="S299">
+        <v>3.5</v>
+      </c>
+      <c r="T299">
+        <v>1.43</v>
+      </c>
+      <c r="U299">
+        <v>2.6</v>
+      </c>
+      <c r="V299">
+        <v>3</v>
+      </c>
+      <c r="W299">
+        <v>1.34</v>
+      </c>
+      <c r="X299">
+        <v>8</v>
+      </c>
+      <c r="Y299">
+        <v>1.07</v>
+      </c>
+      <c r="Z299">
+        <v>2</v>
+      </c>
+      <c r="AA299">
+        <v>3.04</v>
+      </c>
+      <c r="AB299">
+        <v>3.45</v>
+      </c>
+      <c r="AC299">
+        <v>1.06</v>
+      </c>
+      <c r="AD299">
+        <v>8</v>
+      </c>
+      <c r="AE299">
+        <v>1.36</v>
+      </c>
+      <c r="AF299">
+        <v>3</v>
+      </c>
+      <c r="AG299">
+        <v>1.96</v>
+      </c>
+      <c r="AH299">
+        <v>1.74</v>
+      </c>
+      <c r="AI299">
+        <v>1.85</v>
+      </c>
+      <c r="AJ299">
+        <v>1.83</v>
+      </c>
+      <c r="AK299">
+        <v>1.37</v>
+      </c>
+      <c r="AL299">
+        <v>1.31</v>
+      </c>
+      <c r="AM299">
+        <v>1.58</v>
+      </c>
+      <c r="AN299">
+        <v>1.32</v>
+      </c>
+      <c r="AO299">
+        <v>0.95</v>
+      </c>
+      <c r="AP299">
+        <v>1.4</v>
+      </c>
+      <c r="AQ299">
+        <v>0.9</v>
+      </c>
+      <c r="AR299">
+        <v>1.47</v>
+      </c>
+      <c r="AS299">
+        <v>1.4</v>
+      </c>
+      <c r="AT299">
+        <v>2.87</v>
+      </c>
+      <c r="AU299">
+        <v>6</v>
+      </c>
+      <c r="AV299">
+        <v>0</v>
+      </c>
+      <c r="AW299">
+        <v>4</v>
+      </c>
+      <c r="AX299">
+        <v>8</v>
+      </c>
+      <c r="AY299">
+        <v>11</v>
+      </c>
+      <c r="AZ299">
+        <v>11</v>
+      </c>
+      <c r="BA299">
+        <v>6</v>
+      </c>
+      <c r="BB299">
+        <v>3</v>
+      </c>
+      <c r="BC299">
+        <v>9</v>
+      </c>
+      <c r="BD299">
+        <v>1.75</v>
+      </c>
+      <c r="BE299">
+        <v>6.75</v>
+      </c>
+      <c r="BF299">
+        <v>2.3</v>
+      </c>
+      <c r="BG299">
+        <v>1.29</v>
+      </c>
+      <c r="BH299">
+        <v>3.15</v>
+      </c>
+      <c r="BI299">
+        <v>1.5</v>
+      </c>
+      <c r="BJ299">
+        <v>2.32</v>
+      </c>
+      <c r="BK299">
+        <v>1.84</v>
+      </c>
+      <c r="BL299">
+        <v>1.82</v>
+      </c>
+      <c r="BM299">
+        <v>2.32</v>
+      </c>
+      <c r="BN299">
+        <v>1.52</v>
+      </c>
+      <c r="BO299">
+        <v>2.95</v>
+      </c>
+      <c r="BP299">
         <v>1.33</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,9 @@
     <t>['71', '81']</t>
   </si>
   <si>
+    <t>['50', '67']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -1118,6 +1121,12 @@
   </si>
   <si>
     <t>['1', '54', '67']</t>
+  </si>
+  <si>
+    <t>['26', '50']</t>
+  </si>
+  <si>
+    <t>['53', '58']</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP299"/>
+  <dimension ref="A1:BP302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,7 +1747,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1816,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>0.95</v>
@@ -2022,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1.37</v>
@@ -2231,7 +2240,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2768,7 +2777,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2974,7 +2983,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3592,7 +3601,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3798,7 +3807,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3876,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ12">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4004,7 +4013,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4085,7 +4094,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ13">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4210,7 +4219,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4416,7 +4425,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4622,7 +4631,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5112,7 +5121,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>0.95</v>
@@ -5240,7 +5249,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5446,7 +5455,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5858,7 +5867,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5936,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
         <v>0.9</v>
@@ -6064,7 +6073,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7172,10 +7181,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7378,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7506,7 +7515,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7712,7 +7721,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7793,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7918,7 +7927,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8124,7 +8133,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8408,7 +8417,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0.9</v>
@@ -8948,7 +8957,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9566,7 +9575,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9772,7 +9781,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10056,7 +10065,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ42">
         <v>0.58</v>
@@ -10265,7 +10274,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ43">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10471,7 +10480,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ44">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -11008,7 +11017,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11086,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
@@ -11420,7 +11429,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -12322,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
         <v>1.89</v>
@@ -12450,7 +12459,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13068,7 +13077,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13146,10 +13155,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13352,7 +13361,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13480,7 +13489,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13686,7 +13695,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13764,10 +13773,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -13973,7 +13982,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ61">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR61">
         <v>2.06</v>
@@ -14098,7 +14107,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -15128,7 +15137,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15540,7 +15549,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15952,7 +15961,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16158,7 +16167,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16648,10 +16657,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16776,7 +16785,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17060,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17188,7 +17197,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17475,7 +17484,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ78">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17600,7 +17609,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -18012,7 +18021,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18424,7 +18433,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18505,7 +18514,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -19042,7 +19051,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19326,7 +19335,7 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ87">
         <v>0.95</v>
@@ -19738,7 +19747,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>1.32</v>
@@ -19866,7 +19875,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20072,7 +20081,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20153,7 +20162,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ91">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -20278,7 +20287,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20484,7 +20493,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20562,7 +20571,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20896,7 +20905,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21595,7 +21604,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21801,7 +21810,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ99">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -22004,7 +22013,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ100">
         <v>0.9</v>
@@ -22132,7 +22141,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22750,7 +22759,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23243,7 +23252,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ106">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23368,7 +23377,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23446,7 +23455,7 @@
         <v>0.71</v>
       </c>
       <c r="AP107">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
         <v>1.32</v>
@@ -23574,7 +23583,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23986,7 +23995,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24192,7 +24201,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24270,7 +24279,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ111">
         <v>1.37</v>
@@ -24479,7 +24488,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ112">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24604,7 +24613,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24891,7 +24900,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ114">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR114">
         <v>1.16</v>
@@ -25016,7 +25025,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25506,7 +25515,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ117">
         <v>1.89</v>
@@ -26252,7 +26261,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26333,7 +26342,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26458,7 +26467,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26742,7 +26751,7 @@
         <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ123">
         <v>1.17</v>
@@ -26951,7 +26960,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ124">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR124">
         <v>1.43</v>
@@ -27282,7 +27291,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27775,7 +27784,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -28390,7 +28399,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131">
         <v>1.32</v>
@@ -28596,7 +28605,7 @@
         <v>1.78</v>
       </c>
       <c r="AP132">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ132">
         <v>1.32</v>
@@ -28724,7 +28733,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29423,7 +29432,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ136">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29548,7 +29557,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30166,7 +30175,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30453,7 +30462,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ141">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30578,7 +30587,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30784,7 +30793,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30862,10 +30871,10 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ143">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -30990,7 +30999,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31071,7 +31080,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR144">
         <v>1.39</v>
@@ -31196,7 +31205,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31608,7 +31617,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31814,7 +31823,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32020,7 +32029,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32226,7 +32235,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32716,7 +32725,7 @@
         <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ152">
         <v>1.32</v>
@@ -32844,7 +32853,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32925,7 +32934,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR153">
         <v>1.53</v>
@@ -33050,7 +33059,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33337,7 +33346,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
         <v>1.16</v>
@@ -33543,7 +33552,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ156">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR156">
         <v>1.39</v>
@@ -33668,7 +33677,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33746,7 +33755,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -34161,7 +34170,7 @@
         <v>1</v>
       </c>
       <c r="AQ159">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR159">
         <v>1.46</v>
@@ -34364,7 +34373,7 @@
         <v>1.67</v>
       </c>
       <c r="AP160">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ160">
         <v>1.89</v>
@@ -34982,7 +34991,7 @@
         <v>0.9</v>
       </c>
       <c r="AP163">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -35110,7 +35119,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35522,7 +35531,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -36140,7 +36149,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36346,7 +36355,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -37251,7 +37260,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ174">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR174">
         <v>1.61</v>
@@ -37454,7 +37463,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ175">
         <v>1.32</v>
@@ -37660,10 +37669,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ176">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR176">
         <v>1.54</v>
@@ -37869,7 +37878,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ177">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR177">
         <v>1.54</v>
@@ -38406,7 +38415,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -39720,10 +39729,10 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ186">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR186">
         <v>1.23</v>
@@ -39848,7 +39857,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -40260,7 +40269,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40750,10 +40759,10 @@
         <v>0.45</v>
       </c>
       <c r="AP191">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ191">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR191">
         <v>1.78</v>
@@ -40959,7 +40968,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ192">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR192">
         <v>2.13</v>
@@ -41084,7 +41093,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41162,7 +41171,7 @@
         <v>1.27</v>
       </c>
       <c r="AP193">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
         <v>0.9399999999999999</v>
@@ -41290,7 +41299,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -42192,7 +42201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ198">
         <v>1.32</v>
@@ -42401,7 +42410,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ199">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR199">
         <v>1.46</v>
@@ -42938,7 +42947,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43144,7 +43153,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43556,7 +43565,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43634,7 +43643,7 @@
         <v>1.17</v>
       </c>
       <c r="AP205">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ205">
         <v>0.9399999999999999</v>
@@ -43762,7 +43771,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43843,7 +43852,7 @@
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR206">
         <v>1.62</v>
@@ -44252,7 +44261,7 @@
         <v>0.42</v>
       </c>
       <c r="AP208">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ208">
         <v>0.58</v>
@@ -44380,7 +44389,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44461,7 +44470,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ209">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR209">
         <v>1.6</v>
@@ -44586,7 +44595,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44870,7 +44879,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ211">
         <v>1.32</v>
@@ -45079,7 +45088,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ212">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR212">
         <v>1.27</v>
@@ -45204,7 +45213,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45491,7 +45500,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ214">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR214">
         <v>1.44</v>
@@ -45616,7 +45625,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45822,7 +45831,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46234,7 +46243,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46312,7 +46321,7 @@
         <v>0.38</v>
       </c>
       <c r="AP218">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ218">
         <v>0.58</v>
@@ -46646,7 +46655,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -47139,7 +47148,7 @@
         <v>1</v>
       </c>
       <c r="AQ222">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR222">
         <v>1.35</v>
@@ -47470,7 +47479,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47676,7 +47685,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -47754,7 +47763,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ225">
         <v>1.17</v>
@@ -48088,7 +48097,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48169,7 +48178,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ227">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR227">
         <v>1.44</v>
@@ -48294,7 +48303,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -48578,7 +48587,7 @@
         <v>0.93</v>
       </c>
       <c r="AP229">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ229">
         <v>1.06</v>
@@ -49199,7 +49208,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ232">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR232">
         <v>1.4</v>
@@ -49530,7 +49539,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49611,7 +49620,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ234">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR234">
         <v>1.36</v>
@@ -49736,7 +49745,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -49814,7 +49823,7 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ235">
         <v>1.32</v>
@@ -50226,7 +50235,7 @@
         <v>1.14</v>
       </c>
       <c r="AP237">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ237">
         <v>1.17</v>
@@ -50972,7 +50981,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51178,7 +51187,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51462,7 +51471,7 @@
         <v>1.47</v>
       </c>
       <c r="AP243">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ243">
         <v>1.32</v>
@@ -51668,10 +51677,10 @@
         <v>0.67</v>
       </c>
       <c r="AP244">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ244">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR244">
         <v>1.69</v>
@@ -52080,7 +52089,7 @@
         <v>0.87</v>
       </c>
       <c r="AP246">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ246">
         <v>0.95</v>
@@ -52414,7 +52423,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52620,7 +52629,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -53032,7 +53041,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53238,7 +53247,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53444,7 +53453,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53731,7 +53740,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ254">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR254">
         <v>1.44</v>
@@ -53856,7 +53865,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54062,7 +54071,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54349,7 +54358,7 @@
         <v>2</v>
       </c>
       <c r="AQ257">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR257">
         <v>1.65</v>
@@ -54555,7 +54564,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ258">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR258">
         <v>1.48</v>
@@ -54680,7 +54689,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -55298,7 +55307,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -55376,7 +55385,7 @@
         <v>0.5</v>
       </c>
       <c r="AP262">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ262">
         <v>0.58</v>
@@ -55788,7 +55797,7 @@
         <v>0.88</v>
       </c>
       <c r="AP264">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ264">
         <v>0.95</v>
@@ -56122,7 +56131,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56203,7 +56212,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ266">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR266">
         <v>1.44</v>
@@ -56406,7 +56415,7 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ267">
         <v>0.9399999999999999</v>
@@ -56534,7 +56543,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56740,7 +56749,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -57027,7 +57036,7 @@
         <v>1</v>
       </c>
       <c r="AQ270">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR270">
         <v>1.45</v>
@@ -57230,7 +57239,7 @@
         <v>1.88</v>
       </c>
       <c r="AP271">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ271">
         <v>1.89</v>
@@ -57564,7 +57573,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57976,7 +57985,7 @@
         <v>188</v>
       </c>
       <c r="P275" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58260,7 +58269,7 @@
         <v>1.06</v>
       </c>
       <c r="AP276">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ276">
         <v>1.17</v>
@@ -58388,7 +58397,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58800,7 +58809,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -58881,7 +58890,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ279">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR279">
         <v>2.05</v>
@@ -59212,7 +59221,7 @@
         <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q281">
         <v>3.75</v>
@@ -59499,7 +59508,7 @@
         <v>1</v>
       </c>
       <c r="AQ282">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AR282">
         <v>1.44</v>
@@ -59624,7 +59633,7 @@
         <v>86</v>
       </c>
       <c r="P283" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -59908,10 +59917,10 @@
         <v>1.12</v>
       </c>
       <c r="AP284">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ284">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR284">
         <v>1.47</v>
@@ -60242,7 +60251,7 @@
         <v>86</v>
       </c>
       <c r="P286" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q286">
         <v>4</v>
@@ -60448,7 +60457,7 @@
         <v>141</v>
       </c>
       <c r="P287" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q287">
         <v>4.5</v>
@@ -60941,7 +60950,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ289">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AR289">
         <v>1.33</v>
@@ -61272,7 +61281,7 @@
         <v>109</v>
       </c>
       <c r="P291" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q291">
         <v>2.45</v>
@@ -61350,7 +61359,7 @@
         <v>1.06</v>
       </c>
       <c r="AP291">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ291">
         <v>1.17</v>
@@ -61478,7 +61487,7 @@
         <v>109</v>
       </c>
       <c r="P292" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q292">
         <v>2.05</v>
@@ -61762,7 +61771,7 @@
         <v>0.61</v>
       </c>
       <c r="AP293">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AQ293">
         <v>0.58</v>
@@ -62096,7 +62105,7 @@
         <v>121</v>
       </c>
       <c r="P295" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q295">
         <v>2.94</v>
@@ -62508,7 +62517,7 @@
         <v>257</v>
       </c>
       <c r="P297" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q297">
         <v>1.94</v>
@@ -62714,7 +62723,7 @@
         <v>86</v>
       </c>
       <c r="P298" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q298">
         <v>6.25</v>
@@ -63077,6 +63086,624 @@
       </c>
       <c r="BP299">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="300" spans="1:68">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>7856924</v>
+      </c>
+      <c r="C300" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" t="s">
+        <v>69</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45787.375</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" t="s">
+        <v>73</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300">
+        <v>2</v>
+      </c>
+      <c r="N300">
+        <v>3</v>
+      </c>
+      <c r="O300" t="s">
+        <v>228</v>
+      </c>
+      <c r="P300" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q300">
+        <v>2.45</v>
+      </c>
+      <c r="R300">
+        <v>2.15</v>
+      </c>
+      <c r="S300">
+        <v>4</v>
+      </c>
+      <c r="T300">
+        <v>1.36</v>
+      </c>
+      <c r="U300">
+        <v>2.9</v>
+      </c>
+      <c r="V300">
+        <v>2.62</v>
+      </c>
+      <c r="W300">
+        <v>1.42</v>
+      </c>
+      <c r="X300">
+        <v>6.35</v>
+      </c>
+      <c r="Y300">
+        <v>1.06</v>
+      </c>
+      <c r="Z300">
+        <v>2.04</v>
+      </c>
+      <c r="AA300">
+        <v>3.18</v>
+      </c>
+      <c r="AB300">
+        <v>3.18</v>
+      </c>
+      <c r="AC300">
+        <v>1.04</v>
+      </c>
+      <c r="AD300">
+        <v>9</v>
+      </c>
+      <c r="AE300">
+        <v>1.25</v>
+      </c>
+      <c r="AF300">
+        <v>3.6</v>
+      </c>
+      <c r="AG300">
+        <v>1.82</v>
+      </c>
+      <c r="AH300">
+        <v>1.88</v>
+      </c>
+      <c r="AI300">
+        <v>1.67</v>
+      </c>
+      <c r="AJ300">
+        <v>2</v>
+      </c>
+      <c r="AK300">
+        <v>1.25</v>
+      </c>
+      <c r="AL300">
+        <v>1.22</v>
+      </c>
+      <c r="AM300">
+        <v>1.83</v>
+      </c>
+      <c r="AN300">
+        <v>1.47</v>
+      </c>
+      <c r="AO300">
+        <v>1.06</v>
+      </c>
+      <c r="AP300">
+        <v>1.4</v>
+      </c>
+      <c r="AQ300">
+        <v>1.16</v>
+      </c>
+      <c r="AR300">
+        <v>1.68</v>
+      </c>
+      <c r="AS300">
+        <v>1.4</v>
+      </c>
+      <c r="AT300">
+        <v>3.08</v>
+      </c>
+      <c r="AU300">
+        <v>7</v>
+      </c>
+      <c r="AV300">
+        <v>7</v>
+      </c>
+      <c r="AW300">
+        <v>5</v>
+      </c>
+      <c r="AX300">
+        <v>6</v>
+      </c>
+      <c r="AY300">
+        <v>15</v>
+      </c>
+      <c r="AZ300">
+        <v>14</v>
+      </c>
+      <c r="BA300">
+        <v>3</v>
+      </c>
+      <c r="BB300">
+        <v>1</v>
+      </c>
+      <c r="BC300">
+        <v>4</v>
+      </c>
+      <c r="BD300">
+        <v>1.61</v>
+      </c>
+      <c r="BE300">
+        <v>6.75</v>
+      </c>
+      <c r="BF300">
+        <v>2.55</v>
+      </c>
+      <c r="BG300">
+        <v>1.25</v>
+      </c>
+      <c r="BH300">
+        <v>3.45</v>
+      </c>
+      <c r="BI300">
+        <v>1.42</v>
+      </c>
+      <c r="BJ300">
+        <v>2.55</v>
+      </c>
+      <c r="BK300">
+        <v>1.68</v>
+      </c>
+      <c r="BL300">
+        <v>2</v>
+      </c>
+      <c r="BM300">
+        <v>2.08</v>
+      </c>
+      <c r="BN300">
+        <v>1.63</v>
+      </c>
+      <c r="BO300">
+        <v>2.65</v>
+      </c>
+      <c r="BP300">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:68">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>7856922</v>
+      </c>
+      <c r="C301" t="s">
+        <v>68</v>
+      </c>
+      <c r="D301" t="s">
+        <v>69</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45787.47916666666</v>
+      </c>
+      <c r="F301">
+        <v>8</v>
+      </c>
+      <c r="G301" t="s">
+        <v>71</v>
+      </c>
+      <c r="H301" t="s">
+        <v>78</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301" t="s">
+        <v>214</v>
+      </c>
+      <c r="P301" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q301">
+        <v>2.55</v>
+      </c>
+      <c r="R301">
+        <v>2.1</v>
+      </c>
+      <c r="S301">
+        <v>4</v>
+      </c>
+      <c r="T301">
+        <v>1.4</v>
+      </c>
+      <c r="U301">
+        <v>2.75</v>
+      </c>
+      <c r="V301">
+        <v>2.88</v>
+      </c>
+      <c r="W301">
+        <v>1.36</v>
+      </c>
+      <c r="X301">
+        <v>7.4</v>
+      </c>
+      <c r="Y301">
+        <v>1.03</v>
+      </c>
+      <c r="Z301">
+        <v>2.04</v>
+      </c>
+      <c r="AA301">
+        <v>3.09</v>
+      </c>
+      <c r="AB301">
+        <v>3.27</v>
+      </c>
+      <c r="AC301">
+        <v>1.05</v>
+      </c>
+      <c r="AD301">
+        <v>8.5</v>
+      </c>
+      <c r="AE301">
+        <v>1.33</v>
+      </c>
+      <c r="AF301">
+        <v>3.1</v>
+      </c>
+      <c r="AG301">
+        <v>1.92</v>
+      </c>
+      <c r="AH301">
+        <v>1.78</v>
+      </c>
+      <c r="AI301">
+        <v>1.8</v>
+      </c>
+      <c r="AJ301">
+        <v>1.83</v>
+      </c>
+      <c r="AK301">
+        <v>1.25</v>
+      </c>
+      <c r="AL301">
+        <v>1.25</v>
+      </c>
+      <c r="AM301">
+        <v>1.8</v>
+      </c>
+      <c r="AN301">
+        <v>1.68</v>
+      </c>
+      <c r="AO301">
+        <v>0.79</v>
+      </c>
+      <c r="AP301">
+        <v>1.75</v>
+      </c>
+      <c r="AQ301">
+        <v>0.75</v>
+      </c>
+      <c r="AR301">
+        <v>1.5</v>
+      </c>
+      <c r="AS301">
+        <v>1.41</v>
+      </c>
+      <c r="AT301">
+        <v>2.91</v>
+      </c>
+      <c r="AU301">
+        <v>10</v>
+      </c>
+      <c r="AV301">
+        <v>7</v>
+      </c>
+      <c r="AW301">
+        <v>6</v>
+      </c>
+      <c r="AX301">
+        <v>12</v>
+      </c>
+      <c r="AY301">
+        <v>18</v>
+      </c>
+      <c r="AZ301">
+        <v>27</v>
+      </c>
+      <c r="BA301">
+        <v>4</v>
+      </c>
+      <c r="BB301">
+        <v>7</v>
+      </c>
+      <c r="BC301">
+        <v>11</v>
+      </c>
+      <c r="BD301">
+        <v>1.5</v>
+      </c>
+      <c r="BE301">
+        <v>6.75</v>
+      </c>
+      <c r="BF301">
+        <v>2.9</v>
+      </c>
+      <c r="BG301">
+        <v>1.34</v>
+      </c>
+      <c r="BH301">
+        <v>2.88</v>
+      </c>
+      <c r="BI301">
+        <v>1.6</v>
+      </c>
+      <c r="BJ301">
+        <v>2.15</v>
+      </c>
+      <c r="BK301">
+        <v>1.95</v>
+      </c>
+      <c r="BL301">
+        <v>1.72</v>
+      </c>
+      <c r="BM301">
+        <v>2.48</v>
+      </c>
+      <c r="BN301">
+        <v>1.44</v>
+      </c>
+      <c r="BO301">
+        <v>3.3</v>
+      </c>
+      <c r="BP301">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:68">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>7856918</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45787.60416666666</v>
+      </c>
+      <c r="F302">
+        <v>8</v>
+      </c>
+      <c r="G302" t="s">
+        <v>80</v>
+      </c>
+      <c r="H302" t="s">
+        <v>75</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>2</v>
+      </c>
+      <c r="M302">
+        <v>2</v>
+      </c>
+      <c r="N302">
+        <v>4</v>
+      </c>
+      <c r="O302" t="s">
+        <v>259</v>
+      </c>
+      <c r="P302" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q302">
+        <v>3.2</v>
+      </c>
+      <c r="R302">
+        <v>2</v>
+      </c>
+      <c r="S302">
+        <v>3.3</v>
+      </c>
+      <c r="T302">
+        <v>1.45</v>
+      </c>
+      <c r="U302">
+        <v>2.55</v>
+      </c>
+      <c r="V302">
+        <v>3</v>
+      </c>
+      <c r="W302">
+        <v>1.33</v>
+      </c>
+      <c r="X302">
+        <v>8.4</v>
+      </c>
+      <c r="Y302">
+        <v>1.01</v>
+      </c>
+      <c r="Z302">
+        <v>2.21</v>
+      </c>
+      <c r="AA302">
+        <v>3.02</v>
+      </c>
+      <c r="AB302">
+        <v>2.98</v>
+      </c>
+      <c r="AC302">
+        <v>1.06</v>
+      </c>
+      <c r="AD302">
+        <v>8</v>
+      </c>
+      <c r="AE302">
+        <v>1.36</v>
+      </c>
+      <c r="AF302">
+        <v>2.95</v>
+      </c>
+      <c r="AG302">
+        <v>1.95</v>
+      </c>
+      <c r="AH302">
+        <v>1.75</v>
+      </c>
+      <c r="AI302">
+        <v>1.8</v>
+      </c>
+      <c r="AJ302">
+        <v>1.83</v>
+      </c>
+      <c r="AK302">
+        <v>1.44</v>
+      </c>
+      <c r="AL302">
+        <v>1.28</v>
+      </c>
+      <c r="AM302">
+        <v>1.5</v>
+      </c>
+      <c r="AN302">
+        <v>2</v>
+      </c>
+      <c r="AO302">
+        <v>1.39</v>
+      </c>
+      <c r="AP302">
+        <v>1.95</v>
+      </c>
+      <c r="AQ302">
+        <v>1.37</v>
+      </c>
+      <c r="AR302">
+        <v>1.82</v>
+      </c>
+      <c r="AS302">
+        <v>1.55</v>
+      </c>
+      <c r="AT302">
+        <v>3.37</v>
+      </c>
+      <c r="AU302">
+        <v>4</v>
+      </c>
+      <c r="AV302">
+        <v>4</v>
+      </c>
+      <c r="AW302">
+        <v>2</v>
+      </c>
+      <c r="AX302">
+        <v>9</v>
+      </c>
+      <c r="AY302">
+        <v>7</v>
+      </c>
+      <c r="AZ302">
+        <v>14</v>
+      </c>
+      <c r="BA302">
+        <v>6</v>
+      </c>
+      <c r="BB302">
+        <v>2</v>
+      </c>
+      <c r="BC302">
+        <v>8</v>
+      </c>
+      <c r="BD302">
+        <v>1.92</v>
+      </c>
+      <c r="BE302">
+        <v>6.5</v>
+      </c>
+      <c r="BF302">
+        <v>2.07</v>
+      </c>
+      <c r="BG302">
+        <v>1.34</v>
+      </c>
+      <c r="BH302">
+        <v>2.9</v>
+      </c>
+      <c r="BI302">
+        <v>1.56</v>
+      </c>
+      <c r="BJ302">
+        <v>2.2</v>
+      </c>
+      <c r="BK302">
+        <v>1.92</v>
+      </c>
+      <c r="BL302">
+        <v>1.75</v>
+      </c>
+      <c r="BM302">
+        <v>2.43</v>
+      </c>
+      <c r="BN302">
+        <v>1.47</v>
+      </c>
+      <c r="BO302">
+        <v>3.15</v>
+      </c>
+      <c r="BP302">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="372">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1128,6 +1128,9 @@
   <si>
     <t>['53', '58']</t>
   </si>
+  <si>
+    <t>['72', '77']</t>
+  </si>
 </sst>
 </file>
 
@@ -1488,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP302"/>
+  <dimension ref="A1:BP303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3682,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4297,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14">
         <v>1.17</v>
@@ -10889,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -12334,7 +12337,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -14391,7 +14394,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ63">
         <v>1.32</v>
@@ -15630,7 +15633,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ69">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -17275,7 +17278,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
         <v>1.37</v>
@@ -19132,7 +19135,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -21395,7 +21398,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97">
         <v>1.32</v>
@@ -22222,7 +22225,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -25309,7 +25312,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ116">
         <v>1.06</v>
@@ -25518,7 +25521,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ117">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -27369,10 +27372,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ126">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27990,7 +27993,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ129">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -31077,7 +31080,7 @@
         <v>0.75</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ144">
         <v>1.16</v>
@@ -31286,7 +31289,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ145">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR145">
         <v>1.39</v>
@@ -32931,7 +32934,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ153">
         <v>1.37</v>
@@ -33961,7 +33964,7 @@
         <v>1.44</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -34376,7 +34379,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ160">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -36230,7 +36233,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ169">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -36845,7 +36848,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ172">
         <v>0.58</v>
@@ -39114,7 +39117,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ183">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR183">
         <v>1.63</v>
@@ -40553,7 +40556,7 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ190">
         <v>1.17</v>
@@ -42822,7 +42825,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ201">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR201">
         <v>1.3</v>
@@ -43849,7 +43852,7 @@
         <v>0.42</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ206">
         <v>0.75</v>
@@ -45706,7 +45709,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ215">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR215">
         <v>1.43</v>
@@ -45909,7 +45912,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ216">
         <v>0.95</v>
@@ -48381,7 +48384,7 @@
         <v>0.64</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ228">
         <v>0.9</v>
@@ -49002,7 +49005,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ231">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR231">
         <v>1.73</v>
@@ -53946,7 +53949,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ255">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR255">
         <v>1.36</v>
@@ -54355,7 +54358,7 @@
         <v>1.6</v>
       </c>
       <c r="AP257">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ257">
         <v>1.37</v>
@@ -56827,7 +56830,7 @@
         <v>1.29</v>
       </c>
       <c r="AP269">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ269">
         <v>1.32</v>
@@ -57242,7 +57245,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ271">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR271">
         <v>1.83</v>
@@ -60123,7 +60126,7 @@
         <v>1.44</v>
       </c>
       <c r="AP285">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ285">
         <v>1.37</v>
@@ -60538,7 +60541,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ287">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AR287">
         <v>1.72</v>
@@ -63704,6 +63707,212 @@
       </c>
       <c r="BP302">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="303" spans="1:68">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>7856917</v>
+      </c>
+      <c r="C303" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" t="s">
+        <v>69</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45788.60416666666</v>
+      </c>
+      <c r="F303">
+        <v>8</v>
+      </c>
+      <c r="G303" t="s">
+        <v>82</v>
+      </c>
+      <c r="H303" t="s">
+        <v>74</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>2</v>
+      </c>
+      <c r="N303">
+        <v>2</v>
+      </c>
+      <c r="O303" t="s">
+        <v>86</v>
+      </c>
+      <c r="P303" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q303">
+        <v>4.2</v>
+      </c>
+      <c r="R303">
+        <v>1.93</v>
+      </c>
+      <c r="S303">
+        <v>2.88</v>
+      </c>
+      <c r="T303">
+        <v>1.49</v>
+      </c>
+      <c r="U303">
+        <v>2.44</v>
+      </c>
+      <c r="V303">
+        <v>3.3</v>
+      </c>
+      <c r="W303">
+        <v>1.28</v>
+      </c>
+      <c r="X303">
+        <v>8.6</v>
+      </c>
+      <c r="Y303">
+        <v>1.01</v>
+      </c>
+      <c r="Z303">
+        <v>3.4</v>
+      </c>
+      <c r="AA303">
+        <v>3.06</v>
+      </c>
+      <c r="AB303">
+        <v>2</v>
+      </c>
+      <c r="AC303">
+        <v>1.04</v>
+      </c>
+      <c r="AD303">
+        <v>7.1</v>
+      </c>
+      <c r="AE303">
+        <v>1.37</v>
+      </c>
+      <c r="AF303">
+        <v>2.67</v>
+      </c>
+      <c r="AG303">
+        <v>2.2</v>
+      </c>
+      <c r="AH303">
+        <v>1.55</v>
+      </c>
+      <c r="AI303">
+        <v>1.95</v>
+      </c>
+      <c r="AJ303">
+        <v>1.76</v>
+      </c>
+      <c r="AK303">
+        <v>1.65</v>
+      </c>
+      <c r="AL303">
+        <v>1.34</v>
+      </c>
+      <c r="AM303">
+        <v>1.3</v>
+      </c>
+      <c r="AN303">
+        <v>2</v>
+      </c>
+      <c r="AO303">
+        <v>1.89</v>
+      </c>
+      <c r="AP303">
+        <v>1.89</v>
+      </c>
+      <c r="AQ303">
+        <v>1.95</v>
+      </c>
+      <c r="AR303">
+        <v>1.57</v>
+      </c>
+      <c r="AS303">
+        <v>1.61</v>
+      </c>
+      <c r="AT303">
+        <v>3.18</v>
+      </c>
+      <c r="AU303">
+        <v>5</v>
+      </c>
+      <c r="AV303">
+        <v>6</v>
+      </c>
+      <c r="AW303">
+        <v>8</v>
+      </c>
+      <c r="AX303">
+        <v>4</v>
+      </c>
+      <c r="AY303">
+        <v>13</v>
+      </c>
+      <c r="AZ303">
+        <v>10</v>
+      </c>
+      <c r="BA303">
+        <v>5</v>
+      </c>
+      <c r="BB303">
+        <v>4</v>
+      </c>
+      <c r="BC303">
+        <v>9</v>
+      </c>
+      <c r="BD303">
+        <v>2.2</v>
+      </c>
+      <c r="BE303">
+        <v>6.1</v>
+      </c>
+      <c r="BF303">
+        <v>1.83</v>
+      </c>
+      <c r="BG303">
+        <v>1.45</v>
+      </c>
+      <c r="BH303">
+        <v>2.48</v>
+      </c>
+      <c r="BI303">
+        <v>1.76</v>
+      </c>
+      <c r="BJ303">
+        <v>1.9</v>
+      </c>
+      <c r="BK303">
+        <v>2.23</v>
+      </c>
+      <c r="BL303">
+        <v>1.56</v>
+      </c>
+      <c r="BM303">
+        <v>2.9</v>
+      </c>
+      <c r="BN303">
+        <v>1.34</v>
+      </c>
+      <c r="BO303">
+        <v>3.9</v>
+      </c>
+      <c r="BP303">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1131,6 +1131,9 @@
   <si>
     <t>['72', '77']</t>
   </si>
+  <si>
+    <t>['25', '59', '73']</t>
+  </si>
 </sst>
 </file>
 
@@ -1491,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP303"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3067,7 +3070,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ8">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3270,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ9">
         <v>0.58</v>
@@ -5333,7 +5336,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ19">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -6566,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ25">
         <v>1.17</v>
@@ -8629,7 +8632,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ35">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -9450,7 +9453,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ39">
         <v>1.32</v>
@@ -11304,10 +11307,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ48">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -15015,7 +15018,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ66">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -15218,7 +15221,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ67">
         <v>1.06</v>
@@ -17896,7 +17899,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ80">
         <v>1.17</v>
@@ -18723,7 +18726,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ84">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -21401,7 +21404,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ97">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR97">
         <v>1.37</v>
@@ -21810,7 +21813,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ99">
         <v>1.37</v>
@@ -23252,7 +23255,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ106">
         <v>0.75</v>
@@ -25109,7 +25112,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -28405,7 +28408,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
         <v>1.58</v>
@@ -29226,7 +29229,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ135">
         <v>1.32</v>
@@ -31904,7 +31907,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ148">
         <v>1.37</v>
@@ -32731,7 +32734,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ152">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR152">
         <v>1.23</v>
@@ -35406,7 +35409,7 @@
         <v>1.3</v>
       </c>
       <c r="AP165">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ165">
         <v>0.95</v>
@@ -35615,7 +35618,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ166">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR166">
         <v>1.81</v>
@@ -38911,7 +38914,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ182">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -39320,7 +39323,7 @@
         <v>0.55</v>
       </c>
       <c r="AP184">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ184">
         <v>0.9</v>
@@ -41795,7 +41798,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ196">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR196">
         <v>1.24</v>
@@ -42822,7 +42825,7 @@
         <v>1.83</v>
       </c>
       <c r="AP201">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ201">
         <v>1.95</v>
@@ -44885,7 +44888,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ211">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR211">
         <v>1.81</v>
@@ -45088,7 +45091,7 @@
         <v>1.15</v>
       </c>
       <c r="AP212">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ212">
         <v>1.16</v>
@@ -47975,7 +47978,7 @@
         <v>1</v>
       </c>
       <c r="AQ226">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR226">
         <v>1.35</v>
@@ -50032,7 +50035,7 @@
         <v>1.14</v>
       </c>
       <c r="AP236">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ236">
         <v>1</v>
@@ -51268,7 +51271,7 @@
         <v>0.8</v>
       </c>
       <c r="AP242">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ242">
         <v>0.9</v>
@@ -52301,7 +52304,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ247">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR247">
         <v>1.55</v>
@@ -54155,7 +54158,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ256">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR256">
         <v>1.45</v>
@@ -54770,7 +54773,7 @@
         <v>1.07</v>
       </c>
       <c r="AP259">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ259">
         <v>1</v>
@@ -57451,7 +57454,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ272">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR272">
         <v>1.86</v>
@@ -59096,7 +59099,7 @@
         <v>0.65</v>
       </c>
       <c r="AP280">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ280">
         <v>0.58</v>
@@ -59717,7 +59720,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ283">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR283">
         <v>1.5</v>
@@ -60744,7 +60747,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP288">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ288">
         <v>1.06</v>
@@ -63913,6 +63916,212 @@
       </c>
       <c r="BP303">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:68">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>7856923</v>
+      </c>
+      <c r="C304" t="s">
+        <v>68</v>
+      </c>
+      <c r="D304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45789.5</v>
+      </c>
+      <c r="F304">
+        <v>8</v>
+      </c>
+      <c r="G304" t="s">
+        <v>77</v>
+      </c>
+      <c r="H304" t="s">
+        <v>85</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>3</v>
+      </c>
+      <c r="N304">
+        <v>4</v>
+      </c>
+      <c r="O304" t="s">
+        <v>165</v>
+      </c>
+      <c r="P304" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q304">
+        <v>3.4</v>
+      </c>
+      <c r="R304">
+        <v>1.85</v>
+      </c>
+      <c r="S304">
+        <v>3.7</v>
+      </c>
+      <c r="T304">
+        <v>1.6</v>
+      </c>
+      <c r="U304">
+        <v>2.25</v>
+      </c>
+      <c r="V304">
+        <v>3.66</v>
+      </c>
+      <c r="W304">
+        <v>1.22</v>
+      </c>
+      <c r="X304">
+        <v>11</v>
+      </c>
+      <c r="Y304">
+        <v>1.03</v>
+      </c>
+      <c r="Z304">
+        <v>2.69</v>
+      </c>
+      <c r="AA304">
+        <v>2.75</v>
+      </c>
+      <c r="AB304">
+        <v>2.6</v>
+      </c>
+      <c r="AC304">
+        <v>1.07</v>
+      </c>
+      <c r="AD304">
+        <v>5.8</v>
+      </c>
+      <c r="AE304">
+        <v>1.53</v>
+      </c>
+      <c r="AF304">
+        <v>2.25</v>
+      </c>
+      <c r="AG304">
+        <v>2.69</v>
+      </c>
+      <c r="AH304">
+        <v>1.41</v>
+      </c>
+      <c r="AI304">
+        <v>2.17</v>
+      </c>
+      <c r="AJ304">
+        <v>1.61</v>
+      </c>
+      <c r="AK304">
+        <v>1.41</v>
+      </c>
+      <c r="AL304">
+        <v>1.38</v>
+      </c>
+      <c r="AM304">
+        <v>1.46</v>
+      </c>
+      <c r="AN304">
+        <v>1.63</v>
+      </c>
+      <c r="AO304">
+        <v>1.32</v>
+      </c>
+      <c r="AP304">
+        <v>1.55</v>
+      </c>
+      <c r="AQ304">
+        <v>1.4</v>
+      </c>
+      <c r="AR304">
+        <v>1.41</v>
+      </c>
+      <c r="AS304">
+        <v>1.29</v>
+      </c>
+      <c r="AT304">
+        <v>2.7</v>
+      </c>
+      <c r="AU304">
+        <v>2</v>
+      </c>
+      <c r="AV304">
+        <v>6</v>
+      </c>
+      <c r="AW304">
+        <v>10</v>
+      </c>
+      <c r="AX304">
+        <v>10</v>
+      </c>
+      <c r="AY304">
+        <v>16</v>
+      </c>
+      <c r="AZ304">
+        <v>18</v>
+      </c>
+      <c r="BA304">
+        <v>4</v>
+      </c>
+      <c r="BB304">
+        <v>7</v>
+      </c>
+      <c r="BC304">
+        <v>11</v>
+      </c>
+      <c r="BD304">
+        <v>1.79</v>
+      </c>
+      <c r="BE304">
+        <v>6.4</v>
+      </c>
+      <c r="BF304">
+        <v>2.23</v>
+      </c>
+      <c r="BG304">
+        <v>1.43</v>
+      </c>
+      <c r="BH304">
+        <v>2.55</v>
+      </c>
+      <c r="BI304">
+        <v>1.73</v>
+      </c>
+      <c r="BJ304">
+        <v>1.94</v>
+      </c>
+      <c r="BK304">
+        <v>2.18</v>
+      </c>
+      <c r="BL304">
+        <v>1.58</v>
+      </c>
+      <c r="BM304">
+        <v>2.85</v>
+      </c>
+      <c r="BN304">
+        <v>1.34</v>
+      </c>
+      <c r="BO304">
+        <v>3.8</v>
+      </c>
+      <c r="BP304">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1494,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP304"/>
+  <dimension ref="A1:BP305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2452,7 +2452,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -6572,7 +6572,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6981,7 +6981,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27">
         <v>0.58</v>
@@ -8838,7 +8838,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -11516,7 +11516,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11925,7 +11925,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ51">
         <v>1.37</v>
@@ -13370,7 +13370,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -14809,7 +14809,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65">
         <v>0.95</v>
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -18105,7 +18105,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ81">
         <v>0.9</v>
@@ -20786,7 +20786,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -22225,7 +22225,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ101">
         <v>1.95</v>
@@ -23876,7 +23876,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR109">
         <v>2.02</v>
@@ -24903,7 +24903,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>1.16</v>
@@ -26345,7 +26345,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ121">
         <v>1.37</v>
@@ -28820,7 +28820,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ133">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -30671,7 +30671,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -31498,7 +31498,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ146">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR146">
         <v>1.46</v>
@@ -33349,7 +33349,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ155">
         <v>0.75</v>
@@ -35821,10 +35821,10 @@
         <v>1.1</v>
       </c>
       <c r="AP167">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ167">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR167">
         <v>1.24</v>
@@ -38293,7 +38293,7 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ179">
         <v>1.32</v>
@@ -40562,7 +40562,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ190">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR190">
         <v>1.64</v>
@@ -41795,7 +41795,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ196">
         <v>1.4</v>
@@ -43446,7 +43446,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ204">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR204">
         <v>1.36</v>
@@ -45297,7 +45297,7 @@
         <v>0.77</v>
       </c>
       <c r="AP213">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ213">
         <v>1.06</v>
@@ -47772,7 +47772,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ225">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR225">
         <v>1.67</v>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ233">
         <v>1.17</v>
@@ -50244,7 +50244,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ237">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR237">
         <v>1.24</v>
@@ -52510,7 +52510,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ248">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR248">
         <v>2.08</v>
@@ -53949,7 +53949,7 @@
         <v>1.8</v>
       </c>
       <c r="AP255">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ255">
         <v>1.95</v>
@@ -57660,7 +57660,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ273">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR273">
         <v>1.87</v>
@@ -59305,7 +59305,7 @@
         <v>1.35</v>
       </c>
       <c r="AP281">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ281">
         <v>1.37</v>
@@ -60953,7 +60953,7 @@
         <v>1.41</v>
       </c>
       <c r="AP289">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AQ289">
         <v>1.37</v>
@@ -61368,7 +61368,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ291">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR291">
         <v>1.82</v>
@@ -64122,6 +64122,212 @@
       </c>
       <c r="BP304">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:68">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>7856919</v>
+      </c>
+      <c r="C305" t="s">
+        <v>68</v>
+      </c>
+      <c r="D305" t="s">
+        <v>69</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45789.625</v>
+      </c>
+      <c r="F305">
+        <v>8</v>
+      </c>
+      <c r="G305" t="s">
+        <v>83</v>
+      </c>
+      <c r="H305" t="s">
+        <v>81</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305" t="s">
+        <v>86</v>
+      </c>
+      <c r="P305" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q305">
+        <v>3.38</v>
+      </c>
+      <c r="R305">
+        <v>2.09</v>
+      </c>
+      <c r="S305">
+        <v>3.04</v>
+      </c>
+      <c r="T305">
+        <v>1.36</v>
+      </c>
+      <c r="U305">
+        <v>2.88</v>
+      </c>
+      <c r="V305">
+        <v>2.77</v>
+      </c>
+      <c r="W305">
+        <v>1.39</v>
+      </c>
+      <c r="X305">
+        <v>7.1</v>
+      </c>
+      <c r="Y305">
+        <v>1.04</v>
+      </c>
+      <c r="Z305">
+        <v>2.7</v>
+      </c>
+      <c r="AA305">
+        <v>3.01</v>
+      </c>
+      <c r="AB305">
+        <v>2.4</v>
+      </c>
+      <c r="AC305">
+        <v>1</v>
+      </c>
+      <c r="AD305">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE305">
+        <v>1.24</v>
+      </c>
+      <c r="AF305">
+        <v>3.36</v>
+      </c>
+      <c r="AG305">
+        <v>1.89</v>
+      </c>
+      <c r="AH305">
+        <v>1.81</v>
+      </c>
+      <c r="AI305">
+        <v>1.69</v>
+      </c>
+      <c r="AJ305">
+        <v>2.04</v>
+      </c>
+      <c r="AK305">
+        <v>1.53</v>
+      </c>
+      <c r="AL305">
+        <v>1.3</v>
+      </c>
+      <c r="AM305">
+        <v>1.43</v>
+      </c>
+      <c r="AN305">
+        <v>1.67</v>
+      </c>
+      <c r="AO305">
+        <v>1.17</v>
+      </c>
+      <c r="AP305">
+        <v>1.63</v>
+      </c>
+      <c r="AQ305">
+        <v>1.16</v>
+      </c>
+      <c r="AR305">
+        <v>1.35</v>
+      </c>
+      <c r="AS305">
+        <v>1.4</v>
+      </c>
+      <c r="AT305">
+        <v>2.75</v>
+      </c>
+      <c r="AU305">
+        <v>6</v>
+      </c>
+      <c r="AV305">
+        <v>3</v>
+      </c>
+      <c r="AW305">
+        <v>20</v>
+      </c>
+      <c r="AX305">
+        <v>9</v>
+      </c>
+      <c r="AY305">
+        <v>30</v>
+      </c>
+      <c r="AZ305">
+        <v>14</v>
+      </c>
+      <c r="BA305">
+        <v>4</v>
+      </c>
+      <c r="BB305">
+        <v>3</v>
+      </c>
+      <c r="BC305">
+        <v>7</v>
+      </c>
+      <c r="BD305">
+        <v>2.07</v>
+      </c>
+      <c r="BE305">
+        <v>6.25</v>
+      </c>
+      <c r="BF305">
+        <v>1.94</v>
+      </c>
+      <c r="BG305">
+        <v>1.3</v>
+      </c>
+      <c r="BH305">
+        <v>3.05</v>
+      </c>
+      <c r="BI305">
+        <v>1.55</v>
+      </c>
+      <c r="BJ305">
+        <v>2.25</v>
+      </c>
+      <c r="BK305">
+        <v>1.87</v>
+      </c>
+      <c r="BL305">
+        <v>1.79</v>
+      </c>
+      <c r="BM305">
+        <v>2.38</v>
+      </c>
+      <c r="BN305">
+        <v>1.49</v>
+      </c>
+      <c r="BO305">
+        <v>3.05</v>
+      </c>
+      <c r="BP305">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1494,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP305"/>
+  <dimension ref="A1:BP306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4921,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ17">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
         <v>1.17</v>
@@ -8220,7 +8220,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ33">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -12752,7 +12752,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ55">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12955,7 +12955,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -15224,7 +15224,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ67">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -16457,7 +16457,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ73">
         <v>1.32</v>
@@ -18932,7 +18932,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ85">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -20371,7 +20371,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ92">
         <v>1.37</v>
@@ -22640,7 +22640,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ103">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23667,7 +23667,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ108">
         <v>0.95</v>
@@ -25318,7 +25318,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ116">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -26139,7 +26139,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ120">
         <v>0.9</v>
@@ -27172,7 +27172,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR125">
         <v>1.4</v>
@@ -27787,7 +27787,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ128">
         <v>1.37</v>
@@ -29850,7 +29850,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ138">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -31289,7 +31289,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ145">
         <v>1.95</v>
@@ -32322,7 +32322,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ150">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -33555,7 +33555,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ156">
         <v>1.16</v>
@@ -35000,7 +35000,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ163">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -37057,7 +37057,7 @@
         <v>1.3</v>
       </c>
       <c r="AP173">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ173">
         <v>0.9399999999999999</v>
@@ -39532,7 +39532,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ185">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR185">
         <v>1.75</v>
@@ -40353,7 +40353,7 @@
         <v>0.45</v>
       </c>
       <c r="AP189">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ189">
         <v>0.58</v>
@@ -42622,7 +42622,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ200">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -43443,7 +43443,7 @@
         <v>1</v>
       </c>
       <c r="AP204">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ204">
         <v>1.16</v>
@@ -45300,7 +45300,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ213">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR213">
         <v>1.24</v>
@@ -46533,7 +46533,7 @@
         <v>1.38</v>
       </c>
       <c r="AP219">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ219">
         <v>1.32</v>
@@ -48596,7 +48596,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ229">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR229">
         <v>1.81</v>
@@ -49623,7 +49623,7 @@
         <v>0.5</v>
       </c>
       <c r="AP234">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ234">
         <v>0.75</v>
@@ -53334,7 +53334,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ252">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR252">
         <v>1.82</v>
@@ -54567,7 +54567,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ258">
         <v>0.75</v>
@@ -56630,7 +56630,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ268">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR268">
         <v>1.5</v>
@@ -57863,7 +57863,7 @@
         <v>0.88</v>
       </c>
       <c r="AP274">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ274">
         <v>0.95</v>
@@ -60750,7 +60750,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ288">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AR288">
         <v>1.39</v>
@@ -62189,7 +62189,7 @@
         <v>1.06</v>
       </c>
       <c r="AP295">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AQ295">
         <v>1.17</v>
@@ -64327,6 +64327,212 @@
         <v>3.05</v>
       </c>
       <c r="BP305">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:68">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>7856929</v>
+      </c>
+      <c r="C306" t="s">
+        <v>68</v>
+      </c>
+      <c r="D306" t="s">
+        <v>69</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45793.5</v>
+      </c>
+      <c r="F306">
+        <v>9</v>
+      </c>
+      <c r="G306" t="s">
+        <v>85</v>
+      </c>
+      <c r="H306" t="s">
+        <v>70</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306" t="s">
+        <v>86</v>
+      </c>
+      <c r="P306" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q306">
+        <v>2.8</v>
+      </c>
+      <c r="R306">
+        <v>2.05</v>
+      </c>
+      <c r="S306">
+        <v>3.65</v>
+      </c>
+      <c r="T306">
+        <v>1.42</v>
+      </c>
+      <c r="U306">
+        <v>2.65</v>
+      </c>
+      <c r="V306">
+        <v>2.95</v>
+      </c>
+      <c r="W306">
+        <v>1.35</v>
+      </c>
+      <c r="X306">
+        <v>7.1</v>
+      </c>
+      <c r="Y306">
+        <v>1.04</v>
+      </c>
+      <c r="Z306">
+        <v>2.36</v>
+      </c>
+      <c r="AA306">
+        <v>3.08</v>
+      </c>
+      <c r="AB306">
+        <v>2.69</v>
+      </c>
+      <c r="AC306">
+        <v>1.06</v>
+      </c>
+      <c r="AD306">
+        <v>8</v>
+      </c>
+      <c r="AE306">
+        <v>1.35</v>
+      </c>
+      <c r="AF306">
+        <v>3</v>
+      </c>
+      <c r="AG306">
+        <v>2.25</v>
+      </c>
+      <c r="AH306">
+        <v>1.53</v>
+      </c>
+      <c r="AI306">
+        <v>1.8</v>
+      </c>
+      <c r="AJ306">
+        <v>1.85</v>
+      </c>
+      <c r="AK306">
+        <v>1.36</v>
+      </c>
+      <c r="AL306">
+        <v>1.28</v>
+      </c>
+      <c r="AM306">
+        <v>1.45</v>
+      </c>
+      <c r="AN306">
+        <v>1.22</v>
+      </c>
+      <c r="AO306">
+        <v>1.06</v>
+      </c>
+      <c r="AP306">
+        <v>1.21</v>
+      </c>
+      <c r="AQ306">
+        <v>1.05</v>
+      </c>
+      <c r="AR306">
+        <v>1.56</v>
+      </c>
+      <c r="AS306">
+        <v>1.29</v>
+      </c>
+      <c r="AT306">
+        <v>2.85</v>
+      </c>
+      <c r="AU306">
+        <v>-1</v>
+      </c>
+      <c r="AV306">
+        <v>-1</v>
+      </c>
+      <c r="AW306">
+        <v>-1</v>
+      </c>
+      <c r="AX306">
+        <v>-1</v>
+      </c>
+      <c r="AY306">
+        <v>-1</v>
+      </c>
+      <c r="AZ306">
+        <v>-1</v>
+      </c>
+      <c r="BA306">
+        <v>-1</v>
+      </c>
+      <c r="BB306">
+        <v>-1</v>
+      </c>
+      <c r="BC306">
+        <v>-1</v>
+      </c>
+      <c r="BD306">
+        <v>1.74</v>
+      </c>
+      <c r="BE306">
+        <v>6.5</v>
+      </c>
+      <c r="BF306">
+        <v>2.3</v>
+      </c>
+      <c r="BG306">
+        <v>1.3</v>
+      </c>
+      <c r="BH306">
+        <v>3.05</v>
+      </c>
+      <c r="BI306">
+        <v>1.54</v>
+      </c>
+      <c r="BJ306">
+        <v>2.25</v>
+      </c>
+      <c r="BK306">
+        <v>1.88</v>
+      </c>
+      <c r="BL306">
+        <v>1.78</v>
+      </c>
+      <c r="BM306">
+        <v>2.38</v>
+      </c>
+      <c r="BN306">
+        <v>1.49</v>
+      </c>
+      <c r="BO306">
+        <v>3.1</v>
+      </c>
+      <c r="BP306">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1134,6 +1134,9 @@
   <si>
     <t>['25', '59', '73']</t>
   </si>
+  <si>
+    <t>['84', '90+1', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1494,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP306"/>
+  <dimension ref="A1:BP307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2658,7 +2661,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ6">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4509,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -6366,7 +6369,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ24">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1.56</v>
@@ -6981,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ27">
         <v>0.58</v>
@@ -7602,7 +7605,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ30">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -9456,7 +9459,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ39">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -11925,7 +11928,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ51">
         <v>1.37</v>
@@ -12546,7 +12549,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ54">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -14809,7 +14812,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ65">
         <v>0.95</v>
@@ -16048,7 +16051,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ71">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -18105,7 +18108,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ81">
         <v>0.9</v>
@@ -18314,7 +18317,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ82">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -19962,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -22225,7 +22228,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ101">
         <v>1.95</v>
@@ -24082,7 +24085,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ110">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR110">
         <v>1.9</v>
@@ -24903,7 +24906,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ114">
         <v>1.16</v>
@@ -26345,7 +26348,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ121">
         <v>1.37</v>
@@ -28614,7 +28617,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ132">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR132">
         <v>1.25</v>
@@ -30671,7 +30674,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -33349,7 +33352,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP155">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155">
         <v>0.75</v>
@@ -34794,7 +34797,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ162">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR162">
         <v>1.45</v>
@@ -35821,7 +35824,7 @@
         <v>1.1</v>
       </c>
       <c r="AP167">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ167">
         <v>1.16</v>
@@ -38293,10 +38296,10 @@
         <v>1.55</v>
       </c>
       <c r="AP179">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ179">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR179">
         <v>1.24</v>
@@ -41795,7 +41798,7 @@
         <v>1.08</v>
       </c>
       <c r="AP196">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ196">
         <v>1.4</v>
@@ -42210,7 +42213,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ198">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR198">
         <v>1.82</v>
@@ -45297,7 +45300,7 @@
         <v>0.77</v>
       </c>
       <c r="AP213">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ213">
         <v>1.05</v>
@@ -46536,7 +46539,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ219">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR219">
         <v>1.36</v>
@@ -49417,7 +49420,7 @@
         <v>1</v>
       </c>
       <c r="AP233">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ233">
         <v>1.17</v>
@@ -49832,7 +49835,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ235">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR235">
         <v>1.69</v>
@@ -51480,7 +51483,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ243">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR243">
         <v>1.83</v>
@@ -53949,7 +53952,7 @@
         <v>1.8</v>
       </c>
       <c r="AP255">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ255">
         <v>1.95</v>
@@ -55188,7 +55191,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ261">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR261">
         <v>2.07</v>
@@ -58484,7 +58487,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ277">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR277">
         <v>1.7</v>
@@ -59305,7 +59308,7 @@
         <v>1.35</v>
       </c>
       <c r="AP281">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ281">
         <v>1.37</v>
@@ -60953,7 +60956,7 @@
         <v>1.41</v>
       </c>
       <c r="AP289">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ289">
         <v>1.37</v>
@@ -61986,7 +61989,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ294">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR294">
         <v>1.89</v>
@@ -64249,7 +64252,7 @@
         <v>1.17</v>
       </c>
       <c r="AP305">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AQ305">
         <v>1.16</v>
@@ -64470,31 +64473,31 @@
         <v>2.85</v>
       </c>
       <c r="AU306">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW306">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX306">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY306">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ306">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA306">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB306">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC306">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD306">
         <v>1.74</v>
@@ -64534,6 +64537,212 @@
       </c>
       <c r="BP306">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:68">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7856926</v>
+      </c>
+      <c r="C307" t="s">
+        <v>68</v>
+      </c>
+      <c r="D307" t="s">
+        <v>69</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45793.625</v>
+      </c>
+      <c r="F307">
+        <v>9</v>
+      </c>
+      <c r="G307" t="s">
+        <v>83</v>
+      </c>
+      <c r="H307" t="s">
+        <v>82</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307">
+        <v>3</v>
+      </c>
+      <c r="N307">
+        <v>4</v>
+      </c>
+      <c r="O307" t="s">
+        <v>239</v>
+      </c>
+      <c r="P307" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q307">
+        <v>3.2</v>
+      </c>
+      <c r="R307">
+        <v>1.91</v>
+      </c>
+      <c r="S307">
+        <v>3.55</v>
+      </c>
+      <c r="T307">
+        <v>1.5</v>
+      </c>
+      <c r="U307">
+        <v>2.4</v>
+      </c>
+      <c r="V307">
+        <v>3.3</v>
+      </c>
+      <c r="W307">
+        <v>1.28</v>
+      </c>
+      <c r="X307">
+        <v>8.4</v>
+      </c>
+      <c r="Y307">
+        <v>1.01</v>
+      </c>
+      <c r="Z307">
+        <v>2.41</v>
+      </c>
+      <c r="AA307">
+        <v>2.99</v>
+      </c>
+      <c r="AB307">
+        <v>2.7</v>
+      </c>
+      <c r="AC307">
+        <v>1.09</v>
+      </c>
+      <c r="AD307">
+        <v>6.5</v>
+      </c>
+      <c r="AE307">
+        <v>1.45</v>
+      </c>
+      <c r="AF307">
+        <v>2.6</v>
+      </c>
+      <c r="AG307">
+        <v>2.1</v>
+      </c>
+      <c r="AH307">
+        <v>1.6</v>
+      </c>
+      <c r="AI307">
+        <v>1.93</v>
+      </c>
+      <c r="AJ307">
+        <v>1.73</v>
+      </c>
+      <c r="AK307">
+        <v>1.35</v>
+      </c>
+      <c r="AL307">
+        <v>1.3</v>
+      </c>
+      <c r="AM307">
+        <v>1.45</v>
+      </c>
+      <c r="AN307">
+        <v>1.63</v>
+      </c>
+      <c r="AO307">
+        <v>1.32</v>
+      </c>
+      <c r="AP307">
+        <v>1.55</v>
+      </c>
+      <c r="AQ307">
+        <v>1.4</v>
+      </c>
+      <c r="AR307">
+        <v>1.4</v>
+      </c>
+      <c r="AS307">
+        <v>1.41</v>
+      </c>
+      <c r="AT307">
+        <v>2.81</v>
+      </c>
+      <c r="AU307">
+        <v>8</v>
+      </c>
+      <c r="AV307">
+        <v>10</v>
+      </c>
+      <c r="AW307">
+        <v>12</v>
+      </c>
+      <c r="AX307">
+        <v>9</v>
+      </c>
+      <c r="AY307">
+        <v>24</v>
+      </c>
+      <c r="AZ307">
+        <v>22</v>
+      </c>
+      <c r="BA307">
+        <v>8</v>
+      </c>
+      <c r="BB307">
+        <v>8</v>
+      </c>
+      <c r="BC307">
+        <v>16</v>
+      </c>
+      <c r="BD307">
+        <v>1.9</v>
+      </c>
+      <c r="BE307">
+        <v>6.4</v>
+      </c>
+      <c r="BF307">
+        <v>2.1</v>
+      </c>
+      <c r="BG307">
+        <v>1.47</v>
+      </c>
+      <c r="BH307">
+        <v>2.43</v>
+      </c>
+      <c r="BI307">
+        <v>1.78</v>
+      </c>
+      <c r="BJ307">
+        <v>1.88</v>
+      </c>
+      <c r="BK307">
+        <v>2.25</v>
+      </c>
+      <c r="BL307">
+        <v>1.54</v>
+      </c>
+      <c r="BM307">
+        <v>2.9</v>
+      </c>
+      <c r="BN307">
+        <v>1.34</v>
+      </c>
+      <c r="BO307">
+        <v>3.95</v>
+      </c>
+      <c r="BP307">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1497,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5">
         <v>1.16</v>
@@ -3279,7 +3279,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ9">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -6987,7 +6987,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ27">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ35">
         <v>1.4</v>
@@ -10077,7 +10077,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ42">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -12752,7 +12752,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ55">
         <v>1.05</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -15842,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ70">
         <v>1.17</v>
@@ -16257,7 +16257,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ72">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR72">
         <v>1.78</v>
@@ -17490,7 +17490,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -19550,7 +19550,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ88">
         <v>0.9399999999999999</v>
@@ -20995,7 +20995,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ95">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -23052,10 +23052,10 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ105">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR105">
         <v>1.58</v>
@@ -28205,7 +28205,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ130">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR130">
         <v>1.47</v>
@@ -29644,7 +29644,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ137">
         <v>1.37</v>
@@ -32116,7 +32116,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ149">
         <v>0.95</v>
@@ -34591,7 +34591,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ161">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -36030,7 +36030,7 @@
         <v>0.6</v>
       </c>
       <c r="AP168">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ168">
         <v>0.9</v>
@@ -36857,7 +36857,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ172">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
@@ -39120,7 +39120,7 @@
         <v>1.73</v>
       </c>
       <c r="AP183">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ183">
         <v>1.95</v>
@@ -40359,7 +40359,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ189">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR189">
         <v>1.34</v>
@@ -44273,7 +44273,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ208">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR208">
         <v>1.66</v>
@@ -44476,7 +44476,7 @@
         <v>1.58</v>
       </c>
       <c r="AP209">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ209">
         <v>1.37</v>
@@ -46333,7 +46333,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ218">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR218">
         <v>1.24</v>
@@ -47566,7 +47566,7 @@
         <v>1</v>
       </c>
       <c r="AP224">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ224">
         <v>1</v>
@@ -50453,7 +50453,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ238">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR238">
         <v>1.86</v>
@@ -51068,7 +51068,7 @@
         <v>1.36</v>
       </c>
       <c r="AP241">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ241">
         <v>1.32</v>
@@ -52304,7 +52304,7 @@
         <v>1.07</v>
       </c>
       <c r="AP247">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ247">
         <v>1.4</v>
@@ -52719,7 +52719,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ249">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR249">
         <v>1.45</v>
@@ -54982,7 +54982,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP260">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ260">
         <v>0.9</v>
@@ -55397,7 +55397,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ262">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR262">
         <v>1.32</v>
@@ -58072,7 +58072,7 @@
         <v>1</v>
       </c>
       <c r="AP275">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ275">
         <v>1</v>
@@ -59105,7 +59105,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ280">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR280">
         <v>1.33</v>
@@ -61783,7 +61783,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ293">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AR293">
         <v>1.68</v>
@@ -62398,7 +62398,7 @@
         <v>1</v>
       </c>
       <c r="AP296">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ296">
         <v>0.9399999999999999</v>
@@ -64743,6 +64743,212 @@
       </c>
       <c r="BP307">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7856928</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45794.33333333334</v>
+      </c>
+      <c r="F308">
+        <v>9</v>
+      </c>
+      <c r="G308" t="s">
+        <v>73</v>
+      </c>
+      <c r="H308" t="s">
+        <v>84</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+      <c r="O308" t="s">
+        <v>86</v>
+      </c>
+      <c r="P308" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q308">
+        <v>1.5</v>
+      </c>
+      <c r="R308">
+        <v>2.88</v>
+      </c>
+      <c r="S308">
+        <v>15</v>
+      </c>
+      <c r="T308">
+        <v>1.25</v>
+      </c>
+      <c r="U308">
+        <v>3.75</v>
+      </c>
+      <c r="V308">
+        <v>2.2</v>
+      </c>
+      <c r="W308">
+        <v>1.62</v>
+      </c>
+      <c r="X308">
+        <v>5</v>
+      </c>
+      <c r="Y308">
+        <v>1.17</v>
+      </c>
+      <c r="Z308">
+        <v>1.06</v>
+      </c>
+      <c r="AA308">
+        <v>8</v>
+      </c>
+      <c r="AB308">
+        <v>19</v>
+      </c>
+      <c r="AC308">
+        <v>0</v>
+      </c>
+      <c r="AD308">
+        <v>0</v>
+      </c>
+      <c r="AE308">
+        <v>0</v>
+      </c>
+      <c r="AF308">
+        <v>0</v>
+      </c>
+      <c r="AG308">
+        <v>1.45</v>
+      </c>
+      <c r="AH308">
+        <v>2.56</v>
+      </c>
+      <c r="AI308">
+        <v>2.63</v>
+      </c>
+      <c r="AJ308">
+        <v>1.44</v>
+      </c>
+      <c r="AK308">
+        <v>0</v>
+      </c>
+      <c r="AL308">
+        <v>0</v>
+      </c>
+      <c r="AM308">
+        <v>0</v>
+      </c>
+      <c r="AN308">
+        <v>1.32</v>
+      </c>
+      <c r="AO308">
+        <v>0.58</v>
+      </c>
+      <c r="AP308">
+        <v>1.3</v>
+      </c>
+      <c r="AQ308">
+        <v>0.6</v>
+      </c>
+      <c r="AR308">
+        <v>1.53</v>
+      </c>
+      <c r="AS308">
+        <v>1.11</v>
+      </c>
+      <c r="AT308">
+        <v>2.64</v>
+      </c>
+      <c r="AU308">
+        <v>5</v>
+      </c>
+      <c r="AV308">
+        <v>0</v>
+      </c>
+      <c r="AW308">
+        <v>7</v>
+      </c>
+      <c r="AX308">
+        <v>8</v>
+      </c>
+      <c r="AY308">
+        <v>13</v>
+      </c>
+      <c r="AZ308">
+        <v>12</v>
+      </c>
+      <c r="BA308">
+        <v>6</v>
+      </c>
+      <c r="BB308">
+        <v>6</v>
+      </c>
+      <c r="BC308">
+        <v>12</v>
+      </c>
+      <c r="BD308">
+        <v>0</v>
+      </c>
+      <c r="BE308">
+        <v>0</v>
+      </c>
+      <c r="BF308">
+        <v>0</v>
+      </c>
+      <c r="BG308">
+        <v>0</v>
+      </c>
+      <c r="BH308">
+        <v>0</v>
+      </c>
+      <c r="BI308">
+        <v>0</v>
+      </c>
+      <c r="BJ308">
+        <v>0</v>
+      </c>
+      <c r="BK308">
+        <v>0</v>
+      </c>
+      <c r="BL308">
+        <v>0</v>
+      </c>
+      <c r="BM308">
+        <v>0</v>
+      </c>
+      <c r="BN308">
+        <v>0</v>
+      </c>
+      <c r="BO308">
+        <v>0</v>
+      </c>
+      <c r="BP308">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1497,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP308"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2043,7 +2043,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -5336,7 +5336,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -6163,7 +6163,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ23">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -8220,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ33">
         <v>1.05</v>
@@ -9047,7 +9047,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -10486,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -11931,7 +11931,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ51">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -13988,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ61">
         <v>1.16</v>
@@ -15433,7 +15433,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ68">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -16872,7 +16872,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -17287,7 +17287,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ77">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -20377,7 +20377,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ92">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20992,7 +20992,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ95">
         <v>0.6</v>
@@ -23876,7 +23876,7 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ109">
         <v>1.16</v>
@@ -24291,7 +24291,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -29026,7 +29026,7 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ134">
         <v>0.95</v>
@@ -29647,7 +29647,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ137">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR137">
         <v>1.59</v>
@@ -31913,7 +31913,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ148">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR148">
         <v>1.32</v>
@@ -32528,7 +32528,7 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ151">
         <v>0.9</v>
@@ -35209,7 +35209,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ164">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR164">
         <v>1.45</v>
@@ -36648,7 +36648,7 @@
         <v>0.7</v>
       </c>
       <c r="AP171">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ171">
         <v>1.17</v>
@@ -38711,7 +38711,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ181">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR181">
         <v>1.62</v>
@@ -40974,7 +40974,7 @@
         <v>1.64</v>
       </c>
       <c r="AP192">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ192">
         <v>1.37</v>
@@ -43243,7 +43243,7 @@
         <v>1</v>
       </c>
       <c r="AQ203">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR203">
         <v>1.35</v>
@@ -44064,7 +44064,7 @@
         <v>1.08</v>
       </c>
       <c r="AP207">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ207">
         <v>1</v>
@@ -46745,7 +46745,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ220">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR220">
         <v>1.73</v>
@@ -47360,7 +47360,7 @@
         <v>1.46</v>
       </c>
       <c r="AP223">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ223">
         <v>1.32</v>
@@ -50656,10 +50656,10 @@
         <v>1.43</v>
       </c>
       <c r="AP239">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ239">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR239">
         <v>2.11</v>
@@ -52510,7 +52510,7 @@
         <v>1.07</v>
       </c>
       <c r="AP248">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ248">
         <v>1.16</v>
@@ -53543,7 +53543,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ253">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR253">
         <v>1.7</v>
@@ -55188,7 +55188,7 @@
         <v>1.38</v>
       </c>
       <c r="AP261">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ261">
         <v>1.4</v>
@@ -56015,7 +56015,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ265">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR265">
         <v>1.89</v>
@@ -58896,7 +58896,7 @@
         <v>1.5</v>
       </c>
       <c r="AP279">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ279">
         <v>1.37</v>
@@ -59311,7 +59311,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ281">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR281">
         <v>1.33</v>
@@ -60135,7 +60135,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ285">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AR285">
         <v>1.56</v>
@@ -62604,7 +62604,7 @@
         <v>1.39</v>
       </c>
       <c r="AP297">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ297">
         <v>1.32</v>
@@ -64949,6 +64949,212 @@
       </c>
       <c r="BP308">
         <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7856925</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45794.58333333334</v>
+      </c>
+      <c r="F309">
+        <v>9</v>
+      </c>
+      <c r="G309" t="s">
+        <v>74</v>
+      </c>
+      <c r="H309" t="s">
+        <v>80</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+      <c r="O309" t="s">
+        <v>260</v>
+      </c>
+      <c r="P309" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q309">
+        <v>2.7</v>
+      </c>
+      <c r="R309">
+        <v>1.95</v>
+      </c>
+      <c r="S309">
+        <v>4.2</v>
+      </c>
+      <c r="T309">
+        <v>1.48</v>
+      </c>
+      <c r="U309">
+        <v>2.45</v>
+      </c>
+      <c r="V309">
+        <v>3.3</v>
+      </c>
+      <c r="W309">
+        <v>1.28</v>
+      </c>
+      <c r="X309">
+        <v>8.1</v>
+      </c>
+      <c r="Y309">
+        <v>1.02</v>
+      </c>
+      <c r="Z309">
+        <v>2.09</v>
+      </c>
+      <c r="AA309">
+        <v>3.12</v>
+      </c>
+      <c r="AB309">
+        <v>3.13</v>
+      </c>
+      <c r="AC309">
+        <v>1.04</v>
+      </c>
+      <c r="AD309">
+        <v>6.9</v>
+      </c>
+      <c r="AE309">
+        <v>1.39</v>
+      </c>
+      <c r="AF309">
+        <v>2.6</v>
+      </c>
+      <c r="AG309">
+        <v>1.95</v>
+      </c>
+      <c r="AH309">
+        <v>1.75</v>
+      </c>
+      <c r="AI309">
+        <v>1.95</v>
+      </c>
+      <c r="AJ309">
+        <v>1.7</v>
+      </c>
+      <c r="AK309">
+        <v>1.25</v>
+      </c>
+      <c r="AL309">
+        <v>1.28</v>
+      </c>
+      <c r="AM309">
+        <v>1.7</v>
+      </c>
+      <c r="AN309">
+        <v>2.05</v>
+      </c>
+      <c r="AO309">
+        <v>1.37</v>
+      </c>
+      <c r="AP309">
+        <v>2.1</v>
+      </c>
+      <c r="AQ309">
+        <v>1.3</v>
+      </c>
+      <c r="AR309">
+        <v>1.94</v>
+      </c>
+      <c r="AS309">
+        <v>1.51</v>
+      </c>
+      <c r="AT309">
+        <v>3.45</v>
+      </c>
+      <c r="AU309">
+        <v>2</v>
+      </c>
+      <c r="AV309">
+        <v>5</v>
+      </c>
+      <c r="AW309">
+        <v>2</v>
+      </c>
+      <c r="AX309">
+        <v>14</v>
+      </c>
+      <c r="AY309">
+        <v>4</v>
+      </c>
+      <c r="AZ309">
+        <v>26</v>
+      </c>
+      <c r="BA309">
+        <v>4</v>
+      </c>
+      <c r="BB309">
+        <v>6</v>
+      </c>
+      <c r="BC309">
+        <v>10</v>
+      </c>
+      <c r="BD309">
+        <v>1.67</v>
+      </c>
+      <c r="BE309">
+        <v>6.4</v>
+      </c>
+      <c r="BF309">
+        <v>2.48</v>
+      </c>
+      <c r="BG309">
+        <v>1.4</v>
+      </c>
+      <c r="BH309">
+        <v>2.65</v>
+      </c>
+      <c r="BI309">
+        <v>1.68</v>
+      </c>
+      <c r="BJ309">
+        <v>2</v>
+      </c>
+      <c r="BK309">
+        <v>2.1</v>
+      </c>
+      <c r="BL309">
+        <v>1.61</v>
+      </c>
+      <c r="BM309">
+        <v>2.7</v>
+      </c>
+      <c r="BN309">
+        <v>1.38</v>
+      </c>
+      <c r="BO309">
+        <v>3.55</v>
+      </c>
+      <c r="BP309">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="377">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,12 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['68', '70']</t>
+  </si>
+  <si>
+    <t>['15', '75']</t>
+  </si>
+  <si>
     <t>['14', '34']</t>
   </si>
   <si>
@@ -1136,6 +1142,9 @@
   </si>
   <si>
     <t>['84', '90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['33', '39']</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2786,7 +2795,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2992,7 +3001,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3070,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ8">
         <v>1.4</v>
@@ -3482,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10">
         <v>0.9</v>
@@ -3610,7 +3619,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3688,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
         <v>1.95</v>
@@ -3816,7 +3825,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -4022,7 +4031,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4228,7 +4237,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4309,7 +4318,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4434,7 +4443,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4515,7 +4524,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ15">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4640,7 +4649,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4721,7 +4730,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5258,7 +5267,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5464,7 +5473,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5542,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20">
         <v>0.6</v>
@@ -5876,7 +5885,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6082,7 +6091,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6781,7 +6790,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -7399,7 +7408,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ29">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -7524,7 +7533,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7730,7 +7739,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7808,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
         <v>1.16</v>
@@ -7936,7 +7945,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8017,7 +8026,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -8142,7 +8151,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8966,7 +8975,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9584,7 +9593,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9662,7 +9671,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
         <v>1.32</v>
@@ -9790,7 +9799,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9868,10 +9877,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -10280,7 +10289,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ43">
         <v>1.16</v>
@@ -10901,7 +10910,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -11026,7 +11035,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11107,7 +11116,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -11438,7 +11447,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11516,7 +11525,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49">
         <v>1.16</v>
@@ -12468,7 +12477,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12961,7 +12970,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -13086,7 +13095,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13498,7 +13507,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13576,10 +13585,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13704,7 +13713,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -14116,7 +14125,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14194,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ62">
         <v>0.6</v>
@@ -15146,7 +15155,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15430,7 +15439,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ68">
         <v>1.3</v>
@@ -15558,7 +15567,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15845,7 +15854,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ70">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15970,7 +15979,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16176,7 +16185,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16254,7 +16263,7 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ72">
         <v>0.6</v>
@@ -16794,7 +16803,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16875,7 +16884,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -17081,7 +17090,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -17206,7 +17215,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17618,7 +17627,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17696,7 +17705,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ79">
         <v>1.16</v>
@@ -17905,7 +17914,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ80">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -18030,7 +18039,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18314,7 +18323,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ82">
         <v>1.4</v>
@@ -18442,7 +18451,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -19060,7 +19069,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19553,7 +19562,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ88">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19884,7 +19893,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19962,7 +19971,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ90">
         <v>1.4</v>
@@ -20090,7 +20099,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20296,7 +20305,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20502,7 +20511,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20583,7 +20592,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20786,7 +20795,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ94">
         <v>1.16</v>
@@ -20914,7 +20923,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21201,7 +21210,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -22150,7 +22159,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22434,7 +22443,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ102">
         <v>0.95</v>
@@ -22768,7 +22777,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22849,7 +22858,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -23386,7 +23395,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23592,7 +23601,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -24004,7 +24013,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24082,7 +24091,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ110">
         <v>1.4</v>
@@ -24210,7 +24219,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24622,7 +24631,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24703,7 +24712,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR113">
         <v>1.54</v>
@@ -25034,7 +25043,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25112,7 +25121,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115">
         <v>1.4</v>
@@ -25730,7 +25739,7 @@
         <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
         <v>0.9</v>
@@ -25939,7 +25948,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ119">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -26270,7 +26279,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26476,7 +26485,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26554,10 +26563,10 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26763,7 +26772,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ123">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR123">
         <v>1.82</v>
@@ -27172,7 +27181,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ125">
         <v>1.05</v>
@@ -27300,7 +27309,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27587,7 +27596,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ127">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR127">
         <v>1.4</v>
@@ -27996,7 +28005,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ129">
         <v>1.95</v>
@@ -28742,7 +28751,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29438,7 +29447,7 @@
         <v>0.57</v>
       </c>
       <c r="AP136">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ136">
         <v>0.75</v>
@@ -29566,7 +29575,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29850,7 +29859,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ138">
         <v>1.05</v>
@@ -30059,7 +30068,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ139">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR139">
         <v>1.55</v>
@@ -30184,7 +30193,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30262,10 +30271,10 @@
         <v>0.13</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ140">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR140">
         <v>1.45</v>
@@ -30596,7 +30605,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30677,7 +30686,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR142">
         <v>1.14</v>
@@ -30802,7 +30811,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -31008,7 +31017,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31214,7 +31223,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31626,7 +31635,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31832,7 +31841,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32038,7 +32047,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32244,7 +32253,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32322,7 +32331,7 @@
         <v>0.89</v>
       </c>
       <c r="AP150">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
         <v>1.05</v>
@@ -32862,7 +32871,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -33068,7 +33077,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33146,10 +33155,10 @@
         <v>0.44</v>
       </c>
       <c r="AP154">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ154">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR154">
         <v>1.64</v>
@@ -33686,7 +33695,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33767,7 +33776,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR157">
         <v>1.79</v>
@@ -33973,7 +33982,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -34176,7 +34185,7 @@
         <v>1.78</v>
       </c>
       <c r="AP159">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ159">
         <v>1.37</v>
@@ -35128,7 +35137,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35540,7 +35549,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -36158,7 +36167,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36236,7 +36245,7 @@
         <v>1.6</v>
       </c>
       <c r="AP169">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ169">
         <v>1.95</v>
@@ -36364,7 +36373,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36442,10 +36451,10 @@
         <v>1.2</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36651,7 +36660,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ171">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR171">
         <v>2.04</v>
@@ -37063,7 +37072,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ173">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -37266,7 +37275,7 @@
         <v>1.7</v>
       </c>
       <c r="AP174">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ174">
         <v>1.37</v>
@@ -38424,7 +38433,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -38502,10 +38511,10 @@
         <v>0.73</v>
       </c>
       <c r="AP180">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ180">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR180">
         <v>1.37</v>
@@ -39866,7 +39875,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -39944,7 +39953,7 @@
         <v>1.36</v>
       </c>
       <c r="AP187">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ187">
         <v>1.32</v>
@@ -40150,10 +40159,10 @@
         <v>1.09</v>
       </c>
       <c r="AP188">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR188">
         <v>1.69</v>
@@ -40278,7 +40287,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -41102,7 +41111,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41183,7 +41192,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ193">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR193">
         <v>1.72</v>
@@ -41308,7 +41317,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -42007,7 +42016,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ197">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR197">
         <v>1.86</v>
@@ -42416,7 +42425,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ199">
         <v>1.16</v>
@@ -42956,7 +42965,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43034,7 +43043,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ202">
         <v>1.32</v>
@@ -43162,7 +43171,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43240,7 +43249,7 @@
         <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ203">
         <v>1.3</v>
@@ -43574,7 +43583,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43655,7 +43664,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ205">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR205">
         <v>1.24</v>
@@ -43780,7 +43789,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -44067,7 +44076,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR207">
         <v>2.04</v>
@@ -44398,7 +44407,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44604,7 +44613,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44685,7 +44694,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ210">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR210">
         <v>1.42</v>
@@ -45222,7 +45231,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45506,7 +45515,7 @@
         <v>1.69</v>
       </c>
       <c r="AP214">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
         <v>1.37</v>
@@ -45634,7 +45643,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45840,7 +45849,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -46252,7 +46261,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46664,7 +46673,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -46742,7 +46751,7 @@
         <v>1.46</v>
       </c>
       <c r="AP220">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ220">
         <v>1.3</v>
@@ -46951,7 +46960,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ221">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR221">
         <v>1.86</v>
@@ -47154,7 +47163,7 @@
         <v>0.46</v>
       </c>
       <c r="AP222">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ222">
         <v>0.75</v>
@@ -47488,7 +47497,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47569,7 +47578,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ224">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR224">
         <v>1.55</v>
@@ -47694,7 +47703,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -47978,7 +47987,7 @@
         <v>0.93</v>
       </c>
       <c r="AP226">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ226">
         <v>1.4</v>
@@ -48106,7 +48115,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48312,7 +48321,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -48802,10 +48811,10 @@
         <v>1.07</v>
       </c>
       <c r="AP230">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR230">
         <v>1.44</v>
@@ -49423,7 +49432,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ233">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR233">
         <v>1.34</v>
@@ -49548,7 +49557,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49754,7 +49763,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -50041,7 +50050,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ236">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR236">
         <v>1.33</v>
@@ -50862,7 +50871,7 @@
         <v>0.93</v>
       </c>
       <c r="AP240">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ240">
         <v>0.95</v>
@@ -50990,7 +50999,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51196,7 +51205,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -52432,7 +52441,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52638,7 +52647,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -52922,10 +52931,10 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ250">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR250">
         <v>1.45</v>
@@ -53050,7 +53059,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53131,7 +53140,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ251">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR251">
         <v>1.48</v>
@@ -53256,7 +53265,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53334,7 +53343,7 @@
         <v>0.87</v>
       </c>
       <c r="AP252">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ252">
         <v>1.05</v>
@@ -53462,7 +53471,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53746,7 +53755,7 @@
         <v>1.27</v>
       </c>
       <c r="AP254">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ254">
         <v>1.16</v>
@@ -53874,7 +53883,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -54080,7 +54089,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54698,7 +54707,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -54779,7 +54788,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ259">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR259">
         <v>1.35</v>
@@ -55316,7 +55325,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -56140,7 +56149,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56427,7 +56436,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ267">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR267">
         <v>1.39</v>
@@ -56552,7 +56561,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56758,7 +56767,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -57042,7 +57051,7 @@
         <v>1.19</v>
       </c>
       <c r="AP270">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ270">
         <v>1.16</v>
@@ -57454,7 +57463,7 @@
         <v>1.12</v>
       </c>
       <c r="AP272">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ272">
         <v>1.4</v>
@@ -57582,7 +57591,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -58075,7 +58084,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ275">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR275">
         <v>1.53</v>
@@ -58281,7 +58290,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ276">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR276">
         <v>1.7</v>
@@ -58406,7 +58415,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58690,7 +58699,7 @@
         <v>0.88</v>
       </c>
       <c r="AP278">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ278">
         <v>0.9</v>
@@ -58818,7 +58827,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59230,7 +59239,7 @@
         <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q281">
         <v>3.75</v>
@@ -59514,7 +59523,7 @@
         <v>0.78</v>
       </c>
       <c r="AP282">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ282">
         <v>0.75</v>
@@ -59642,7 +59651,7 @@
         <v>86</v>
       </c>
       <c r="P283" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60260,7 +60269,7 @@
         <v>86</v>
       </c>
       <c r="P286" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q286">
         <v>4</v>
@@ -60466,7 +60475,7 @@
         <v>141</v>
       </c>
       <c r="P287" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q287">
         <v>4.5</v>
@@ -61162,10 +61171,10 @@
         <v>1</v>
       </c>
       <c r="AP290">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AQ290">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR290">
         <v>1.44</v>
@@ -61290,7 +61299,7 @@
         <v>109</v>
       </c>
       <c r="P291" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q291">
         <v>2.45</v>
@@ -61496,7 +61505,7 @@
         <v>109</v>
       </c>
       <c r="P292" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q292">
         <v>2.05</v>
@@ -61574,7 +61583,7 @@
         <v>0.83</v>
       </c>
       <c r="AP292">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ292">
         <v>0.95</v>
@@ -62114,7 +62123,7 @@
         <v>121</v>
       </c>
       <c r="P295" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q295">
         <v>2.94</v>
@@ -62195,7 +62204,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ295">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR295">
         <v>1.51</v>
@@ -62401,7 +62410,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ296">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR296">
         <v>1.53</v>
@@ -62526,7 +62535,7 @@
         <v>257</v>
       </c>
       <c r="P297" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q297">
         <v>1.94</v>
@@ -62732,7 +62741,7 @@
         <v>86</v>
       </c>
       <c r="P298" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q298">
         <v>6.25</v>
@@ -63144,7 +63153,7 @@
         <v>228</v>
       </c>
       <c r="P300" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q300">
         <v>2.45</v>
@@ -63556,7 +63565,7 @@
         <v>259</v>
       </c>
       <c r="P302" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q302">
         <v>3.2</v>
@@ -63762,7 +63771,7 @@
         <v>86</v>
       </c>
       <c r="P303" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q303">
         <v>4.2</v>
@@ -63968,7 +63977,7 @@
         <v>165</v>
       </c>
       <c r="P304" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q304">
         <v>3.4</v>
@@ -64586,7 +64595,7 @@
         <v>239</v>
       </c>
       <c r="P307" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q307">
         <v>3.2</v>
@@ -65155,6 +65164,624 @@
       </c>
       <c r="BP309">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7856930</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45795.41666666666</v>
+      </c>
+      <c r="F310">
+        <v>9</v>
+      </c>
+      <c r="G310" t="s">
+        <v>78</v>
+      </c>
+      <c r="H310" t="s">
+        <v>77</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>2</v>
+      </c>
+      <c r="K310">
+        <v>2</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310">
+        <v>2</v>
+      </c>
+      <c r="N310">
+        <v>2</v>
+      </c>
+      <c r="O310" t="s">
+        <v>86</v>
+      </c>
+      <c r="P310" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q310">
+        <v>4</v>
+      </c>
+      <c r="R310">
+        <v>1.91</v>
+      </c>
+      <c r="S310">
+        <v>3.25</v>
+      </c>
+      <c r="T310">
+        <v>1.62</v>
+      </c>
+      <c r="U310">
+        <v>2.2</v>
+      </c>
+      <c r="V310">
+        <v>4</v>
+      </c>
+      <c r="W310">
+        <v>1.22</v>
+      </c>
+      <c r="X310">
+        <v>13</v>
+      </c>
+      <c r="Y310">
+        <v>1.04</v>
+      </c>
+      <c r="Z310">
+        <v>2.29</v>
+      </c>
+      <c r="AA310">
+        <v>2.79</v>
+      </c>
+      <c r="AB310">
+        <v>3.08</v>
+      </c>
+      <c r="AC310">
+        <v>0</v>
+      </c>
+      <c r="AD310">
+        <v>0</v>
+      </c>
+      <c r="AE310">
+        <v>1.57</v>
+      </c>
+      <c r="AF310">
+        <v>2.15</v>
+      </c>
+      <c r="AG310">
+        <v>2.73</v>
+      </c>
+      <c r="AH310">
+        <v>1.4</v>
+      </c>
+      <c r="AI310">
+        <v>2.25</v>
+      </c>
+      <c r="AJ310">
+        <v>1.57</v>
+      </c>
+      <c r="AK310">
+        <v>0</v>
+      </c>
+      <c r="AL310">
+        <v>0</v>
+      </c>
+      <c r="AM310">
+        <v>0</v>
+      </c>
+      <c r="AN310">
+        <v>1.56</v>
+      </c>
+      <c r="AO310">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP310">
+        <v>1.47</v>
+      </c>
+      <c r="AQ310">
+        <v>1.05</v>
+      </c>
+      <c r="AR310">
+        <v>1.42</v>
+      </c>
+      <c r="AS310">
+        <v>1.33</v>
+      </c>
+      <c r="AT310">
+        <v>2.75</v>
+      </c>
+      <c r="AU310">
+        <v>4</v>
+      </c>
+      <c r="AV310">
+        <v>4</v>
+      </c>
+      <c r="AW310">
+        <v>6</v>
+      </c>
+      <c r="AX310">
+        <v>1</v>
+      </c>
+      <c r="AY310">
+        <v>11</v>
+      </c>
+      <c r="AZ310">
+        <v>6</v>
+      </c>
+      <c r="BA310">
+        <v>5</v>
+      </c>
+      <c r="BB310">
+        <v>1</v>
+      </c>
+      <c r="BC310">
+        <v>6</v>
+      </c>
+      <c r="BD310">
+        <v>0</v>
+      </c>
+      <c r="BE310">
+        <v>0</v>
+      </c>
+      <c r="BF310">
+        <v>0</v>
+      </c>
+      <c r="BG310">
+        <v>0</v>
+      </c>
+      <c r="BH310">
+        <v>0</v>
+      </c>
+      <c r="BI310">
+        <v>0</v>
+      </c>
+      <c r="BJ310">
+        <v>0</v>
+      </c>
+      <c r="BK310">
+        <v>0</v>
+      </c>
+      <c r="BL310">
+        <v>0</v>
+      </c>
+      <c r="BM310">
+        <v>0</v>
+      </c>
+      <c r="BN310">
+        <v>0</v>
+      </c>
+      <c r="BO310">
+        <v>0</v>
+      </c>
+      <c r="BP310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:68">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7856931</v>
+      </c>
+      <c r="C311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>69</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45795.41666666666</v>
+      </c>
+      <c r="F311">
+        <v>9</v>
+      </c>
+      <c r="G311" t="s">
+        <v>76</v>
+      </c>
+      <c r="H311" t="s">
+        <v>71</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>2</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311">
+        <v>3</v>
+      </c>
+      <c r="O311" t="s">
+        <v>261</v>
+      </c>
+      <c r="P311" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q311">
+        <v>2.21</v>
+      </c>
+      <c r="R311">
+        <v>2.11</v>
+      </c>
+      <c r="S311">
+        <v>5.6</v>
+      </c>
+      <c r="T311">
+        <v>1.4</v>
+      </c>
+      <c r="U311">
+        <v>2.73</v>
+      </c>
+      <c r="V311">
+        <v>3.04</v>
+      </c>
+      <c r="W311">
+        <v>1.33</v>
+      </c>
+      <c r="X311">
+        <v>8.4</v>
+      </c>
+      <c r="Y311">
+        <v>1.01</v>
+      </c>
+      <c r="Z311">
+        <v>1.63</v>
+      </c>
+      <c r="AA311">
+        <v>3.4</v>
+      </c>
+      <c r="AB311">
+        <v>4.7</v>
+      </c>
+      <c r="AC311">
+        <v>1.02</v>
+      </c>
+      <c r="AD311">
+        <v>7.7</v>
+      </c>
+      <c r="AE311">
+        <v>1.28</v>
+      </c>
+      <c r="AF311">
+        <v>3.1</v>
+      </c>
+      <c r="AG311">
+        <v>1.92</v>
+      </c>
+      <c r="AH311">
+        <v>1.78</v>
+      </c>
+      <c r="AI311">
+        <v>1.98</v>
+      </c>
+      <c r="AJ311">
+        <v>1.74</v>
+      </c>
+      <c r="AK311">
+        <v>1.15</v>
+      </c>
+      <c r="AL311">
+        <v>1.26</v>
+      </c>
+      <c r="AM311">
+        <v>2.19</v>
+      </c>
+      <c r="AN311">
+        <v>1.28</v>
+      </c>
+      <c r="AO311">
+        <v>1.17</v>
+      </c>
+      <c r="AP311">
+        <v>1.37</v>
+      </c>
+      <c r="AQ311">
+        <v>1.11</v>
+      </c>
+      <c r="AR311">
+        <v>1.86</v>
+      </c>
+      <c r="AS311">
+        <v>1.29</v>
+      </c>
+      <c r="AT311">
+        <v>3.15</v>
+      </c>
+      <c r="AU311">
+        <v>6</v>
+      </c>
+      <c r="AV311">
+        <v>4</v>
+      </c>
+      <c r="AW311">
+        <v>5</v>
+      </c>
+      <c r="AX311">
+        <v>3</v>
+      </c>
+      <c r="AY311">
+        <v>13</v>
+      </c>
+      <c r="AZ311">
+        <v>8</v>
+      </c>
+      <c r="BA311">
+        <v>2</v>
+      </c>
+      <c r="BB311">
+        <v>3</v>
+      </c>
+      <c r="BC311">
+        <v>5</v>
+      </c>
+      <c r="BD311">
+        <v>1.5</v>
+      </c>
+      <c r="BE311">
+        <v>6.5</v>
+      </c>
+      <c r="BF311">
+        <v>2.8</v>
+      </c>
+      <c r="BG311">
+        <v>1.43</v>
+      </c>
+      <c r="BH311">
+        <v>2.55</v>
+      </c>
+      <c r="BI311">
+        <v>1.71</v>
+      </c>
+      <c r="BJ311">
+        <v>1.96</v>
+      </c>
+      <c r="BK311">
+        <v>2.15</v>
+      </c>
+      <c r="BL311">
+        <v>1.6</v>
+      </c>
+      <c r="BM311">
+        <v>2.8</v>
+      </c>
+      <c r="BN311">
+        <v>1.36</v>
+      </c>
+      <c r="BO311">
+        <v>3.65</v>
+      </c>
+      <c r="BP311">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="312" spans="1:68">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7856932</v>
+      </c>
+      <c r="C312" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" t="s">
+        <v>69</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45795.41666666666</v>
+      </c>
+      <c r="F312">
+        <v>9</v>
+      </c>
+      <c r="G312" t="s">
+        <v>79</v>
+      </c>
+      <c r="H312" t="s">
+        <v>72</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="L312">
+        <v>2</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>3</v>
+      </c>
+      <c r="O312" t="s">
+        <v>262</v>
+      </c>
+      <c r="P312" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q312">
+        <v>3.42</v>
+      </c>
+      <c r="R312">
+        <v>2.06</v>
+      </c>
+      <c r="S312">
+        <v>3.06</v>
+      </c>
+      <c r="T312">
+        <v>1.37</v>
+      </c>
+      <c r="U312">
+        <v>2.85</v>
+      </c>
+      <c r="V312">
+        <v>2.81</v>
+      </c>
+      <c r="W312">
+        <v>1.38</v>
+      </c>
+      <c r="X312">
+        <v>7.5</v>
+      </c>
+      <c r="Y312">
+        <v>1.03</v>
+      </c>
+      <c r="Z312">
+        <v>2.9</v>
+      </c>
+      <c r="AA312">
+        <v>3.02</v>
+      </c>
+      <c r="AB312">
+        <v>2.25</v>
+      </c>
+      <c r="AC312">
+        <v>1</v>
+      </c>
+      <c r="AD312">
+        <v>9.1</v>
+      </c>
+      <c r="AE312">
+        <v>1.23</v>
+      </c>
+      <c r="AF312">
+        <v>3.44</v>
+      </c>
+      <c r="AG312">
+        <v>1.85</v>
+      </c>
+      <c r="AH312">
+        <v>1.8</v>
+      </c>
+      <c r="AI312">
+        <v>1.69</v>
+      </c>
+      <c r="AJ312">
+        <v>2.04</v>
+      </c>
+      <c r="AK312">
+        <v>1.53</v>
+      </c>
+      <c r="AL312">
+        <v>1.31</v>
+      </c>
+      <c r="AM312">
+        <v>1.42</v>
+      </c>
+      <c r="AN312">
+        <v>1</v>
+      </c>
+      <c r="AO312">
+        <v>1</v>
+      </c>
+      <c r="AP312">
+        <v>1.11</v>
+      </c>
+      <c r="AQ312">
+        <v>0.95</v>
+      </c>
+      <c r="AR312">
+        <v>1.43</v>
+      </c>
+      <c r="AS312">
+        <v>1.45</v>
+      </c>
+      <c r="AT312">
+        <v>2.88</v>
+      </c>
+      <c r="AU312">
+        <v>6</v>
+      </c>
+      <c r="AV312">
+        <v>8</v>
+      </c>
+      <c r="AW312">
+        <v>6</v>
+      </c>
+      <c r="AX312">
+        <v>7</v>
+      </c>
+      <c r="AY312">
+        <v>15</v>
+      </c>
+      <c r="AZ312">
+        <v>15</v>
+      </c>
+      <c r="BA312">
+        <v>6</v>
+      </c>
+      <c r="BB312">
+        <v>2</v>
+      </c>
+      <c r="BC312">
+        <v>8</v>
+      </c>
+      <c r="BD312">
+        <v>2.2</v>
+      </c>
+      <c r="BE312">
+        <v>6.75</v>
+      </c>
+      <c r="BF312">
+        <v>1.79</v>
+      </c>
+      <c r="BG312">
+        <v>1.25</v>
+      </c>
+      <c r="BH312">
+        <v>3.4</v>
+      </c>
+      <c r="BI312">
+        <v>1.44</v>
+      </c>
+      <c r="BJ312">
+        <v>2.55</v>
+      </c>
+      <c r="BK312">
+        <v>1.73</v>
+      </c>
+      <c r="BL312">
+        <v>1.94</v>
+      </c>
+      <c r="BM312">
+        <v>2.14</v>
+      </c>
+      <c r="BN312">
+        <v>1.6</v>
+      </c>
+      <c r="BO312">
+        <v>2.7</v>
+      </c>
+      <c r="BP312">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,10 +799,13 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['15', '75']</t>
+  </si>
+  <si>
     <t>['68', '70']</t>
   </si>
   <si>
-    <t>['15', '75']</t>
+    <t>['90']</t>
   </si>
   <si>
     <t>['14', '34']</t>
@@ -959,9 +962,6 @@
   </si>
   <si>
     <t>['30', '51']</t>
-  </si>
-  <si>
-    <t>['90']</t>
   </si>
   <si>
     <t>['68', '82']</t>
@@ -1145,6 +1145,9 @@
   </si>
   <si>
     <t>['33', '39']</t>
+  </si>
+  <si>
+    <t>['11', '40', '45+3', '70']</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP312"/>
+  <dimension ref="A1:BP313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2795,7 +2798,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -3001,7 +3004,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3619,7 +3622,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3825,7 +3828,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -4031,7 +4034,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4109,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ13">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4237,7 +4240,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4443,7 +4446,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4649,7 +4652,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5267,7 +5270,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5473,7 +5476,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5885,7 +5888,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6091,7 +6094,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7533,7 +7536,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7739,7 +7742,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7945,7 +7948,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8023,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ32">
         <v>0.95</v>
@@ -8151,7 +8154,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8975,7 +8978,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9593,7 +9596,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9799,7 +9802,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10701,7 +10704,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ45">
         <v>1.32</v>
@@ -11035,7 +11038,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11447,7 +11450,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -12477,7 +12480,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13095,7 +13098,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13507,7 +13510,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13713,7 +13716,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13794,7 +13797,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -14125,7 +14128,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -15155,7 +15158,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15567,7 +15570,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15979,7 +15982,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16057,7 +16060,7 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ71">
         <v>1.4</v>
@@ -16185,7 +16188,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16678,7 +16681,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16803,7 +16806,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17215,7 +17218,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17627,7 +17630,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -18039,7 +18042,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18451,7 +18454,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18735,7 +18738,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ84">
         <v>1.4</v>
@@ -19069,7 +19072,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19893,7 +19896,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20099,7 +20102,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20305,7 +20308,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20511,7 +20514,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20923,7 +20926,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21828,7 +21831,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ99">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -22159,7 +22162,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22649,7 +22652,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103">
         <v>1.05</v>
@@ -22777,7 +22780,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23395,7 +23398,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23601,7 +23604,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -24013,7 +24016,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24219,7 +24222,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24506,7 +24509,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ112">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24631,7 +24634,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25043,7 +25046,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25945,7 +25948,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ119">
         <v>1.11</v>
@@ -26279,7 +26282,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26360,7 +26363,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ121">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26485,7 +26488,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26975,7 +26978,7 @@
         <v>0.86</v>
       </c>
       <c r="AP124">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ124">
         <v>1.16</v>
@@ -27309,7 +27312,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27802,7 +27805,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ128">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -28751,7 +28754,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -30065,7 +30068,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ139">
         <v>1.05</v>
@@ -30811,7 +30814,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30892,7 +30895,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ143">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -31017,7 +31020,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31841,7 +31844,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32952,7 +32955,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ153">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR153">
         <v>1.53</v>
@@ -34188,7 +34191,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ159">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR159">
         <v>1.46</v>
@@ -34597,7 +34600,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP161">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ161">
         <v>0.6</v>
@@ -37278,7 +37281,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ174">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR174">
         <v>1.61</v>
@@ -37893,7 +37896,7 @@
         <v>0.5</v>
       </c>
       <c r="AP177">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177">
         <v>0.75</v>
@@ -38717,7 +38720,7 @@
         <v>1.45</v>
       </c>
       <c r="AP181">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ181">
         <v>1.3</v>
@@ -40287,7 +40290,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40986,7 +40989,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ192">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR192">
         <v>2.13</v>
@@ -41601,7 +41604,7 @@
         <v>1.08</v>
       </c>
       <c r="AP195">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ195">
         <v>0.95</v>
@@ -43583,7 +43586,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -44488,7 +44491,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ209">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR209">
         <v>1.6</v>
@@ -45518,7 +45521,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ214">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR214">
         <v>1.44</v>
@@ -46133,7 +46136,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP217">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ217">
         <v>0.9</v>
@@ -48115,7 +48118,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48196,7 +48199,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ227">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR227">
         <v>1.44</v>
@@ -49017,7 +49020,7 @@
         <v>1.86</v>
       </c>
       <c r="AP231">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ231">
         <v>1.95</v>
@@ -53549,7 +53552,7 @@
         <v>1.33</v>
       </c>
       <c r="AP253">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ253">
         <v>1.3</v>
@@ -54376,7 +54379,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ257">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR257">
         <v>1.65</v>
@@ -55609,7 +55612,7 @@
         <v>1.38</v>
       </c>
       <c r="AP263">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ263">
         <v>1.32</v>
@@ -56149,7 +56152,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -58493,7 +58496,7 @@
         <v>1.29</v>
       </c>
       <c r="AP277">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ277">
         <v>1.4</v>
@@ -58908,7 +58911,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ279">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR279">
         <v>2.05</v>
@@ -60553,7 +60556,7 @@
         <v>1.82</v>
       </c>
       <c r="AP287">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AQ287">
         <v>1.95</v>
@@ -60968,7 +60971,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ289">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR289">
         <v>1.33</v>
@@ -61505,7 +61508,7 @@
         <v>109</v>
       </c>
       <c r="P292" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q292">
         <v>2.05</v>
@@ -63646,7 +63649,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ302">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AR302">
         <v>1.82</v>
@@ -65171,7 +65174,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>7856930</v>
+        <v>7856932</v>
       </c>
       <c r="C310" t="s">
         <v>68</v>
@@ -65186,190 +65189,190 @@
         <v>9</v>
       </c>
       <c r="G310" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H310" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O310" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="P310" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="Q310">
-        <v>4</v>
+        <v>3.42</v>
       </c>
       <c r="R310">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="S310">
-        <v>3.25</v>
+        <v>3.06</v>
       </c>
       <c r="T310">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="U310">
-        <v>2.2</v>
+        <v>2.85</v>
       </c>
       <c r="V310">
-        <v>4</v>
+        <v>2.81</v>
       </c>
       <c r="W310">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="X310">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="Y310">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z310">
-        <v>2.29</v>
+        <v>2.9</v>
       </c>
       <c r="AA310">
-        <v>2.79</v>
+        <v>3.02</v>
       </c>
       <c r="AB310">
-        <v>3.08</v>
+        <v>2.25</v>
       </c>
       <c r="AC310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD310">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AE310">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="AF310">
-        <v>2.15</v>
+        <v>3.44</v>
       </c>
       <c r="AG310">
-        <v>2.73</v>
+        <v>1.85</v>
       </c>
       <c r="AH310">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AI310">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="AJ310">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="AK310">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AL310">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AM310">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AN310">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AO310">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP310">
-        <v>1.47</v>
+        <v>1.11</v>
       </c>
       <c r="AQ310">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AR310">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AS310">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AT310">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AU310">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV310">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW310">
         <v>6</v>
       </c>
       <c r="AX310">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY310">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ310">
+        <v>15</v>
+      </c>
+      <c r="BA310">
         <v>6</v>
       </c>
-      <c r="BA310">
-        <v>5</v>
-      </c>
       <c r="BB310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC310">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD310">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BE310">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="BF310">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="BG310">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BH310">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BI310">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BJ310">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BK310">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BL310">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="BM310">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BN310">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BO310">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BP310">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="311" spans="1:68">
@@ -65377,7 +65380,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>7856931</v>
+        <v>7856930</v>
       </c>
       <c r="C311" t="s">
         <v>68</v>
@@ -65392,190 +65395,190 @@
         <v>9</v>
       </c>
       <c r="G311" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H311" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I311">
         <v>0</v>
       </c>
       <c r="J311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N311">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O311" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="P311" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="Q311">
-        <v>2.21</v>
+        <v>4</v>
       </c>
       <c r="R311">
-        <v>2.11</v>
+        <v>1.91</v>
       </c>
       <c r="S311">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="T311">
+        <v>1.62</v>
+      </c>
+      <c r="U311">
+        <v>2.2</v>
+      </c>
+      <c r="V311">
+        <v>4</v>
+      </c>
+      <c r="W311">
+        <v>1.22</v>
+      </c>
+      <c r="X311">
+        <v>13</v>
+      </c>
+      <c r="Y311">
+        <v>1.04</v>
+      </c>
+      <c r="Z311">
+        <v>2.29</v>
+      </c>
+      <c r="AA311">
+        <v>2.79</v>
+      </c>
+      <c r="AB311">
+        <v>3.08</v>
+      </c>
+      <c r="AC311">
+        <v>0</v>
+      </c>
+      <c r="AD311">
+        <v>0</v>
+      </c>
+      <c r="AE311">
+        <v>1.57</v>
+      </c>
+      <c r="AF311">
+        <v>2.15</v>
+      </c>
+      <c r="AG311">
+        <v>2.73</v>
+      </c>
+      <c r="AH311">
         <v>1.4</v>
       </c>
-      <c r="U311">
-        <v>2.73</v>
-      </c>
-      <c r="V311">
-        <v>3.04</v>
-      </c>
-      <c r="W311">
+      <c r="AI311">
+        <v>2.25</v>
+      </c>
+      <c r="AJ311">
+        <v>1.57</v>
+      </c>
+      <c r="AK311">
+        <v>0</v>
+      </c>
+      <c r="AL311">
+        <v>0</v>
+      </c>
+      <c r="AM311">
+        <v>0</v>
+      </c>
+      <c r="AN311">
+        <v>1.56</v>
+      </c>
+      <c r="AO311">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP311">
+        <v>1.47</v>
+      </c>
+      <c r="AQ311">
+        <v>1.05</v>
+      </c>
+      <c r="AR311">
+        <v>1.42</v>
+      </c>
+      <c r="AS311">
         <v>1.33</v>
       </c>
-      <c r="X311">
-        <v>8.4</v>
-      </c>
-      <c r="Y311">
-        <v>1.01</v>
-      </c>
-      <c r="Z311">
-        <v>1.63</v>
-      </c>
-      <c r="AA311">
-        <v>3.4</v>
-      </c>
-      <c r="AB311">
-        <v>4.7</v>
-      </c>
-      <c r="AC311">
-        <v>1.02</v>
-      </c>
-      <c r="AD311">
-        <v>7.7</v>
-      </c>
-      <c r="AE311">
-        <v>1.28</v>
-      </c>
-      <c r="AF311">
-        <v>3.1</v>
-      </c>
-      <c r="AG311">
-        <v>1.92</v>
-      </c>
-      <c r="AH311">
-        <v>1.78</v>
-      </c>
-      <c r="AI311">
-        <v>1.98</v>
-      </c>
-      <c r="AJ311">
-        <v>1.74</v>
-      </c>
-      <c r="AK311">
-        <v>1.15</v>
-      </c>
-      <c r="AL311">
-        <v>1.26</v>
-      </c>
-      <c r="AM311">
-        <v>2.19</v>
-      </c>
-      <c r="AN311">
-        <v>1.28</v>
-      </c>
-      <c r="AO311">
-        <v>1.17</v>
-      </c>
-      <c r="AP311">
-        <v>1.37</v>
-      </c>
-      <c r="AQ311">
-        <v>1.11</v>
-      </c>
-      <c r="AR311">
-        <v>1.86</v>
-      </c>
-      <c r="AS311">
-        <v>1.29</v>
-      </c>
       <c r="AT311">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="AU311">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV311">
         <v>4</v>
       </c>
       <c r="AW311">
+        <v>6</v>
+      </c>
+      <c r="AX311">
+        <v>1</v>
+      </c>
+      <c r="AY311">
+        <v>11</v>
+      </c>
+      <c r="AZ311">
+        <v>6</v>
+      </c>
+      <c r="BA311">
         <v>5</v>
       </c>
-      <c r="AX311">
-        <v>3</v>
-      </c>
-      <c r="AY311">
-        <v>13</v>
-      </c>
-      <c r="AZ311">
-        <v>8</v>
-      </c>
-      <c r="BA311">
-        <v>2</v>
-      </c>
       <c r="BB311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC311">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD311">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BE311">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="BF311">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BG311">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BH311">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BI311">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="BJ311">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="BK311">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL311">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BM311">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BN311">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BO311">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="BP311">
-        <v>1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:68">
@@ -65583,7 +65586,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>7856932</v>
+        <v>7856931</v>
       </c>
       <c r="C312" t="s">
         <v>68</v>
@@ -65598,19 +65601,19 @@
         <v>9</v>
       </c>
       <c r="G312" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H312" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312">
         <v>0</v>
       </c>
       <c r="K312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L312">
         <v>2</v>
@@ -65625,163 +65628,369 @@
         <v>262</v>
       </c>
       <c r="P312" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="Q312">
-        <v>3.42</v>
+        <v>2.21</v>
       </c>
       <c r="R312">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="S312">
-        <v>3.06</v>
+        <v>5.6</v>
       </c>
       <c r="T312">
+        <v>1.4</v>
+      </c>
+      <c r="U312">
+        <v>2.73</v>
+      </c>
+      <c r="V312">
+        <v>3.04</v>
+      </c>
+      <c r="W312">
+        <v>1.33</v>
+      </c>
+      <c r="X312">
+        <v>8.4</v>
+      </c>
+      <c r="Y312">
+        <v>1.01</v>
+      </c>
+      <c r="Z312">
+        <v>1.63</v>
+      </c>
+      <c r="AA312">
+        <v>3.4</v>
+      </c>
+      <c r="AB312">
+        <v>4.7</v>
+      </c>
+      <c r="AC312">
+        <v>1.02</v>
+      </c>
+      <c r="AD312">
+        <v>7.7</v>
+      </c>
+      <c r="AE312">
+        <v>1.28</v>
+      </c>
+      <c r="AF312">
+        <v>3.1</v>
+      </c>
+      <c r="AG312">
+        <v>1.92</v>
+      </c>
+      <c r="AH312">
+        <v>1.78</v>
+      </c>
+      <c r="AI312">
+        <v>1.98</v>
+      </c>
+      <c r="AJ312">
+        <v>1.74</v>
+      </c>
+      <c r="AK312">
+        <v>1.15</v>
+      </c>
+      <c r="AL312">
+        <v>1.26</v>
+      </c>
+      <c r="AM312">
+        <v>2.19</v>
+      </c>
+      <c r="AN312">
+        <v>1.28</v>
+      </c>
+      <c r="AO312">
+        <v>1.17</v>
+      </c>
+      <c r="AP312">
         <v>1.37</v>
       </c>
-      <c r="U312">
-        <v>2.85</v>
-      </c>
-      <c r="V312">
-        <v>2.81</v>
-      </c>
-      <c r="W312">
-        <v>1.38</v>
-      </c>
-      <c r="X312">
-        <v>7.5</v>
-      </c>
-      <c r="Y312">
-        <v>1.03</v>
-      </c>
-      <c r="Z312">
-        <v>2.9</v>
-      </c>
-      <c r="AA312">
-        <v>3.02</v>
-      </c>
-      <c r="AB312">
-        <v>2.25</v>
-      </c>
-      <c r="AC312">
-        <v>1</v>
-      </c>
-      <c r="AD312">
-        <v>9.1</v>
-      </c>
-      <c r="AE312">
-        <v>1.23</v>
-      </c>
-      <c r="AF312">
-        <v>3.44</v>
-      </c>
-      <c r="AG312">
-        <v>1.85</v>
-      </c>
-      <c r="AH312">
-        <v>1.8</v>
-      </c>
-      <c r="AI312">
-        <v>1.69</v>
-      </c>
-      <c r="AJ312">
-        <v>2.04</v>
-      </c>
-      <c r="AK312">
-        <v>1.53</v>
-      </c>
-      <c r="AL312">
-        <v>1.31</v>
-      </c>
-      <c r="AM312">
-        <v>1.42</v>
-      </c>
-      <c r="AN312">
-        <v>1</v>
-      </c>
-      <c r="AO312">
-        <v>1</v>
-      </c>
-      <c r="AP312">
+      <c r="AQ312">
         <v>1.11</v>
       </c>
-      <c r="AQ312">
-        <v>0.95</v>
-      </c>
       <c r="AR312">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AS312">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AT312">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="AU312">
         <v>6</v>
       </c>
       <c r="AV312">
+        <v>4</v>
+      </c>
+      <c r="AW312">
+        <v>5</v>
+      </c>
+      <c r="AX312">
+        <v>3</v>
+      </c>
+      <c r="AY312">
+        <v>13</v>
+      </c>
+      <c r="AZ312">
         <v>8</v>
       </c>
-      <c r="AW312">
+      <c r="BA312">
+        <v>2</v>
+      </c>
+      <c r="BB312">
+        <v>3</v>
+      </c>
+      <c r="BC312">
+        <v>5</v>
+      </c>
+      <c r="BD312">
+        <v>1.5</v>
+      </c>
+      <c r="BE312">
+        <v>6.5</v>
+      </c>
+      <c r="BF312">
+        <v>2.8</v>
+      </c>
+      <c r="BG312">
+        <v>1.43</v>
+      </c>
+      <c r="BH312">
+        <v>2.55</v>
+      </c>
+      <c r="BI312">
+        <v>1.71</v>
+      </c>
+      <c r="BJ312">
+        <v>1.96</v>
+      </c>
+      <c r="BK312">
+        <v>2.15</v>
+      </c>
+      <c r="BL312">
+        <v>1.6</v>
+      </c>
+      <c r="BM312">
+        <v>2.8</v>
+      </c>
+      <c r="BN312">
+        <v>1.36</v>
+      </c>
+      <c r="BO312">
+        <v>3.65</v>
+      </c>
+      <c r="BP312">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:68">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>7856927</v>
+      </c>
+      <c r="C313" t="s">
+        <v>68</v>
+      </c>
+      <c r="D313" t="s">
+        <v>69</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45796.60416666666</v>
+      </c>
+      <c r="F313">
+        <v>9</v>
+      </c>
+      <c r="G313" t="s">
+        <v>81</v>
+      </c>
+      <c r="H313" t="s">
+        <v>75</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>3</v>
+      </c>
+      <c r="K313">
+        <v>3</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313">
+        <v>4</v>
+      </c>
+      <c r="N313">
+        <v>5</v>
+      </c>
+      <c r="O313" t="s">
+        <v>263</v>
+      </c>
+      <c r="P313" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q313">
+        <v>3.42</v>
+      </c>
+      <c r="R313">
+        <v>2.01</v>
+      </c>
+      <c r="S313">
+        <v>3.18</v>
+      </c>
+      <c r="T313">
+        <v>1.43</v>
+      </c>
+      <c r="U313">
+        <v>2.62</v>
+      </c>
+      <c r="V313">
+        <v>3.1</v>
+      </c>
+      <c r="W313">
+        <v>1.32</v>
+      </c>
+      <c r="X313">
+        <v>8.4</v>
+      </c>
+      <c r="Y313">
+        <v>1.01</v>
+      </c>
+      <c r="Z313">
+        <v>2.67</v>
+      </c>
+      <c r="AA313">
+        <v>3.03</v>
+      </c>
+      <c r="AB313">
+        <v>2.41</v>
+      </c>
+      <c r="AC313">
+        <v>1.01</v>
+      </c>
+      <c r="AD313">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE313">
+        <v>1.32</v>
+      </c>
+      <c r="AF313">
+        <v>2.88</v>
+      </c>
+      <c r="AG313">
+        <v>1.96</v>
+      </c>
+      <c r="AH313">
+        <v>1.74</v>
+      </c>
+      <c r="AI313">
+        <v>1.84</v>
+      </c>
+      <c r="AJ313">
+        <v>1.86</v>
+      </c>
+      <c r="AK313">
+        <v>1.5</v>
+      </c>
+      <c r="AL313">
+        <v>1.32</v>
+      </c>
+      <c r="AM313">
+        <v>1.43</v>
+      </c>
+      <c r="AN313">
+        <v>1.74</v>
+      </c>
+      <c r="AO313">
+        <v>1.37</v>
+      </c>
+      <c r="AP313">
+        <v>1.65</v>
+      </c>
+      <c r="AQ313">
+        <v>1.45</v>
+      </c>
+      <c r="AR313">
+        <v>1.74</v>
+      </c>
+      <c r="AS313">
+        <v>1.55</v>
+      </c>
+      <c r="AT313">
+        <v>3.29</v>
+      </c>
+      <c r="AU313">
+        <v>8</v>
+      </c>
+      <c r="AV313">
+        <v>10</v>
+      </c>
+      <c r="AW313">
+        <v>7</v>
+      </c>
+      <c r="AX313">
+        <v>9</v>
+      </c>
+      <c r="AY313">
+        <v>17</v>
+      </c>
+      <c r="AZ313">
+        <v>21</v>
+      </c>
+      <c r="BA313">
+        <v>3</v>
+      </c>
+      <c r="BB313">
+        <v>3</v>
+      </c>
+      <c r="BC313">
         <v>6</v>
       </c>
-      <c r="AX312">
-        <v>7</v>
-      </c>
-      <c r="AY312">
-        <v>15</v>
-      </c>
-      <c r="AZ312">
-        <v>15</v>
-      </c>
-      <c r="BA312">
-        <v>6</v>
-      </c>
-      <c r="BB312">
-        <v>2</v>
-      </c>
-      <c r="BC312">
-        <v>8</v>
-      </c>
-      <c r="BD312">
-        <v>2.2</v>
-      </c>
-      <c r="BE312">
-        <v>6.75</v>
-      </c>
-      <c r="BF312">
-        <v>1.79</v>
-      </c>
-      <c r="BG312">
-        <v>1.25</v>
-      </c>
-      <c r="BH312">
-        <v>3.4</v>
-      </c>
-      <c r="BI312">
-        <v>1.44</v>
-      </c>
-      <c r="BJ312">
-        <v>2.55</v>
-      </c>
-      <c r="BK312">
-        <v>1.73</v>
-      </c>
-      <c r="BL312">
-        <v>1.94</v>
-      </c>
-      <c r="BM312">
+      <c r="BD313">
+        <v>2.09</v>
+      </c>
+      <c r="BE313">
+        <v>6.25</v>
+      </c>
+      <c r="BF313">
         <v>2.14</v>
       </c>
-      <c r="BN312">
-        <v>1.6</v>
-      </c>
-      <c r="BO312">
-        <v>2.7</v>
-      </c>
-      <c r="BP312">
-        <v>1.38</v>
+      <c r="BG313">
+        <v>1.28</v>
+      </c>
+      <c r="BH313">
+        <v>3.08</v>
+      </c>
+      <c r="BI313">
+        <v>1.54</v>
+      </c>
+      <c r="BJ313">
+        <v>2.25</v>
+      </c>
+      <c r="BK313">
+        <v>1.95</v>
+      </c>
+      <c r="BL313">
+        <v>1.76</v>
+      </c>
+      <c r="BM313">
+        <v>2.54</v>
+      </c>
+      <c r="BN313">
+        <v>1.43</v>
+      </c>
+      <c r="BO313">
+        <v>3.42</v>
+      </c>
+      <c r="BP313">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,15 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['39', '45+2']</t>
+  </si>
+  <si>
+    <t>['46', '61']</t>
+  </si>
+  <si>
     <t>['14', '34']</t>
   </si>
   <si>
@@ -1148,6 +1157,9 @@
   </si>
   <si>
     <t>['11', '40', '45+3', '70']</t>
+  </si>
+  <si>
+    <t>['36', '74']</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP313"/>
+  <dimension ref="A1:BP316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2467,7 +2479,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ5">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2798,7 +2810,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2876,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ7">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3004,7 +3016,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3622,7 +3634,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3703,7 +3715,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3828,7 +3840,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3906,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.16</v>
@@ -4034,7 +4046,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -4240,7 +4252,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4318,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ14">
         <v>1.11</v>
@@ -4446,7 +4458,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4652,7 +4664,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -5270,7 +5282,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5476,7 +5488,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5763,7 +5775,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5888,7 +5900,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -6094,7 +6106,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6172,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ23">
         <v>1.3</v>
@@ -6587,7 +6599,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ25">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -7408,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.05</v>
@@ -7536,7 +7548,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7614,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ30">
         <v>1.4</v>
@@ -7742,7 +7754,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7948,7 +7960,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -8154,7 +8166,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8853,7 +8865,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ36">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8978,7 +8990,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9262,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ38">
         <v>0.95</v>
@@ -9596,7 +9608,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9677,7 +9689,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ40">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9802,7 +9814,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -10086,7 +10098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>0.6</v>
@@ -10707,7 +10719,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ45">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10910,7 +10922,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ46">
         <v>0.95</v>
@@ -11038,7 +11050,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11450,7 +11462,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11531,7 +11543,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -12146,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ52">
         <v>0.9</v>
@@ -12355,7 +12367,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12480,7 +12492,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -13098,7 +13110,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13382,10 +13394,10 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -13510,7 +13522,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13716,7 +13728,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -14128,7 +14140,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14412,10 +14424,10 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ63">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -15158,7 +15170,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15570,7 +15582,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15648,10 +15660,10 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15982,7 +15994,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -16188,7 +16200,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16475,7 +16487,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ73">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16806,7 +16818,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -17218,7 +17230,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17296,7 +17308,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ77">
         <v>1.3</v>
@@ -17630,7 +17642,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17711,7 +17723,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ79">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -18042,7 +18054,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18454,7 +18466,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18532,7 +18544,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ83">
         <v>1.16</v>
@@ -19072,7 +19084,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19153,7 +19165,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19356,7 +19368,7 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.95</v>
@@ -19771,7 +19783,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.6</v>
@@ -19896,7 +19908,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -20102,7 +20114,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20180,7 +20192,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ91">
         <v>0.75</v>
@@ -20308,7 +20320,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20514,7 +20526,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20801,7 +20813,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ94">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -20926,7 +20938,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21416,7 +21428,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ97">
         <v>1.4</v>
@@ -22034,7 +22046,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.9</v>
@@ -22162,7 +22174,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22243,7 +22255,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22780,7 +22792,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22858,7 +22870,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ104">
         <v>0.95</v>
@@ -23398,7 +23410,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23479,7 +23491,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ107">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23604,7 +23616,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23891,7 +23903,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ109">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR109">
         <v>2.02</v>
@@ -24016,7 +24028,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24222,7 +24234,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24634,7 +24646,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25046,7 +25058,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25330,7 +25342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ116">
         <v>1.05</v>
@@ -25536,10 +25548,10 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -26282,7 +26294,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26488,7 +26500,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26772,7 +26784,7 @@
         <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.11</v>
@@ -27312,7 +27324,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27390,10 +27402,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -28011,7 +28023,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -28832,10 +28844,10 @@
         <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ133">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -29247,7 +29259,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ135">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>1.36</v>
@@ -29578,7 +29590,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -30196,7 +30208,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30608,7 +30620,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30814,7 +30826,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30892,7 +30904,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>1.45</v>
@@ -31020,7 +31032,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31098,7 +31110,7 @@
         <v>0.75</v>
       </c>
       <c r="AP144">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ144">
         <v>1.16</v>
@@ -31226,7 +31238,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31307,7 +31319,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR145">
         <v>1.39</v>
@@ -31513,7 +31525,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ146">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR146">
         <v>1.46</v>
@@ -31638,7 +31650,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31719,7 +31731,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ147">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31844,7 +31856,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32050,7 +32062,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -32256,7 +32268,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32874,7 +32886,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32952,7 +32964,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ153">
         <v>1.45</v>
@@ -33080,7 +33092,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33698,7 +33710,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33776,7 +33788,7 @@
         <v>1.33</v>
       </c>
       <c r="AP157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>0.95</v>
@@ -33982,7 +33994,7 @@
         <v>1.44</v>
       </c>
       <c r="AP158">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ158">
         <v>1.05</v>
@@ -34397,7 +34409,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -35140,7 +35152,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -35552,7 +35564,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -35630,7 +35642,7 @@
         <v>1.3</v>
       </c>
       <c r="AP166">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ166">
         <v>1.4</v>
@@ -35839,7 +35851,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ167">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR167">
         <v>1.24</v>
@@ -36170,7 +36182,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36251,7 +36263,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR169">
         <v>1.46</v>
@@ -36376,7 +36388,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>3.9</v>
@@ -36866,7 +36878,7 @@
         <v>0.5</v>
       </c>
       <c r="AP172">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ172">
         <v>0.6</v>
@@ -37484,10 +37496,10 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR175">
         <v>1.78</v>
@@ -38436,7 +38448,7 @@
         <v>86</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q180">
         <v>3.05</v>
@@ -39135,7 +39147,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ183">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR183">
         <v>1.63</v>
@@ -39544,7 +39556,7 @@
         <v>0.91</v>
       </c>
       <c r="AP185">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ185">
         <v>1.05</v>
@@ -39878,7 +39890,7 @@
         <v>201</v>
       </c>
       <c r="P187" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q187">
         <v>3.85</v>
@@ -39959,7 +39971,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ187">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR187">
         <v>1.38</v>
@@ -40290,7 +40302,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>2.7</v>
@@ -40574,10 +40586,10 @@
         <v>1.09</v>
       </c>
       <c r="AP190">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ190">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR190">
         <v>1.64</v>
@@ -40780,7 +40792,7 @@
         <v>0.45</v>
       </c>
       <c r="AP191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ191">
         <v>0.75</v>
@@ -41114,7 +41126,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41320,7 +41332,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q194">
         <v>3.15</v>
@@ -42016,7 +42028,7 @@
         <v>0.92</v>
       </c>
       <c r="AP197">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ197">
         <v>1.11</v>
@@ -42222,7 +42234,7 @@
         <v>1.5</v>
       </c>
       <c r="AP198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>1.4</v>
@@ -42843,7 +42855,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ201">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR201">
         <v>1.3</v>
@@ -42968,7 +42980,7 @@
         <v>210</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q202">
         <v>3.75</v>
@@ -43049,7 +43061,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ202">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR202">
         <v>1.75</v>
@@ -43174,7 +43186,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -43461,7 +43473,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ204">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR204">
         <v>1.36</v>
@@ -43586,7 +43598,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q205">
         <v>3.1</v>
@@ -43792,7 +43804,7 @@
         <v>211</v>
       </c>
       <c r="P206" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q206">
         <v>1.91</v>
@@ -43870,7 +43882,7 @@
         <v>0.42</v>
       </c>
       <c r="AP206">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ206">
         <v>0.75</v>
@@ -44410,7 +44422,7 @@
         <v>214</v>
       </c>
       <c r="P209" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q209">
         <v>4.75</v>
@@ -44616,7 +44628,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44900,7 +44912,7 @@
         <v>1</v>
       </c>
       <c r="AP211">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>1.4</v>
@@ -45234,7 +45246,7 @@
         <v>86</v>
       </c>
       <c r="P213" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q213">
         <v>2.65</v>
@@ -45646,7 +45658,7 @@
         <v>86</v>
       </c>
       <c r="P215" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q215">
         <v>6.8</v>
@@ -45727,7 +45739,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ215">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR215">
         <v>1.43</v>
@@ -45852,7 +45864,7 @@
         <v>218</v>
       </c>
       <c r="P216" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q216">
         <v>1.91</v>
@@ -45930,7 +45942,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ216">
         <v>0.95</v>
@@ -46264,7 +46276,7 @@
         <v>220</v>
       </c>
       <c r="P218" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q218">
         <v>2.18</v>
@@ -46676,7 +46688,7 @@
         <v>221</v>
       </c>
       <c r="P220" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q220">
         <v>4.3</v>
@@ -46960,7 +46972,7 @@
         <v>1.15</v>
       </c>
       <c r="AP221">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ221">
         <v>1.05</v>
@@ -47375,7 +47387,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ223">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR223">
         <v>2.11</v>
@@ -47500,7 +47512,7 @@
         <v>223</v>
       </c>
       <c r="P224" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q224">
         <v>3.5</v>
@@ -47706,7 +47718,7 @@
         <v>209</v>
       </c>
       <c r="P225" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>3.6</v>
@@ -47787,7 +47799,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ225">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR225">
         <v>1.67</v>
@@ -48118,7 +48130,7 @@
         <v>156</v>
       </c>
       <c r="P227" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q227">
         <v>3.75</v>
@@ -48324,7 +48336,7 @@
         <v>86</v>
       </c>
       <c r="P228" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q228">
         <v>2.24</v>
@@ -48402,7 +48414,7 @@
         <v>0.64</v>
       </c>
       <c r="AP228">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ228">
         <v>0.9</v>
@@ -48608,7 +48620,7 @@
         <v>0.93</v>
       </c>
       <c r="AP229">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ229">
         <v>1.05</v>
@@ -49023,7 +49035,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ231">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR231">
         <v>1.73</v>
@@ -49560,7 +49572,7 @@
         <v>226</v>
       </c>
       <c r="P234" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q234">
         <v>2.88</v>
@@ -49766,7 +49778,7 @@
         <v>214</v>
       </c>
       <c r="P235" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q235">
         <v>3.65</v>
@@ -50259,7 +50271,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ237">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR237">
         <v>1.24</v>
@@ -50462,7 +50474,7 @@
         <v>0.36</v>
       </c>
       <c r="AP238">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ238">
         <v>0.6</v>
@@ -51002,7 +51014,7 @@
         <v>86</v>
       </c>
       <c r="P241" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -51083,7 +51095,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ241">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR241">
         <v>1.56</v>
@@ -51208,7 +51220,7 @@
         <v>86</v>
       </c>
       <c r="P242" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q242">
         <v>3.5</v>
@@ -51492,7 +51504,7 @@
         <v>1.47</v>
       </c>
       <c r="AP243">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ243">
         <v>1.4</v>
@@ -51904,10 +51916,10 @@
         <v>1.47</v>
       </c>
       <c r="AP245">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ245">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR245">
         <v>1.92</v>
@@ -52444,7 +52456,7 @@
         <v>234</v>
       </c>
       <c r="P248" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q248">
         <v>2.6</v>
@@ -52525,7 +52537,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ248">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR248">
         <v>2.08</v>
@@ -52650,7 +52662,7 @@
         <v>235</v>
       </c>
       <c r="P249" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q249">
         <v>2.05</v>
@@ -53062,7 +53074,7 @@
         <v>86</v>
       </c>
       <c r="P251" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q251">
         <v>2.8</v>
@@ -53268,7 +53280,7 @@
         <v>236</v>
       </c>
       <c r="P252" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q252">
         <v>2.8</v>
@@ -53474,7 +53486,7 @@
         <v>237</v>
       </c>
       <c r="P253" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q253">
         <v>2.95</v>
@@ -53886,7 +53898,7 @@
         <v>153</v>
       </c>
       <c r="P255" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q255">
         <v>4.1</v>
@@ -53967,7 +53979,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ255">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR255">
         <v>1.36</v>
@@ -54092,7 +54104,7 @@
         <v>86</v>
       </c>
       <c r="P256" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q256">
         <v>3.65</v>
@@ -54376,7 +54388,7 @@
         <v>1.6</v>
       </c>
       <c r="AP257">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ257">
         <v>1.45</v>
@@ -54710,7 +54722,7 @@
         <v>240</v>
       </c>
       <c r="P259" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q259">
         <v>3.76</v>
@@ -55328,7 +55340,7 @@
         <v>86</v>
       </c>
       <c r="P262" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q262">
         <v>1.85</v>
@@ -55615,7 +55627,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ263">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR263">
         <v>1.71</v>
@@ -56024,7 +56036,7 @@
         <v>1.44</v>
       </c>
       <c r="AP265">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ265">
         <v>1.3</v>
@@ -56152,7 +56164,7 @@
         <v>86</v>
       </c>
       <c r="P266" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q266">
         <v>3</v>
@@ -56564,7 +56576,7 @@
         <v>124</v>
       </c>
       <c r="P268" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q268">
         <v>2.55</v>
@@ -56770,7 +56782,7 @@
         <v>244</v>
       </c>
       <c r="P269" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q269">
         <v>2.8</v>
@@ -56848,10 +56860,10 @@
         <v>1.29</v>
       </c>
       <c r="AP269">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ269">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR269">
         <v>1.58</v>
@@ -57260,10 +57272,10 @@
         <v>1.88</v>
       </c>
       <c r="AP271">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR271">
         <v>1.83</v>
@@ -57594,7 +57606,7 @@
         <v>246</v>
       </c>
       <c r="P273" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q273">
         <v>2.19</v>
@@ -57672,10 +57684,10 @@
         <v>1.06</v>
       </c>
       <c r="AP273">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ273">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR273">
         <v>1.87</v>
@@ -58418,7 +58430,7 @@
         <v>86</v>
       </c>
       <c r="P277" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q277">
         <v>3</v>
@@ -58830,7 +58842,7 @@
         <v>250</v>
       </c>
       <c r="P279" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q279">
         <v>2.75</v>
@@ -59242,7 +59254,7 @@
         <v>86</v>
       </c>
       <c r="P281" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q281">
         <v>3.75</v>
@@ -59654,7 +59666,7 @@
         <v>86</v>
       </c>
       <c r="P283" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q283">
         <v>2.75</v>
@@ -60144,7 +60156,7 @@
         <v>1.44</v>
       </c>
       <c r="AP285">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ285">
         <v>1.3</v>
@@ -60272,7 +60284,7 @@
         <v>86</v>
       </c>
       <c r="P286" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q286">
         <v>4</v>
@@ -60478,7 +60490,7 @@
         <v>141</v>
       </c>
       <c r="P287" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q287">
         <v>4.5</v>
@@ -60559,7 +60571,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ287">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR287">
         <v>1.72</v>
@@ -61302,7 +61314,7 @@
         <v>109</v>
       </c>
       <c r="P291" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q291">
         <v>2.45</v>
@@ -61380,10 +61392,10 @@
         <v>1.06</v>
       </c>
       <c r="AP291">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ291">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR291">
         <v>1.82</v>
@@ -61508,7 +61520,7 @@
         <v>109</v>
       </c>
       <c r="P292" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q292">
         <v>2.05</v>
@@ -61998,7 +62010,7 @@
         <v>1.39</v>
       </c>
       <c r="AP294">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AQ294">
         <v>1.4</v>
@@ -62126,7 +62138,7 @@
         <v>121</v>
       </c>
       <c r="P295" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q295">
         <v>2.94</v>
@@ -62538,7 +62550,7 @@
         <v>257</v>
       </c>
       <c r="P297" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q297">
         <v>1.94</v>
@@ -62619,7 +62631,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ297">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AR297">
         <v>1.98</v>
@@ -62744,7 +62756,7 @@
         <v>86</v>
       </c>
       <c r="P298" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q298">
         <v>6.25</v>
@@ -63156,7 +63168,7 @@
         <v>228</v>
       </c>
       <c r="P300" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q300">
         <v>2.45</v>
@@ -63568,7 +63580,7 @@
         <v>259</v>
       </c>
       <c r="P302" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q302">
         <v>3.2</v>
@@ -63646,7 +63658,7 @@
         <v>1.39</v>
       </c>
       <c r="AP302">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AQ302">
         <v>1.45</v>
@@ -63774,7 +63786,7 @@
         <v>86</v>
       </c>
       <c r="P303" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q303">
         <v>4.2</v>
@@ -63852,10 +63864,10 @@
         <v>1.89</v>
       </c>
       <c r="AP303">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AQ303">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR303">
         <v>1.57</v>
@@ -63980,7 +63992,7 @@
         <v>165</v>
       </c>
       <c r="P304" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q304">
         <v>3.4</v>
@@ -64267,7 +64279,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ305">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR305">
         <v>1.35</v>
@@ -64598,7 +64610,7 @@
         <v>239</v>
       </c>
       <c r="P307" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q307">
         <v>3.2</v>
@@ -65216,7 +65228,7 @@
         <v>261</v>
       </c>
       <c r="P310" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q310">
         <v>3.42</v>
@@ -65422,7 +65434,7 @@
         <v>86</v>
       </c>
       <c r="P311" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q311">
         <v>4</v>
@@ -65628,7 +65640,7 @@
         <v>262</v>
       </c>
       <c r="P312" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q312">
         <v>2.21</v>
@@ -65834,7 +65846,7 @@
         <v>263</v>
       </c>
       <c r="P313" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q313">
         <v>3.42</v>
@@ -65991,6 +66003,624 @@
       </c>
       <c r="BP313">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="314" spans="1:68">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>7856933</v>
+      </c>
+      <c r="C314" t="s">
+        <v>68</v>
+      </c>
+      <c r="D314" t="s">
+        <v>69</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45800.60416666666</v>
+      </c>
+      <c r="F314">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>75</v>
+      </c>
+      <c r="H314" t="s">
+        <v>74</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="N314">
+        <v>2</v>
+      </c>
+      <c r="O314" t="s">
+        <v>264</v>
+      </c>
+      <c r="P314" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q314">
+        <v>2.38</v>
+      </c>
+      <c r="R314">
+        <v>2.1</v>
+      </c>
+      <c r="S314">
+        <v>4.5</v>
+      </c>
+      <c r="T314">
+        <v>1.4</v>
+      </c>
+      <c r="U314">
+        <v>2.75</v>
+      </c>
+      <c r="V314">
+        <v>2.75</v>
+      </c>
+      <c r="W314">
+        <v>1.4</v>
+      </c>
+      <c r="X314">
+        <v>6.15</v>
+      </c>
+      <c r="Y314">
+        <v>1.09</v>
+      </c>
+      <c r="Z314">
+        <v>1.8</v>
+      </c>
+      <c r="AA314">
+        <v>3.06</v>
+      </c>
+      <c r="AB314">
+        <v>4.2</v>
+      </c>
+      <c r="AC314">
+        <v>1.06</v>
+      </c>
+      <c r="AD314">
+        <v>8</v>
+      </c>
+      <c r="AE314">
+        <v>1.3</v>
+      </c>
+      <c r="AF314">
+        <v>3.25</v>
+      </c>
+      <c r="AG314">
+        <v>1.95</v>
+      </c>
+      <c r="AH314">
+        <v>1.75</v>
+      </c>
+      <c r="AI314">
+        <v>1.75</v>
+      </c>
+      <c r="AJ314">
+        <v>1.9</v>
+      </c>
+      <c r="AK314">
+        <v>1.15</v>
+      </c>
+      <c r="AL314">
+        <v>1.28</v>
+      </c>
+      <c r="AM314">
+        <v>1.8</v>
+      </c>
+      <c r="AN314">
+        <v>2.11</v>
+      </c>
+      <c r="AO314">
+        <v>1.95</v>
+      </c>
+      <c r="AP314">
+        <v>2.05</v>
+      </c>
+      <c r="AQ314">
+        <v>1.9</v>
+      </c>
+      <c r="AR314">
+        <v>1.84</v>
+      </c>
+      <c r="AS314">
+        <v>1.59</v>
+      </c>
+      <c r="AT314">
+        <v>3.43</v>
+      </c>
+      <c r="AU314">
+        <v>9</v>
+      </c>
+      <c r="AV314">
+        <v>6</v>
+      </c>
+      <c r="AW314">
+        <v>14</v>
+      </c>
+      <c r="AX314">
+        <v>6</v>
+      </c>
+      <c r="AY314">
+        <v>30</v>
+      </c>
+      <c r="AZ314">
+        <v>12</v>
+      </c>
+      <c r="BA314">
+        <v>8</v>
+      </c>
+      <c r="BB314">
+        <v>2</v>
+      </c>
+      <c r="BC314">
+        <v>10</v>
+      </c>
+      <c r="BD314">
+        <v>1.58</v>
+      </c>
+      <c r="BE314">
+        <v>6.75</v>
+      </c>
+      <c r="BF314">
+        <v>2.6</v>
+      </c>
+      <c r="BG314">
+        <v>1.3</v>
+      </c>
+      <c r="BH314">
+        <v>3.05</v>
+      </c>
+      <c r="BI314">
+        <v>1.53</v>
+      </c>
+      <c r="BJ314">
+        <v>2.28</v>
+      </c>
+      <c r="BK314">
+        <v>1.88</v>
+      </c>
+      <c r="BL314">
+        <v>1.78</v>
+      </c>
+      <c r="BM314">
+        <v>2.38</v>
+      </c>
+      <c r="BN314">
+        <v>1.48</v>
+      </c>
+      <c r="BO314">
+        <v>3.1</v>
+      </c>
+      <c r="BP314">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:68">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>7856935</v>
+      </c>
+      <c r="C315" t="s">
+        <v>68</v>
+      </c>
+      <c r="D315" t="s">
+        <v>69</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45801.5</v>
+      </c>
+      <c r="F315">
+        <v>10</v>
+      </c>
+      <c r="G315" t="s">
+        <v>82</v>
+      </c>
+      <c r="H315" t="s">
+        <v>81</v>
+      </c>
+      <c r="I315">
+        <v>2</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>3</v>
+      </c>
+      <c r="L315">
+        <v>2</v>
+      </c>
+      <c r="M315">
+        <v>2</v>
+      </c>
+      <c r="N315">
+        <v>4</v>
+      </c>
+      <c r="O315" t="s">
+        <v>265</v>
+      </c>
+      <c r="P315" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q315">
+        <v>3.1</v>
+      </c>
+      <c r="R315">
+        <v>2.05</v>
+      </c>
+      <c r="S315">
+        <v>3.75</v>
+      </c>
+      <c r="T315">
+        <v>1.5</v>
+      </c>
+      <c r="U315">
+        <v>2.5</v>
+      </c>
+      <c r="V315">
+        <v>3.4</v>
+      </c>
+      <c r="W315">
+        <v>1.3</v>
+      </c>
+      <c r="X315">
+        <v>10</v>
+      </c>
+      <c r="Y315">
+        <v>1.06</v>
+      </c>
+      <c r="Z315">
+        <v>2.25</v>
+      </c>
+      <c r="AA315">
+        <v>2.93</v>
+      </c>
+      <c r="AB315">
+        <v>2.98</v>
+      </c>
+      <c r="AC315">
+        <v>0</v>
+      </c>
+      <c r="AD315">
+        <v>0</v>
+      </c>
+      <c r="AE315">
+        <v>0</v>
+      </c>
+      <c r="AF315">
+        <v>0</v>
+      </c>
+      <c r="AG315">
+        <v>1.92</v>
+      </c>
+      <c r="AH315">
+        <v>1.78</v>
+      </c>
+      <c r="AI315">
+        <v>1.91</v>
+      </c>
+      <c r="AJ315">
+        <v>1.8</v>
+      </c>
+      <c r="AK315">
+        <v>0</v>
+      </c>
+      <c r="AL315">
+        <v>0</v>
+      </c>
+      <c r="AM315">
+        <v>0</v>
+      </c>
+      <c r="AN315">
+        <v>1.89</v>
+      </c>
+      <c r="AO315">
+        <v>1.16</v>
+      </c>
+      <c r="AP315">
+        <v>1.85</v>
+      </c>
+      <c r="AQ315">
+        <v>1.15</v>
+      </c>
+      <c r="AR315">
+        <v>1.56</v>
+      </c>
+      <c r="AS315">
+        <v>1.39</v>
+      </c>
+      <c r="AT315">
+        <v>2.95</v>
+      </c>
+      <c r="AU315">
+        <v>7</v>
+      </c>
+      <c r="AV315">
+        <v>4</v>
+      </c>
+      <c r="AW315">
+        <v>11</v>
+      </c>
+      <c r="AX315">
+        <v>13</v>
+      </c>
+      <c r="AY315">
+        <v>20</v>
+      </c>
+      <c r="AZ315">
+        <v>20</v>
+      </c>
+      <c r="BA315">
+        <v>9</v>
+      </c>
+      <c r="BB315">
+        <v>4</v>
+      </c>
+      <c r="BC315">
+        <v>13</v>
+      </c>
+      <c r="BD315">
+        <v>0</v>
+      </c>
+      <c r="BE315">
+        <v>0</v>
+      </c>
+      <c r="BF315">
+        <v>0</v>
+      </c>
+      <c r="BG315">
+        <v>0</v>
+      </c>
+      <c r="BH315">
+        <v>0</v>
+      </c>
+      <c r="BI315">
+        <v>0</v>
+      </c>
+      <c r="BJ315">
+        <v>0</v>
+      </c>
+      <c r="BK315">
+        <v>0</v>
+      </c>
+      <c r="BL315">
+        <v>0</v>
+      </c>
+      <c r="BM315">
+        <v>0</v>
+      </c>
+      <c r="BN315">
+        <v>0</v>
+      </c>
+      <c r="BO315">
+        <v>0</v>
+      </c>
+      <c r="BP315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:68">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>7856934</v>
+      </c>
+      <c r="C316" t="s">
+        <v>68</v>
+      </c>
+      <c r="D316" t="s">
+        <v>69</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45801.625</v>
+      </c>
+      <c r="F316">
+        <v>10</v>
+      </c>
+      <c r="G316" t="s">
+        <v>80</v>
+      </c>
+      <c r="H316" t="s">
+        <v>83</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316">
+        <v>2</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316">
+        <v>3</v>
+      </c>
+      <c r="O316" t="s">
+        <v>266</v>
+      </c>
+      <c r="P316" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q316">
+        <v>2.2</v>
+      </c>
+      <c r="R316">
+        <v>2.3</v>
+      </c>
+      <c r="S316">
+        <v>5.5</v>
+      </c>
+      <c r="T316">
+        <v>1.36</v>
+      </c>
+      <c r="U316">
+        <v>3</v>
+      </c>
+      <c r="V316">
+        <v>2.63</v>
+      </c>
+      <c r="W316">
+        <v>1.44</v>
+      </c>
+      <c r="X316">
+        <v>7</v>
+      </c>
+      <c r="Y316">
+        <v>1.1</v>
+      </c>
+      <c r="Z316">
+        <v>1.47</v>
+      </c>
+      <c r="AA316">
+        <v>3.81</v>
+      </c>
+      <c r="AB316">
+        <v>5.7</v>
+      </c>
+      <c r="AC316">
+        <v>1.04</v>
+      </c>
+      <c r="AD316">
+        <v>9</v>
+      </c>
+      <c r="AE316">
+        <v>1.28</v>
+      </c>
+      <c r="AF316">
+        <v>3.5</v>
+      </c>
+      <c r="AG316">
+        <v>1.81</v>
+      </c>
+      <c r="AH316">
+        <v>1.89</v>
+      </c>
+      <c r="AI316">
+        <v>1.83</v>
+      </c>
+      <c r="AJ316">
+        <v>1.83</v>
+      </c>
+      <c r="AK316">
+        <v>1.13</v>
+      </c>
+      <c r="AL316">
+        <v>1.2</v>
+      </c>
+      <c r="AM316">
+        <v>2.2</v>
+      </c>
+      <c r="AN316">
+        <v>1.95</v>
+      </c>
+      <c r="AO316">
+        <v>1.32</v>
+      </c>
+      <c r="AP316">
+        <v>2</v>
+      </c>
+      <c r="AQ316">
+        <v>1.25</v>
+      </c>
+      <c r="AR316">
+        <v>1.77</v>
+      </c>
+      <c r="AS316">
+        <v>1.23</v>
+      </c>
+      <c r="AT316">
+        <v>3</v>
+      </c>
+      <c r="AU316">
+        <v>6</v>
+      </c>
+      <c r="AV316">
+        <v>5</v>
+      </c>
+      <c r="AW316">
+        <v>11</v>
+      </c>
+      <c r="AX316">
+        <v>2</v>
+      </c>
+      <c r="AY316">
+        <v>19</v>
+      </c>
+      <c r="AZ316">
+        <v>8</v>
+      </c>
+      <c r="BA316">
+        <v>4</v>
+      </c>
+      <c r="BB316">
+        <v>6</v>
+      </c>
+      <c r="BC316">
+        <v>10</v>
+      </c>
+      <c r="BD316">
+        <v>1.55</v>
+      </c>
+      <c r="BE316">
+        <v>6.75</v>
+      </c>
+      <c r="BF316">
+        <v>2.7</v>
+      </c>
+      <c r="BG316">
+        <v>1.33</v>
+      </c>
+      <c r="BH316">
+        <v>2.95</v>
+      </c>
+      <c r="BI316">
+        <v>1.56</v>
+      </c>
+      <c r="BJ316">
+        <v>2.2</v>
+      </c>
+      <c r="BK316">
+        <v>1.92</v>
+      </c>
+      <c r="BL316">
+        <v>1.75</v>
+      </c>
+      <c r="BM316">
+        <v>2.43</v>
+      </c>
+      <c r="BN316">
+        <v>1.47</v>
+      </c>
+      <c r="BO316">
+        <v>3.15</v>
+      </c>
+      <c r="BP316">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>
